--- a/Filtered_By_Region/Region VI/Region VI_GABALDON.xlsx
+++ b/Filtered_By_Region/Region VI/Region VI_GABALDON.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT34"/>
+  <dimension ref="A1:AU34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -668,6 +669,11 @@
           <t>Unnamed: 45</t>
         </is>
       </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -732,10 +738,10 @@
       <c r="P2" t="n">
         <v>1</v>
       </c>
-      <c r="Q2" s="2" t="n">
+      <c r="Q2" s="3" t="n">
         <v>44349</v>
       </c>
-      <c r="R2" s="2" t="n">
+      <c r="R2" s="3" t="n">
         <v>44329</v>
       </c>
       <c r="S2" t="inlineStr">
@@ -748,19 +754,19 @@
           <t>CY 2020 GABALDON - 001</t>
         </is>
       </c>
-      <c r="U2" s="2" t="n">
+      <c r="U2" s="3" t="n">
         <v>44068</v>
       </c>
-      <c r="V2" s="2" t="n">
+      <c r="V2" s="3" t="n">
         <v>44075</v>
       </c>
-      <c r="W2" s="2" t="n">
+      <c r="W2" s="3" t="n">
         <v>44088</v>
       </c>
-      <c r="X2" s="2" t="n">
+      <c r="X2" s="3" t="n">
         <v>44099</v>
       </c>
-      <c r="Y2" s="2" t="n">
+      <c r="Y2" s="3" t="n">
         <v>44162</v>
       </c>
       <c r="Z2" t="inlineStr">
@@ -768,7 +774,6 @@
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="n">
         <v>0</v>
       </c>
@@ -805,16 +810,11 @@
       <c r="AM2" t="n">
         <v>0</v>
       </c>
-      <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
       <c r="AT2" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -884,10 +884,10 @@
       <c r="P3" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" s="2" t="n">
+      <c r="Q3" s="3" t="n">
         <v>44557</v>
       </c>
-      <c r="R3" s="2" t="n">
+      <c r="R3" s="3" t="n">
         <v>44557</v>
       </c>
       <c r="S3" t="inlineStr">
@@ -900,19 +900,19 @@
           <t>r6bcd04142021-P25</t>
         </is>
       </c>
-      <c r="U3" s="2" t="n">
+      <c r="U3" s="3" t="n">
         <v>44302</v>
       </c>
-      <c r="V3" s="2" t="n">
+      <c r="V3" s="3" t="n">
         <v>44312</v>
       </c>
-      <c r="W3" s="2" t="n">
+      <c r="W3" s="3" t="n">
         <v>44326</v>
       </c>
-      <c r="X3" s="2" t="n">
+      <c r="X3" s="3" t="n">
         <v>44337</v>
       </c>
-      <c r="Y3" s="2" t="n">
+      <c r="Y3" s="3" t="n">
         <v>44407</v>
       </c>
       <c r="Z3" t="inlineStr">
@@ -920,7 +920,6 @@
           <t>RISM BUILDERS &amp; CONST. SERVICES INC.</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="n">
         <v>0</v>
       </c>
@@ -957,16 +956,11 @@
       <c r="AM3" t="n">
         <v>0</v>
       </c>
-      <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr"/>
       <c r="AT3" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1036,10 +1030,10 @@
       <c r="P4" t="n">
         <v>1</v>
       </c>
-      <c r="Q4" s="2" t="n">
+      <c r="Q4" s="3" t="n">
         <v>44834</v>
       </c>
-      <c r="R4" s="2" t="n">
+      <c r="R4" s="3" t="n">
         <v>44840</v>
       </c>
       <c r="S4" t="inlineStr">
@@ -1052,19 +1046,19 @@
           <t>Gab2020-RVI-022-ILOILO-B1-L1</t>
         </is>
       </c>
-      <c r="U4" s="2" t="n">
+      <c r="U4" s="3" t="n">
         <v>43882</v>
       </c>
-      <c r="V4" s="2" t="n">
+      <c r="V4" s="3" t="n">
         <v>43888</v>
       </c>
-      <c r="W4" s="2" t="n">
+      <c r="W4" s="3" t="n">
         <v>43900</v>
       </c>
-      <c r="X4" s="2" t="n">
+      <c r="X4" s="3" t="n">
         <v>44152</v>
       </c>
-      <c r="Y4" s="2" t="n">
+      <c r="Y4" s="3" t="n">
         <v>44172</v>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1113,20 +1107,16 @@
       <c r="AM4" t="n">
         <v>0</v>
       </c>
-      <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr"/>
       <c r="AQ4" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr"/>
       <c r="AT4" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1196,10 +1186,10 @@
       <c r="P5" t="n">
         <v>1</v>
       </c>
-      <c r="Q5" s="2" t="n">
+      <c r="Q5" s="3" t="n">
         <v>44329</v>
       </c>
-      <c r="R5" s="2" t="n">
+      <c r="R5" s="3" t="n">
         <v>44550</v>
       </c>
       <c r="S5" t="inlineStr">
@@ -1212,19 +1202,19 @@
           <t>Gab2020-RVI-022-ILOILO-B1-L2</t>
         </is>
       </c>
-      <c r="U5" s="2" t="n">
+      <c r="U5" s="3" t="n">
         <v>43882</v>
       </c>
-      <c r="V5" s="2" t="n">
+      <c r="V5" s="3" t="n">
         <v>43888</v>
       </c>
-      <c r="W5" s="2" t="n">
+      <c r="W5" s="3" t="n">
         <v>43900</v>
       </c>
-      <c r="X5" s="2" t="n">
+      <c r="X5" s="3" t="n">
         <v>44152</v>
       </c>
-      <c r="Y5" s="2" t="n">
+      <c r="Y5" s="3" t="n">
         <v>44172</v>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1232,7 +1222,6 @@
           <t>Four SG Enterprises</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="n">
         <v>0</v>
       </c>
@@ -1269,16 +1258,11 @@
       <c r="AM5" t="n">
         <v>0</v>
       </c>
-      <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="inlineStr"/>
-      <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="inlineStr"/>
       <c r="AT5" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1348,10 +1332,10 @@
       <c r="P6" t="n">
         <v>1</v>
       </c>
-      <c r="Q6" s="2" t="n">
+      <c r="Q6" s="3" t="n">
         <v>44331</v>
       </c>
-      <c r="R6" s="2" t="n">
+      <c r="R6" s="3" t="n">
         <v>44459</v>
       </c>
       <c r="S6" t="inlineStr">
@@ -1364,19 +1348,19 @@
           <t>Gab2020-RVI-022-ILOILO-B1-L</t>
         </is>
       </c>
-      <c r="U6" s="2" t="n">
+      <c r="U6" s="3" t="n">
         <v>43882</v>
       </c>
-      <c r="V6" s="2" t="n">
+      <c r="V6" s="3" t="n">
         <v>43888</v>
       </c>
-      <c r="W6" s="2" t="n">
+      <c r="W6" s="3" t="n">
         <v>43900</v>
       </c>
-      <c r="X6" s="2" t="n">
+      <c r="X6" s="3" t="n">
         <v>44152</v>
       </c>
-      <c r="Y6" s="2" t="n">
+      <c r="Y6" s="3" t="n">
         <v>44174</v>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1384,7 +1368,6 @@
           <t>RISM BUILDERS &amp; CONST. SERVICES INC.</t>
         </is>
       </c>
-      <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="n">
         <v>0</v>
       </c>
@@ -1421,16 +1404,11 @@
       <c r="AM6" t="n">
         <v>0</v>
       </c>
-      <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr"/>
-      <c r="AR6" t="inlineStr"/>
-      <c r="AS6" t="inlineStr"/>
       <c r="AT6" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1505,7 +1483,7 @@
           <t>Ocober 30, 2022</t>
         </is>
       </c>
-      <c r="R7" s="2" t="n">
+      <c r="R7" s="3" t="n">
         <v>44831</v>
       </c>
       <c r="S7" t="inlineStr">
@@ -1518,19 +1496,19 @@
           <t>Gab2020-RVI-022-ILOILO-B1-L4</t>
         </is>
       </c>
-      <c r="U7" s="2" t="n">
+      <c r="U7" s="3" t="n">
         <v>43882</v>
       </c>
-      <c r="V7" s="2" t="n">
+      <c r="V7" s="3" t="n">
         <v>43888</v>
       </c>
-      <c r="W7" s="2" t="n">
+      <c r="W7" s="3" t="n">
         <v>43900</v>
       </c>
-      <c r="X7" s="2" t="n">
+      <c r="X7" s="3" t="n">
         <v>44152</v>
       </c>
-      <c r="Y7" s="2" t="n">
+      <c r="Y7" s="3" t="n">
         <v>44172</v>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1579,20 +1557,16 @@
       <c r="AM7" t="n">
         <v>0</v>
       </c>
-      <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP7" t="inlineStr"/>
       <c r="AQ7" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="AR7" t="inlineStr"/>
-      <c r="AS7" t="inlineStr"/>
       <c r="AT7" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1662,10 +1636,10 @@
       <c r="P8" t="n">
         <v>1</v>
       </c>
-      <c r="Q8" s="2" t="n">
+      <c r="Q8" s="3" t="n">
         <v>44522</v>
       </c>
-      <c r="R8" s="2" t="n">
+      <c r="R8" s="3" t="n">
         <v>44481</v>
       </c>
       <c r="S8" t="inlineStr">
@@ -1678,19 +1652,19 @@
           <t>Gab2020-RVI-022-ILOILO-B1-L4</t>
         </is>
       </c>
-      <c r="U8" s="2" t="n">
+      <c r="U8" s="3" t="n">
         <v>43882</v>
       </c>
-      <c r="V8" s="2" t="n">
+      <c r="V8" s="3" t="n">
         <v>43888</v>
       </c>
-      <c r="W8" s="2" t="n">
+      <c r="W8" s="3" t="n">
         <v>43900</v>
       </c>
-      <c r="X8" s="2" t="n">
+      <c r="X8" s="3" t="n">
         <v>44105</v>
       </c>
-      <c r="Y8" s="2" t="n">
+      <c r="Y8" s="3" t="n">
         <v>44369</v>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1698,7 +1672,6 @@
           <t>RISM Builders and Merchandising</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="n">
         <v>0</v>
       </c>
@@ -1735,16 +1708,11 @@
       <c r="AM8" t="n">
         <v>0</v>
       </c>
-      <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="inlineStr"/>
-      <c r="AS8" t="inlineStr"/>
       <c r="AT8" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1803,7 +1771,6 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
-      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1812,16 +1779,6 @@
       <c r="P9" t="n">
         <v>1</v>
       </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr">
         <is>
           <t>REQUEST FOR REALIGNMENT (Realignment of A. MONTES ES1 TO AREVALO ES 100%, RIZAL ES 100%, and ESTEBAN JUNTADOR SR. MEMORIAL ES 100%)</t>
@@ -1863,16 +1820,11 @@
       <c r="AM9" t="n">
         <v>0</v>
       </c>
-      <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr"/>
-      <c r="AR9" t="inlineStr"/>
-      <c r="AS9" t="inlineStr"/>
       <c r="AT9" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1942,7 +1894,7 @@
       <c r="P10" t="n">
         <v>1</v>
       </c>
-      <c r="Q10" s="2" t="n">
+      <c r="Q10" s="3" t="n">
         <v>44396</v>
       </c>
       <c r="R10" t="inlineStr">
@@ -1960,19 +1912,19 @@
           <t>20-12-006</t>
         </is>
       </c>
-      <c r="U10" s="2" t="n">
+      <c r="U10" s="3" t="n">
         <v>44141</v>
       </c>
-      <c r="V10" s="2" t="n">
+      <c r="V10" s="3" t="n">
         <v>44148</v>
       </c>
-      <c r="W10" s="2" t="n">
+      <c r="W10" s="3" t="n">
         <v>44162</v>
       </c>
-      <c r="X10" s="2" t="n">
+      <c r="X10" s="3" t="n">
         <v>44169</v>
       </c>
-      <c r="Y10" s="2" t="n">
+      <c r="Y10" s="3" t="n">
         <v>44209</v>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2021,16 +1973,11 @@
       <c r="AM10" t="n">
         <v>0</v>
       </c>
-      <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="inlineStr"/>
       <c r="AT10" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2089,7 +2036,6 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
-      <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2098,17 +2044,6 @@
       <c r="P11" t="n">
         <v>1</v>
       </c>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="n">
         <v>0</v>
       </c>
@@ -2145,16 +2080,11 @@
       <c r="AM11" t="n">
         <v>0</v>
       </c>
-      <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
-      <c r="AS11" t="inlineStr"/>
       <c r="AT11" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2229,14 +2159,6 @@
           <t>October 18, 2021</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
           <t>FOUR SG ENTERPRISES</t>
@@ -2283,16 +2205,11 @@
       <c r="AM12" t="n">
         <v>0</v>
       </c>
-      <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="inlineStr"/>
-      <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="inlineStr"/>
       <c r="AT12" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2362,7 +2279,7 @@
       <c r="P13" t="n">
         <v>1</v>
       </c>
-      <c r="Q13" s="2" t="n">
+      <c r="Q13" s="3" t="n">
         <v>44502</v>
       </c>
       <c r="R13" t="inlineStr">
@@ -2370,15 +2287,13 @@
           <t>Nov. 22, 2021</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" s="2" t="n">
+      <c r="U13" s="3" t="n">
         <v>43942</v>
       </c>
-      <c r="V13" s="2" t="n">
+      <c r="V13" s="3" t="n">
         <v>43955</v>
       </c>
-      <c r="W13" s="2" t="n">
+      <c r="W13" s="3" t="n">
         <v>43969</v>
       </c>
       <c r="X13" t="inlineStr">
@@ -2386,13 +2301,11 @@
           <t>26D S.2020</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
           <t>FOUR SG ENTERPRISES</t>
         </is>
       </c>
-      <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="n">
         <v>0</v>
       </c>
@@ -2429,16 +2342,11 @@
       <c r="AM13" t="n">
         <v>0</v>
       </c>
-      <c r="AN13" t="inlineStr"/>
       <c r="AO13" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="inlineStr"/>
-      <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="inlineStr"/>
       <c r="AT13" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2477,7 +2385,6 @@
       <c r="G14" t="n">
         <v>3</v>
       </c>
-      <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
         <v>2</v>
       </c>
@@ -2506,7 +2413,7 @@
       <c r="P14" t="n">
         <v>1</v>
       </c>
-      <c r="Q14" s="2" t="n">
+      <c r="Q14" s="3" t="n">
         <v>44502</v>
       </c>
       <c r="R14" t="inlineStr">
@@ -2514,15 +2421,13 @@
           <t>Nov. 22, 2021</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" s="2" t="n">
+      <c r="U14" s="3" t="n">
         <v>43942</v>
       </c>
-      <c r="V14" s="2" t="n">
+      <c r="V14" s="3" t="n">
         <v>43955</v>
       </c>
-      <c r="W14" s="2" t="n">
+      <c r="W14" s="3" t="n">
         <v>43969</v>
       </c>
       <c r="X14" t="inlineStr">
@@ -2530,13 +2435,11 @@
           <t>26C S.2020</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
           <t>FOUR SG ENTERPRISES</t>
         </is>
       </c>
-      <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="n">
         <v>0</v>
       </c>
@@ -2573,16 +2476,11 @@
       <c r="AM14" t="n">
         <v>0</v>
       </c>
-      <c r="AN14" t="inlineStr"/>
       <c r="AO14" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="inlineStr"/>
-      <c r="AS14" t="inlineStr"/>
       <c r="AT14" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2652,10 +2550,10 @@
       <c r="P15" t="n">
         <v>1</v>
       </c>
-      <c r="Q15" s="2" t="n">
+      <c r="Q15" s="3" t="n">
         <v>44291</v>
       </c>
-      <c r="R15" s="2" t="n">
+      <c r="R15" s="3" t="n">
         <v>44285</v>
       </c>
       <c r="S15" t="n">
@@ -2666,19 +2564,19 @@
           <t>20-11-002</t>
         </is>
       </c>
-      <c r="U15" s="2" t="n">
+      <c r="U15" s="3" t="n">
         <v>43945</v>
       </c>
-      <c r="V15" s="2" t="n">
+      <c r="V15" s="3" t="n">
         <v>43955</v>
       </c>
-      <c r="W15" s="2" t="n">
+      <c r="W15" s="3" t="n">
         <v>43969</v>
       </c>
-      <c r="X15" s="2" t="n">
+      <c r="X15" s="3" t="n">
         <v>44153</v>
       </c>
-      <c r="Y15" s="2" t="n">
+      <c r="Y15" s="3" t="n">
         <v>44158</v>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2686,7 +2584,6 @@
           <t>FOUR SG ENTERPRISES</t>
         </is>
       </c>
-      <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="n">
         <v>0</v>
       </c>
@@ -2723,16 +2620,11 @@
       <c r="AM15" t="n">
         <v>0</v>
       </c>
-      <c r="AN15" t="inlineStr"/>
       <c r="AO15" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="inlineStr"/>
-      <c r="AS15" t="inlineStr"/>
       <c r="AT15" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2802,10 +2694,10 @@
       <c r="P16" t="n">
         <v>1</v>
       </c>
-      <c r="Q16" s="2" t="n">
+      <c r="Q16" s="3" t="n">
         <v>44291</v>
       </c>
-      <c r="R16" s="2" t="n">
+      <c r="R16" s="3" t="n">
         <v>44255</v>
       </c>
       <c r="S16" t="n">
@@ -2816,19 +2708,19 @@
           <t>20-11-001</t>
         </is>
       </c>
-      <c r="U16" s="2" t="n">
+      <c r="U16" s="3" t="n">
         <v>43945</v>
       </c>
-      <c r="V16" s="2" t="n">
+      <c r="V16" s="3" t="n">
         <v>43955</v>
       </c>
-      <c r="W16" s="2" t="n">
+      <c r="W16" s="3" t="n">
         <v>43969</v>
       </c>
-      <c r="X16" s="2" t="n">
+      <c r="X16" s="3" t="n">
         <v>44153</v>
       </c>
-      <c r="Y16" s="2" t="n">
+      <c r="Y16" s="3" t="n">
         <v>44158</v>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2836,7 +2728,6 @@
           <t>FOUR SG ENTERPRISES</t>
         </is>
       </c>
-      <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="n">
         <v>0</v>
       </c>
@@ -2873,16 +2764,11 @@
       <c r="AM16" t="n">
         <v>0</v>
       </c>
-      <c r="AN16" t="inlineStr"/>
       <c r="AO16" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP16" t="inlineStr"/>
-      <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="inlineStr"/>
-      <c r="AS16" t="inlineStr"/>
       <c r="AT16" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2952,19 +2838,16 @@
       <c r="P17" t="n">
         <v>1</v>
       </c>
-      <c r="Q17" s="2" t="n">
+      <c r="Q17" s="3" t="n">
         <v>44502</v>
       </c>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" s="2" t="n">
+      <c r="U17" s="3" t="n">
         <v>43942</v>
       </c>
-      <c r="V17" s="2" t="n">
+      <c r="V17" s="3" t="n">
         <v>43955</v>
       </c>
-      <c r="W17" s="2" t="n">
+      <c r="W17" s="3" t="n">
         <v>43969</v>
       </c>
       <c r="X17" t="inlineStr">
@@ -2972,13 +2855,11 @@
           <t>26A S.2020</t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
           <t>FOUR SG ENTERPRISES</t>
         </is>
       </c>
-      <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="n">
         <v>0</v>
       </c>
@@ -3015,16 +2896,11 @@
       <c r="AM17" t="n">
         <v>0</v>
       </c>
-      <c r="AN17" t="inlineStr"/>
       <c r="AO17" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP17" t="inlineStr"/>
-      <c r="AQ17" t="inlineStr"/>
-      <c r="AR17" t="inlineStr"/>
-      <c r="AS17" t="inlineStr"/>
       <c r="AT17" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3114,16 +2990,15 @@
           <t>02-2020</t>
         </is>
       </c>
-      <c r="U18" s="2" t="n">
+      <c r="U18" s="3" t="n">
         <v>43886</v>
       </c>
-      <c r="V18" s="2" t="n">
+      <c r="V18" s="3" t="n">
         <v>43893</v>
       </c>
-      <c r="W18" s="2" t="n">
+      <c r="W18" s="3" t="n">
         <v>43906</v>
       </c>
-      <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr">
         <is>
           <t>June 21, 2021</t>
@@ -3134,7 +3009,6 @@
           <t>RISM BUILDERS &amp; CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="n">
         <v>0</v>
       </c>
@@ -3171,16 +3045,11 @@
       <c r="AM18" t="n">
         <v>0</v>
       </c>
-      <c r="AN18" t="inlineStr"/>
       <c r="AO18" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP18" t="inlineStr"/>
-      <c r="AQ18" t="inlineStr"/>
-      <c r="AR18" t="inlineStr"/>
-      <c r="AS18" t="inlineStr"/>
       <c r="AT18" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3250,11 +3119,9 @@
       <c r="P19" t="n">
         <v>1</v>
       </c>
-      <c r="Q19" s="2" t="n">
+      <c r="Q19" s="3" t="n">
         <v>44834</v>
       </c>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr">
         <is>
           <t>R6-D18-GAB-B2-2020</t>
@@ -3331,20 +3198,16 @@
       <c r="AM19" t="n">
         <v>0</v>
       </c>
-      <c r="AN19" t="inlineStr"/>
       <c r="AO19" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="AR19" t="inlineStr"/>
-      <c r="AS19" t="inlineStr"/>
       <c r="AT19" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3414,10 +3277,10 @@
       <c r="P20" t="n">
         <v>1</v>
       </c>
-      <c r="Q20" s="2" t="n">
+      <c r="Q20" s="3" t="n">
         <v>44637</v>
       </c>
-      <c r="R20" s="2" t="n">
+      <c r="R20" s="3" t="n">
         <v>44624</v>
       </c>
       <c r="S20" t="inlineStr">
@@ -3430,19 +3293,19 @@
           <t>CY 2021 GABALDON - 001</t>
         </is>
       </c>
-      <c r="U20" s="2" t="n">
+      <c r="U20" s="3" t="n">
         <v>44347</v>
       </c>
-      <c r="V20" s="2" t="n">
+      <c r="V20" s="3" t="n">
         <v>44354</v>
       </c>
-      <c r="W20" s="2" t="n">
+      <c r="W20" s="3" t="n">
         <v>44368</v>
       </c>
-      <c r="X20" s="2" t="n">
+      <c r="X20" s="3" t="n">
         <v>44389</v>
       </c>
-      <c r="Y20" s="2" t="n">
+      <c r="Y20" s="3" t="n">
         <v>44420</v>
       </c>
       <c r="Z20" t="inlineStr">
@@ -3450,7 +3313,6 @@
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="AA20" t="inlineStr"/>
       <c r="AB20" t="n">
         <v>0</v>
       </c>
@@ -3487,7 +3349,6 @@
       <c r="AM20" t="n">
         <v>0</v>
       </c>
-      <c r="AN20" t="inlineStr"/>
       <c r="AO20" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -3498,9 +3359,6 @@
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ20" t="inlineStr"/>
-      <c r="AR20" t="inlineStr"/>
-      <c r="AS20" t="inlineStr"/>
       <c r="AT20" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3570,10 +3428,10 @@
       <c r="P21" t="n">
         <v>1</v>
       </c>
-      <c r="Q21" s="2" t="n">
+      <c r="Q21" s="3" t="n">
         <v>44522</v>
       </c>
-      <c r="R21" s="2" t="n">
+      <c r="R21" s="3" t="n">
         <v>44508</v>
       </c>
       <c r="S21" t="inlineStr">
@@ -3586,17 +3444,16 @@
           <t>R-06-BEFF Gabaldon-2020-B2-L1</t>
         </is>
       </c>
-      <c r="U21" s="2" t="n">
+      <c r="U21" s="3" t="n">
         <v>43882</v>
       </c>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" s="2" t="n">
+      <c r="W21" s="3" t="n">
         <v>43900</v>
       </c>
-      <c r="X21" s="2" t="n">
+      <c r="X21" s="3" t="n">
         <v>44105</v>
       </c>
-      <c r="Y21" s="2" t="n">
+      <c r="Y21" s="3" t="n">
         <v>44372</v>
       </c>
       <c r="Z21" t="inlineStr">
@@ -3604,7 +3461,6 @@
           <t>Early Riser Construction</t>
         </is>
       </c>
-      <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="n">
         <v>0</v>
       </c>
@@ -3641,7 +3497,6 @@
       <c r="AM21" t="n">
         <v>0</v>
       </c>
-      <c r="AN21" t="inlineStr"/>
       <c r="AO21" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -3652,9 +3507,6 @@
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ21" t="inlineStr"/>
-      <c r="AR21" t="inlineStr"/>
-      <c r="AS21" t="inlineStr"/>
       <c r="AT21" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3724,19 +3576,16 @@
       <c r="P22" t="n">
         <v>1</v>
       </c>
-      <c r="Q22" s="2" t="n">
+      <c r="Q22" s="3" t="n">
         <v>44545</v>
       </c>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" s="2" t="n">
+      <c r="U22" s="3" t="n">
         <v>44355</v>
       </c>
-      <c r="V22" s="2" t="n">
+      <c r="V22" s="3" t="n">
         <v>44362</v>
       </c>
-      <c r="W22" s="2" t="n">
+      <c r="W22" s="3" t="n">
         <v>44375</v>
       </c>
       <c r="X22" t="inlineStr">
@@ -3744,7 +3593,7 @@
           <t>2021-07-002</t>
         </is>
       </c>
-      <c r="Y22" s="2" t="n">
+      <c r="Y22" s="3" t="n">
         <v>44406</v>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3752,7 +3601,6 @@
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="n">
         <v>0</v>
       </c>
@@ -3789,7 +3637,6 @@
       <c r="AM22" t="n">
         <v>0</v>
       </c>
-      <c r="AN22" t="inlineStr"/>
       <c r="AO22" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -3800,9 +3647,6 @@
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ22" t="inlineStr"/>
-      <c r="AR22" t="inlineStr"/>
-      <c r="AS22" t="inlineStr"/>
       <c r="AT22" t="inlineStr">
         <is>
           <t>completed</t>
@@ -3872,19 +3716,16 @@
       <c r="P23" t="n">
         <v>1</v>
       </c>
-      <c r="Q23" s="2" t="n">
+      <c r="Q23" s="3" t="n">
         <v>44545</v>
       </c>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" s="2" t="n">
+      <c r="U23" s="3" t="n">
         <v>44355</v>
       </c>
-      <c r="V23" s="2" t="n">
+      <c r="V23" s="3" t="n">
         <v>44362</v>
       </c>
-      <c r="W23" s="2" t="n">
+      <c r="W23" s="3" t="n">
         <v>44375</v>
       </c>
       <c r="X23" t="inlineStr">
@@ -3892,7 +3733,7 @@
           <t>2021-07-003</t>
         </is>
       </c>
-      <c r="Y23" s="2" t="n">
+      <c r="Y23" s="3" t="n">
         <v>44406</v>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3900,7 +3741,6 @@
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="n">
         <v>0</v>
       </c>
@@ -3937,7 +3777,6 @@
       <c r="AM23" t="n">
         <v>0</v>
       </c>
-      <c r="AN23" t="inlineStr"/>
       <c r="AO23" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -3948,9 +3787,6 @@
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ23" t="inlineStr"/>
-      <c r="AR23" t="inlineStr"/>
-      <c r="AS23" t="inlineStr"/>
       <c r="AT23" t="inlineStr">
         <is>
           <t>completed</t>
@@ -4020,10 +3856,10 @@
       <c r="P24" t="n">
         <v>1</v>
       </c>
-      <c r="Q24" s="2" t="n">
+      <c r="Q24" s="3" t="n">
         <v>44556</v>
       </c>
-      <c r="R24" s="2" t="n">
+      <c r="R24" s="3" t="n">
         <v>44487</v>
       </c>
       <c r="S24" t="inlineStr">
@@ -4036,19 +3872,19 @@
           <t>7774758-2021-GABALDON</t>
         </is>
       </c>
-      <c r="U24" s="2" t="n">
+      <c r="U24" s="3" t="n">
         <v>44364</v>
       </c>
-      <c r="V24" s="2" t="n">
+      <c r="V24" s="3" t="n">
         <v>44372</v>
       </c>
-      <c r="W24" s="2" t="n">
+      <c r="W24" s="3" t="n">
         <v>44384</v>
       </c>
-      <c r="X24" s="2" t="n">
+      <c r="X24" s="3" t="n">
         <v>44406</v>
       </c>
-      <c r="Y24" s="2" t="n">
+      <c r="Y24" s="3" t="n">
         <v>44414</v>
       </c>
       <c r="Z24" t="inlineStr">
@@ -4097,7 +3933,6 @@
       <c r="AM24" t="n">
         <v>0</v>
       </c>
-      <c r="AN24" t="inlineStr"/>
       <c r="AO24" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -4108,9 +3943,6 @@
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ24" t="inlineStr"/>
-      <c r="AR24" t="inlineStr"/>
-      <c r="AS24" t="inlineStr"/>
       <c r="AT24" t="inlineStr">
         <is>
           <t>completed</t>
@@ -4180,10 +4012,10 @@
       <c r="P25" t="n">
         <v>1</v>
       </c>
-      <c r="Q25" s="2" t="n">
+      <c r="Q25" s="3" t="n">
         <v>44556</v>
       </c>
-      <c r="R25" s="2" t="n">
+      <c r="R25" s="3" t="n">
         <v>44550</v>
       </c>
       <c r="S25" t="inlineStr">
@@ -4196,19 +4028,19 @@
           <t>7774758-2021-GABALDON</t>
         </is>
       </c>
-      <c r="U25" s="2" t="n">
+      <c r="U25" s="3" t="n">
         <v>44364</v>
       </c>
-      <c r="V25" s="2" t="n">
+      <c r="V25" s="3" t="n">
         <v>44372</v>
       </c>
-      <c r="W25" s="2" t="n">
+      <c r="W25" s="3" t="n">
         <v>44384</v>
       </c>
-      <c r="X25" s="2" t="n">
+      <c r="X25" s="3" t="n">
         <v>44406</v>
       </c>
-      <c r="Y25" s="2" t="n">
+      <c r="Y25" s="3" t="n">
         <v>44414</v>
       </c>
       <c r="Z25" t="inlineStr">
@@ -4257,7 +4089,6 @@
       <c r="AM25" t="n">
         <v>0</v>
       </c>
-      <c r="AN25" t="inlineStr"/>
       <c r="AO25" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -4268,9 +4099,6 @@
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ25" t="inlineStr"/>
-      <c r="AR25" t="inlineStr"/>
-      <c r="AS25" t="inlineStr"/>
       <c r="AT25" t="inlineStr">
         <is>
           <t>completed</t>
@@ -4363,7 +4191,7 @@
           <t>8/25/2023</t>
         </is>
       </c>
-      <c r="V26" s="2" t="n">
+      <c r="V26" s="3" t="n">
         <v>44935</v>
       </c>
       <c r="W26" t="inlineStr">
@@ -4386,7 +4214,6 @@
           <t>CGGFR CONSTRUCTION AND CONSTRUCTION SUPPLY</t>
         </is>
       </c>
-      <c r="AA26" t="inlineStr"/>
       <c r="AB26" t="n">
         <v>0</v>
       </c>
@@ -4423,7 +4250,6 @@
       <c r="AM26" t="n">
         <v>0</v>
       </c>
-      <c r="AN26" t="inlineStr"/>
       <c r="AO26" t="n">
         <v>1.25</v>
       </c>
@@ -4432,9 +4258,6 @@
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ26" t="inlineStr"/>
-      <c r="AR26" t="inlineStr"/>
-      <c r="AS26" t="inlineStr"/>
       <c r="AT26" t="inlineStr">
         <is>
           <t>completed</t>
@@ -4526,7 +4349,7 @@
           <t>DepEd-RO6-D1-2024GABALDON-012-2024</t>
         </is>
       </c>
-      <c r="U27" s="2" t="n">
+      <c r="U27" s="3" t="n">
         <v>45509</v>
       </c>
       <c r="V27" t="inlineStr">
@@ -4595,7 +4418,6 @@
       <c r="AM27" t="n">
         <v>0</v>
       </c>
-      <c r="AN27" t="inlineStr"/>
       <c r="AO27" t="n">
         <v>2.25</v>
       </c>
@@ -4604,8 +4426,6 @@
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ27" t="inlineStr"/>
-      <c r="AR27" t="inlineStr"/>
       <c r="AS27" t="n">
         <v>3</v>
       </c>
@@ -4680,10 +4500,10 @@
       <c r="P28" t="n">
         <v>1</v>
       </c>
-      <c r="Q28" s="2" t="n">
+      <c r="Q28" s="3" t="n">
         <v>45363</v>
       </c>
-      <c r="R28" s="2" t="n">
+      <c r="R28" s="3" t="n">
         <v>45575</v>
       </c>
       <c r="S28" t="inlineStr">
@@ -4696,10 +4516,10 @@
           <t>Project 04-2024</t>
         </is>
       </c>
-      <c r="U28" s="2" t="n">
+      <c r="U28" s="3" t="n">
         <v>45294</v>
       </c>
-      <c r="V28" s="2" t="n">
+      <c r="V28" s="3" t="n">
         <v>45629</v>
       </c>
       <c r="W28" t="inlineStr">
@@ -4712,7 +4532,7 @@
           <t>6/25/2024</t>
         </is>
       </c>
-      <c r="Y28" s="2" t="n">
+      <c r="Y28" s="3" t="n">
         <v>45298</v>
       </c>
       <c r="Z28" t="inlineStr">
@@ -4761,7 +4581,6 @@
       <c r="AM28" t="n">
         <v>0</v>
       </c>
-      <c r="AN28" t="inlineStr"/>
       <c r="AO28" t="n">
         <v>10.24</v>
       </c>
@@ -4770,8 +4589,6 @@
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ28" t="inlineStr"/>
-      <c r="AR28" t="inlineStr"/>
       <c r="AS28" t="n">
         <v>3</v>
       </c>
@@ -4846,10 +4663,9 @@
       <c r="P29" t="n">
         <v>0.95</v>
       </c>
-      <c r="Q29" s="2" t="n">
+      <c r="Q29" s="3" t="n">
         <v>45663</v>
       </c>
-      <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr">
         <is>
           <t>IB-sdhc-082024-007</t>
@@ -4870,7 +4686,7 @@
           <t>8/22/2024</t>
         </is>
       </c>
-      <c r="W29" s="2" t="n">
+      <c r="W29" s="3" t="n">
         <v>45360</v>
       </c>
       <c r="X29" t="inlineStr">
@@ -4878,7 +4694,7 @@
           <t>9/13/2024</t>
         </is>
       </c>
-      <c r="Y29" s="2" t="n">
+      <c r="Y29" s="3" t="n">
         <v>45931</v>
       </c>
       <c r="Z29" t="inlineStr">
@@ -4927,15 +4743,11 @@
       <c r="AM29" t="n">
         <v>0.04999999999999993</v>
       </c>
-      <c r="AN29" t="inlineStr"/>
-      <c r="AO29" t="inlineStr"/>
       <c r="AP29" t="inlineStr">
         <is>
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ29" t="inlineStr"/>
-      <c r="AR29" t="inlineStr"/>
       <c r="AS29" t="n">
         <v>10</v>
       </c>
@@ -5015,7 +4827,7 @@
           <t>3/13/2025</t>
         </is>
       </c>
-      <c r="R30" s="2" t="n">
+      <c r="R30" s="3" t="n">
         <v>45638</v>
       </c>
       <c r="S30" t="inlineStr">
@@ -5028,7 +4840,7 @@
           <t>BEFF2024-RVI-ILOILO-022-GAB-L1</t>
         </is>
       </c>
-      <c r="U30" s="2" t="n">
+      <c r="U30" s="3" t="n">
         <v>45446</v>
       </c>
       <c r="V30" t="inlineStr">
@@ -5036,7 +4848,7 @@
           <t>3/21/2024</t>
         </is>
       </c>
-      <c r="W30" s="2" t="n">
+      <c r="W30" s="3" t="n">
         <v>45326</v>
       </c>
       <c r="X30" t="inlineStr">
@@ -5054,7 +4866,6 @@
           <t>EARLY RISER CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="n">
         <v>0</v>
       </c>
@@ -5091,7 +4902,6 @@
       <c r="AM30" t="n">
         <v>0</v>
       </c>
-      <c r="AN30" t="inlineStr"/>
       <c r="AO30" t="n">
         <v>3.25</v>
       </c>
@@ -5100,8 +4910,6 @@
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ30" t="inlineStr"/>
-      <c r="AR30" t="inlineStr"/>
       <c r="AS30" t="n">
         <v>3</v>
       </c>
@@ -5176,10 +4984,10 @@
       <c r="P31" t="n">
         <v>1</v>
       </c>
-      <c r="Q31" s="2" t="n">
+      <c r="Q31" s="3" t="n">
         <v>45992</v>
       </c>
-      <c r="R31" s="2" t="n">
+      <c r="R31" s="3" t="n">
         <v>45873</v>
       </c>
       <c r="S31" t="inlineStr">
@@ -5192,7 +5000,7 @@
           <t>BEFF2024-RVI-ILOILO-022-GAB-L2</t>
         </is>
       </c>
-      <c r="U31" s="2" t="n">
+      <c r="U31" s="3" t="n">
         <v>45446</v>
       </c>
       <c r="V31" t="inlineStr">
@@ -5200,7 +5008,7 @@
           <t>3/21/2024</t>
         </is>
       </c>
-      <c r="W31" s="2" t="n">
+      <c r="W31" s="3" t="n">
         <v>45326</v>
       </c>
       <c r="X31" t="inlineStr">
@@ -5218,7 +5026,6 @@
           <t>EARLY RISER CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="n">
         <v>0</v>
       </c>
@@ -5255,7 +5062,6 @@
       <c r="AM31" t="n">
         <v>0.05000000000000004</v>
       </c>
-      <c r="AN31" t="inlineStr"/>
       <c r="AO31" t="n">
         <v>5.25</v>
       </c>
@@ -5264,8 +5070,6 @@
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ31" t="inlineStr"/>
-      <c r="AR31" t="inlineStr"/>
       <c r="AS31" t="n">
         <v>3</v>
       </c>
@@ -5340,7 +5144,7 @@
       <c r="P32" t="n">
         <v>1</v>
       </c>
-      <c r="Q32" s="2" t="n">
+      <c r="Q32" s="3" t="n">
         <v>45547</v>
       </c>
       <c r="R32" t="inlineStr">
@@ -5358,7 +5162,7 @@
           <t>BEFF2024-RVI-ILOILO-022-GAB-L3</t>
         </is>
       </c>
-      <c r="U32" s="2" t="n">
+      <c r="U32" s="3" t="n">
         <v>45446</v>
       </c>
       <c r="V32" t="inlineStr">
@@ -5366,7 +5170,7 @@
           <t>3/21/2024</t>
         </is>
       </c>
-      <c r="W32" s="2" t="n">
+      <c r="W32" s="3" t="n">
         <v>45326</v>
       </c>
       <c r="X32" t="inlineStr">
@@ -5374,7 +5178,7 @@
           <t>5/17/2024</t>
         </is>
       </c>
-      <c r="Y32" s="2" t="n">
+      <c r="Y32" s="3" t="n">
         <v>45603</v>
       </c>
       <c r="Z32" t="inlineStr">
@@ -5382,7 +5186,6 @@
           <t>ANJUSH BUILDERS</t>
         </is>
       </c>
-      <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="n">
         <v>0</v>
       </c>
@@ -5419,7 +5222,6 @@
       <c r="AM32" t="n">
         <v>0</v>
       </c>
-      <c r="AN32" t="inlineStr"/>
       <c r="AO32" t="n">
         <v>11.24</v>
       </c>
@@ -5428,8 +5230,6 @@
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ32" t="inlineStr"/>
-      <c r="AR32" t="inlineStr"/>
       <c r="AS32" t="n">
         <v>3</v>
       </c>
@@ -5504,18 +5304,15 @@
       <c r="P33" t="n">
         <v>0</v>
       </c>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
       <c r="S33" t="n">
         <v>45717</v>
       </c>
-      <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
           <t>12/27/2024</t>
         </is>
       </c>
-      <c r="V33" s="2" t="n">
+      <c r="V33" s="3" t="n">
         <v>45809</v>
       </c>
       <c r="W33" t="inlineStr">
@@ -5528,7 +5325,6 @@
           <t>3/19/2025</t>
         </is>
       </c>
-      <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
           <t>CGGFR CONSTRUCTION AND CONSTRUCTION SUPPLY</t>
@@ -5575,14 +5371,11 @@
       <c r="AM33" t="n">
         <v>0</v>
       </c>
-      <c r="AN33" t="inlineStr"/>
-      <c r="AO33" t="inlineStr"/>
       <c r="AP33" t="inlineStr">
         <is>
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ33" t="inlineStr"/>
       <c r="AR33" t="n">
         <v>1</v>
       </c>
@@ -5660,18 +5453,15 @@
       <c r="P34" t="n">
         <v>0</v>
       </c>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
       <c r="S34" t="n">
         <v>45689</v>
       </c>
-      <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
           <t>12/27/2024</t>
         </is>
       </c>
-      <c r="V34" s="2" t="n">
+      <c r="V34" s="3" t="n">
         <v>45839</v>
       </c>
       <c r="W34" t="inlineStr">
@@ -5684,7 +5474,6 @@
           <t>3/19/2025</t>
         </is>
       </c>
-      <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
           <t>KEANNE CONSTRUCTION SERVICES</t>
@@ -5731,14 +5520,11 @@
       <c r="AM34" t="n">
         <v>0</v>
       </c>
-      <c r="AN34" t="inlineStr"/>
-      <c r="AO34" t="inlineStr"/>
       <c r="AP34" t="inlineStr">
         <is>
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ34" t="inlineStr"/>
       <c r="AR34" t="n">
         <v>1</v>
       </c>
@@ -5748,6 +5534,79 @@
       <c r="AT34" t="inlineStr">
         <is>
           <t>Under Procurement</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="AU2:AU34" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>76% - 90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>

--- a/Filtered_By_Region/Region VI/Region VI_GABALDON.xlsx
+++ b/Filtered_By_Region/Region VI/Region VI_GABALDON.xlsx
@@ -774,41 +774,8 @@
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1</v>
-      </c>
       <c r="AL2" t="n">
         <v>1</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0</v>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
@@ -920,41 +887,8 @@
           <t>RISM BUILDERS &amp; CONST. SERVICES INC.</t>
         </is>
       </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1</v>
-      </c>
       <c r="AL3" t="n">
         <v>1</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0</v>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
@@ -1071,41 +1005,8 @@
           <t>On-going Rectification of Punchlisted Items</t>
         </is>
       </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>1</v>
-      </c>
       <c r="AL4" t="n">
         <v>1</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0</v>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
@@ -1222,41 +1123,8 @@
           <t>Four SG Enterprises</t>
         </is>
       </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>1</v>
-      </c>
       <c r="AL5" t="n">
         <v>1</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0</v>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
@@ -1368,41 +1236,8 @@
           <t>RISM BUILDERS &amp; CONST. SERVICES INC.</t>
         </is>
       </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>1</v>
-      </c>
       <c r="AL6" t="n">
         <v>1</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>0</v>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
@@ -1521,41 +1356,8 @@
           <t>On-going but with slow workmanship</t>
         </is>
       </c>
-      <c r="AB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>1</v>
-      </c>
       <c r="AL7" t="n">
         <v>1</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>0</v>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
@@ -1672,41 +1474,8 @@
           <t>RISM Builders and Merchandising</t>
         </is>
       </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>1</v>
-      </c>
       <c r="AL8" t="n">
         <v>1</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>0</v>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
@@ -1784,41 +1553,8 @@
           <t>REQUEST FOR REALIGNMENT (Realignment of A. MONTES ES1 TO AREVALO ES 100%, RIZAL ES 100%, and ESTEBAN JUNTADOR SR. MEMORIAL ES 100%)</t>
         </is>
       </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>1</v>
-      </c>
       <c r="AL9" t="n">
         <v>1</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0</v>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
@@ -1937,41 +1673,8 @@
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>1</v>
-      </c>
       <c r="AL10" t="n">
         <v>1</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>0</v>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
@@ -2044,41 +1747,8 @@
       <c r="P11" t="n">
         <v>1</v>
       </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>1</v>
-      </c>
       <c r="AL11" t="n">
         <v>1</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>0</v>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
@@ -2169,41 +1839,8 @@
           <t>Bidding Cancelled due to ECQ</t>
         </is>
       </c>
-      <c r="AB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>1</v>
-      </c>
       <c r="AL12" t="n">
         <v>1</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>0</v>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
@@ -2306,41 +1943,8 @@
           <t>FOUR SG ENTERPRISES</t>
         </is>
       </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>1</v>
-      </c>
       <c r="AL13" t="n">
         <v>1</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>0</v>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
@@ -2440,41 +2044,8 @@
           <t>FOUR SG ENTERPRISES</t>
         </is>
       </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>1</v>
-      </c>
       <c r="AL14" t="n">
         <v>1</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>0</v>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
@@ -2584,41 +2155,8 @@
           <t>FOUR SG ENTERPRISES</t>
         </is>
       </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>1</v>
-      </c>
       <c r="AL15" t="n">
         <v>1</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>0</v>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
@@ -2728,41 +2266,8 @@
           <t>FOUR SG ENTERPRISES</t>
         </is>
       </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>1</v>
-      </c>
       <c r="AL16" t="n">
         <v>1</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>0</v>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
@@ -2860,41 +2365,8 @@
           <t>FOUR SG ENTERPRISES</t>
         </is>
       </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>1</v>
-      </c>
       <c r="AL17" t="n">
         <v>1</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>0</v>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
@@ -3009,41 +2481,8 @@
           <t>RISM BUILDERS &amp; CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>1</v>
-      </c>
       <c r="AL18" t="n">
         <v>1</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>0</v>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
@@ -3162,41 +2601,8 @@
           <t>On-going Rectification of Punchlisted Items</t>
         </is>
       </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>1</v>
-      </c>
       <c r="AL19" t="n">
         <v>1</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>0</v>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
@@ -3313,41 +2719,8 @@
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>1</v>
-      </c>
       <c r="AL20" t="n">
         <v>1</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>0</v>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
@@ -3461,41 +2834,8 @@
           <t>Early Riser Construction</t>
         </is>
       </c>
-      <c r="AB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>1</v>
-      </c>
       <c r="AL21" t="n">
         <v>1</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>0</v>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
@@ -3601,41 +2941,8 @@
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="AB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>1</v>
-      </c>
       <c r="AL22" t="n">
         <v>1</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>0</v>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
@@ -3741,41 +3048,8 @@
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="AB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>1</v>
-      </c>
       <c r="AL23" t="n">
         <v>1</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>0</v>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
@@ -3897,41 +3171,8 @@
           <t>100% Completed</t>
         </is>
       </c>
-      <c r="AB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>1</v>
-      </c>
       <c r="AL24" t="n">
         <v>1</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>0</v>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
@@ -4053,41 +3294,8 @@
           <t>100% Completed</t>
         </is>
       </c>
-      <c r="AB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>1</v>
-      </c>
       <c r="AL25" t="n">
         <v>1</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>0</v>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
@@ -4214,41 +3422,8 @@
           <t>CGGFR CONSTRUCTION AND CONSTRUCTION SUPPLY</t>
         </is>
       </c>
-      <c r="AB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>1</v>
-      </c>
       <c r="AL26" t="n">
         <v>1</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>0</v>
       </c>
       <c r="AO26" t="n">
         <v>1.25</v>
@@ -4382,41 +3557,8 @@
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="AB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>1</v>
-      </c>
       <c r="AL27" t="n">
         <v>1</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>0</v>
       </c>
       <c r="AO27" t="n">
         <v>2.25</v>
@@ -4545,41 +3687,8 @@
           <t>completed and turn-over</t>
         </is>
       </c>
-      <c r="AB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>1</v>
-      </c>
       <c r="AL28" t="n">
         <v>1</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>0</v>
       </c>
       <c r="AO28" t="n">
         <v>10.24</v>
@@ -4707,41 +3816,8 @@
           <t>for final inspection and punchlisting on June 7, 2025</t>
         </is>
       </c>
-      <c r="AB29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>0</v>
-      </c>
       <c r="AL29" t="n">
         <v>0.9</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>0.04999999999999993</v>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
@@ -4866,41 +3942,8 @@
           <t>EARLY RISER CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>1</v>
-      </c>
       <c r="AL30" t="n">
         <v>1</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>0</v>
       </c>
       <c r="AO30" t="n">
         <v>3.25</v>
@@ -5026,41 +4069,8 @@
           <t>EARLY RISER CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>1</v>
-      </c>
       <c r="AL31" t="n">
         <v>0.95</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>0.05000000000000004</v>
       </c>
       <c r="AO31" t="n">
         <v>5.25</v>
@@ -5186,41 +4196,8 @@
           <t>ANJUSH BUILDERS</t>
         </is>
       </c>
-      <c r="AB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>1</v>
-      </c>
       <c r="AL32" t="n">
         <v>1</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>0</v>
       </c>
       <c r="AO32" t="n">
         <v>11.24</v>
@@ -5335,40 +4312,7 @@
           <t>Request for the release of  Sub-ARO with RTAs was alredy submitted -still waiting from CO to provide us Sub-ARO.</t>
         </is>
       </c>
-      <c r="AB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>0</v>
-      </c>
       <c r="AL33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM33" t="n">
         <v>0</v>
       </c>
       <c r="AP33" t="inlineStr">
@@ -5484,40 +4428,7 @@
           <t>Request for the release of  Sub-ARO with RTAs was alredy submitted -still waiting from CO to provide us Sub-ARO.</t>
         </is>
       </c>
-      <c r="AB34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>0</v>
-      </c>
       <c r="AL34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM34" t="n">
         <v>0</v>
       </c>
       <c r="AP34" t="inlineStr">

--- a/Filtered_By_Region/Region VI/Region VI_GABALDON.xlsx
+++ b/Filtered_By_Region/Region VI/Region VI_GABALDON.xlsx
@@ -58,13 +58,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU34"/>
+  <dimension ref="A1:AB34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,3883 +576,3379 @@
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites Reverted</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites Not yet started</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites Under Procurement</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites On Going</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites Completed</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>No. of bldg Reverted</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>No. of bldg Not yet started</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>No. of bldg Under Procurement</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>No. of bldg On Going</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>No. of bldg Completed</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>PREVIOUS ACCOMPLISHMENT</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>DIFFERENCE</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>Projected Date of Completion</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Month Completed</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>Implementing Unit</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>BBM TERM COMPLETED</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>AWAITING SUBMISSION OF RTA</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>batch of suballotment</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
+      <c r="AB1" s="3" t="inlineStr">
         <is>
           <t>Status as of July 4, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>Aklan</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="4" t="n">
         <v>114719</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>Ibajay Central School</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>IBAJAY</t>
         </is>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="H2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="inlineStr">
+      <c r="J2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L2" t="n">
+      <c r="L2" s="4" t="n">
         <v>6238558.58</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="M2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="4" t="n">
         <v>6218000</v>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="O2" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="3" t="n">
+      <c r="P2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="5" t="n">
         <v>44349</v>
       </c>
-      <c r="R2" s="3" t="n">
+      <c r="R2" s="5" t="n">
         <v>44329</v>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="S2" s="4" t="inlineStr">
         <is>
           <t>CY 2020 GABALDON - 001</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="T2" s="4" t="inlineStr">
         <is>
           <t>CY 2020 GABALDON - 001</t>
         </is>
       </c>
-      <c r="U2" s="3" t="n">
+      <c r="U2" s="5" t="n">
         <v>44068</v>
       </c>
-      <c r="V2" s="3" t="n">
+      <c r="V2" s="5" t="n">
         <v>44075</v>
       </c>
-      <c r="W2" s="3" t="n">
+      <c r="W2" s="5" t="n">
         <v>44088</v>
       </c>
-      <c r="X2" s="3" t="n">
+      <c r="X2" s="5" t="n">
         <v>44099</v>
       </c>
-      <c r="Y2" s="3" t="n">
+      <c r="Y2" s="5" t="n">
         <v>44162</v>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="Z2" s="4" t="inlineStr">
         <is>
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="AL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AT2" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
+      <c r="AA2" s="4" t="inlineStr"/>
+      <c r="AB2" s="4" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>Bacolod City</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="4" t="n">
         <v>117449</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>Andres Bonifacio I ES</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>BACOLOD CITY (Capital)</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="H3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="inlineStr">
+      <c r="J3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" s="4" t="n">
         <v>6638076.54</v>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="M3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="4" t="n">
         <v>4653000</v>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="O3" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="3" t="n">
+      <c r="P3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="5" t="n">
         <v>44557</v>
       </c>
-      <c r="R3" s="3" t="n">
+      <c r="R3" s="5" t="n">
         <v>44557</v>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="S3" s="4" t="inlineStr">
         <is>
           <t>r6bcd04142021-P25</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="T3" s="4" t="inlineStr">
         <is>
           <t>r6bcd04142021-P25</t>
         </is>
       </c>
-      <c r="U3" s="3" t="n">
+      <c r="U3" s="5" t="n">
         <v>44302</v>
       </c>
-      <c r="V3" s="3" t="n">
+      <c r="V3" s="5" t="n">
         <v>44312</v>
       </c>
-      <c r="W3" s="3" t="n">
+      <c r="W3" s="5" t="n">
         <v>44326</v>
       </c>
-      <c r="X3" s="3" t="n">
+      <c r="X3" s="5" t="n">
         <v>44337</v>
       </c>
-      <c r="Y3" s="3" t="n">
+      <c r="Y3" s="5" t="n">
         <v>44407</v>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="Z3" s="4" t="inlineStr">
         <is>
           <t>RISM BUILDERS &amp; CONST. SERVICES INC.</t>
         </is>
       </c>
-      <c r="AL3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AT3" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
+      <c r="AA3" s="4" t="inlineStr"/>
+      <c r="AB3" s="4" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="4" t="n">
         <v>116375</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>Igbaras CES</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>IGBARAS</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="G4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" s="4" t="n">
         <v>7538808.48</v>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="M4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="4" t="n">
         <v>5490282.08</v>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="O4" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="3" t="n">
+      <c r="P4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="5" t="n">
         <v>44834</v>
       </c>
-      <c r="R4" s="3" t="n">
+      <c r="R4" s="5" t="n">
         <v>44840</v>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="S4" s="4" t="inlineStr">
         <is>
           <t>Gab2020-RVI-022-ILOILO-B1-L1</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="T4" s="4" t="inlineStr">
         <is>
           <t>Gab2020-RVI-022-ILOILO-B1-L1</t>
         </is>
       </c>
-      <c r="U4" s="3" t="n">
+      <c r="U4" s="5" t="n">
         <v>43882</v>
       </c>
-      <c r="V4" s="3" t="n">
+      <c r="V4" s="5" t="n">
         <v>43888</v>
       </c>
-      <c r="W4" s="3" t="n">
+      <c r="W4" s="5" t="n">
         <v>43900</v>
       </c>
-      <c r="X4" s="3" t="n">
+      <c r="X4" s="5" t="n">
         <v>44152</v>
       </c>
-      <c r="Y4" s="3" t="n">
+      <c r="Y4" s="5" t="n">
         <v>44172</v>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="Z4" s="4" t="inlineStr">
         <is>
           <t>Four SG Enterprises</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr">
+      <c r="AA4" s="4" t="inlineStr">
         <is>
           <t>On-going Rectification of Punchlisted Items</t>
         </is>
       </c>
-      <c r="AL4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>CY 2022</t>
-        </is>
-      </c>
-      <c r="AT4" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
+      <c r="AB4" s="4" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="4" t="n">
         <v>116616</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>New Lucena CES</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>NEW LUCENA</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="H5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="J5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L5" t="n">
+      <c r="L5" s="4" t="n">
         <v>5645882.941165853</v>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="M5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="4" t="n">
         <v>3604983.51</v>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="O5" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="3" t="n">
+      <c r="P5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="5" t="n">
         <v>44329</v>
       </c>
-      <c r="R5" s="3" t="n">
+      <c r="R5" s="5" t="n">
         <v>44550</v>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="S5" s="4" t="inlineStr">
         <is>
           <t>Gab2020-RVI-022-ILOILO-B1-L2</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="T5" s="4" t="inlineStr">
         <is>
           <t>Gab2020-RVI-022-ILOILO-B1-L2</t>
         </is>
       </c>
-      <c r="U5" s="3" t="n">
+      <c r="U5" s="5" t="n">
         <v>43882</v>
       </c>
-      <c r="V5" s="3" t="n">
+      <c r="V5" s="5" t="n">
         <v>43888</v>
       </c>
-      <c r="W5" s="3" t="n">
+      <c r="W5" s="5" t="n">
         <v>43900</v>
       </c>
-      <c r="X5" s="3" t="n">
+      <c r="X5" s="5" t="n">
         <v>44152</v>
       </c>
-      <c r="Y5" s="3" t="n">
+      <c r="Y5" s="5" t="n">
         <v>44172</v>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="Z5" s="4" t="inlineStr">
         <is>
           <t>Four SG Enterprises</t>
         </is>
       </c>
-      <c r="AL5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AT5" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
+      <c r="AA5" s="4" t="inlineStr"/>
+      <c r="AB5" s="4" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="4" t="n">
         <v>116119</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t>Cabatuan CES</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>CABATUAN</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="H6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="inlineStr">
+      <c r="J6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L6" t="n">
+      <c r="L6" s="4" t="n">
         <v>6311025.38</v>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="M6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="4" t="n">
         <v>4526000</v>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="O6" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="3" t="n">
+      <c r="P6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="5" t="n">
         <v>44331</v>
       </c>
-      <c r="R6" s="3" t="n">
+      <c r="R6" s="5" t="n">
         <v>44459</v>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="S6" s="4" t="inlineStr">
         <is>
           <t>Gab2020-RVI-022-ILOILO-B1-L3</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="T6" s="4" t="inlineStr">
         <is>
           <t>Gab2020-RVI-022-ILOILO-B1-L</t>
         </is>
       </c>
-      <c r="U6" s="3" t="n">
+      <c r="U6" s="5" t="n">
         <v>43882</v>
       </c>
-      <c r="V6" s="3" t="n">
+      <c r="V6" s="5" t="n">
         <v>43888</v>
       </c>
-      <c r="W6" s="3" t="n">
+      <c r="W6" s="5" t="n">
         <v>43900</v>
       </c>
-      <c r="X6" s="3" t="n">
+      <c r="X6" s="5" t="n">
         <v>44152</v>
       </c>
-      <c r="Y6" s="3" t="n">
+      <c r="Y6" s="5" t="n">
         <v>44174</v>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="Z6" s="4" t="inlineStr">
         <is>
           <t>RISM BUILDERS &amp; CONST. SERVICES INC.</t>
         </is>
       </c>
-      <c r="AL6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AT6" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
+      <c r="AA6" s="4" t="inlineStr"/>
+      <c r="AB6" s="4" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="4" t="n">
         <v>116043</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>Barotac Nuevo CES</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>BAROTAC NUEVO</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="H7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="inlineStr">
+      <c r="J7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L7" t="n">
+      <c r="L7" s="4" t="n">
         <v>19897556.76641838</v>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="M7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="4" t="n">
         <v>12905885.78</v>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="O7" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="inlineStr">
+      <c r="P7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="4" t="inlineStr">
         <is>
           <t>Ocober 30, 2022</t>
         </is>
       </c>
-      <c r="R7" s="3" t="n">
+      <c r="R7" s="5" t="n">
         <v>44831</v>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="S7" s="4" t="inlineStr">
         <is>
           <t>Gab2020-RVI-022-ILOILO-B1-L4</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="T7" s="4" t="inlineStr">
         <is>
           <t>Gab2020-RVI-022-ILOILO-B1-L4</t>
         </is>
       </c>
-      <c r="U7" s="3" t="n">
+      <c r="U7" s="5" t="n">
         <v>43882</v>
       </c>
-      <c r="V7" s="3" t="n">
+      <c r="V7" s="5" t="n">
         <v>43888</v>
       </c>
-      <c r="W7" s="3" t="n">
+      <c r="W7" s="5" t="n">
         <v>43900</v>
       </c>
-      <c r="X7" s="3" t="n">
+      <c r="X7" s="5" t="n">
         <v>44152</v>
       </c>
-      <c r="Y7" s="3" t="n">
+      <c r="Y7" s="5" t="n">
         <v>44172</v>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="Z7" s="4" t="inlineStr">
         <is>
           <t>Four SG Enterprises</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr">
+      <c r="AA7" s="4" t="inlineStr">
         <is>
           <t>On-going but with slow workmanship</t>
         </is>
       </c>
-      <c r="AL7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>CY 2022</t>
-        </is>
-      </c>
-      <c r="AT7" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
+      <c r="AB7" s="4" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="4" t="n">
         <v>116349</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="4" t="inlineStr">
         <is>
           <t>Estancia Central Elementary School</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t>ESTANCIA</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="H8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="inlineStr">
+      <c r="J8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L8" t="n">
+      <c r="L8" s="4" t="n">
         <v>5863706.88</v>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="M8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="4" t="n">
         <v>4204000</v>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="O8" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="3" t="n">
+      <c r="P8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="5" t="n">
         <v>44522</v>
       </c>
-      <c r="R8" s="3" t="n">
+      <c r="R8" s="5" t="n">
         <v>44481</v>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="S8" s="4" t="inlineStr">
         <is>
           <t>Gab2020-RVI-022-ILOILO-B1-L4</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="T8" s="4" t="inlineStr">
         <is>
           <t>Gab2020-RVI-022-ILOILO-B1-L4</t>
         </is>
       </c>
-      <c r="U8" s="3" t="n">
+      <c r="U8" s="5" t="n">
         <v>43882</v>
       </c>
-      <c r="V8" s="3" t="n">
+      <c r="V8" s="5" t="n">
         <v>43888</v>
       </c>
-      <c r="W8" s="3" t="n">
+      <c r="W8" s="5" t="n">
         <v>43900</v>
       </c>
-      <c r="X8" s="3" t="n">
+      <c r="X8" s="5" t="n">
         <v>44105</v>
       </c>
-      <c r="Y8" s="3" t="n">
+      <c r="Y8" s="5" t="n">
         <v>44369</v>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="Z8" s="4" t="inlineStr">
         <is>
           <t>RISM Builders and Merchandising</t>
         </is>
       </c>
-      <c r="AL8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AT8" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
+      <c r="AA8" s="4" t="inlineStr"/>
+      <c r="AB8" s="4" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>Iloilo City</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="4" t="n">
         <v>117626</v>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="4" t="inlineStr">
         <is>
           <t>A. Montes ES I</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t>ILOILO CITY (Capital)</t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="H9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="inlineStr">
+      <c r="J9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L9" t="n">
+      <c r="L9" s="4" t="n">
         <v>16198458.88</v>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="M9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="4" t="inlineStr"/>
+      <c r="O9" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA9" t="inlineStr">
+      <c r="P9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="4" t="inlineStr"/>
+      <c r="R9" s="4" t="inlineStr"/>
+      <c r="S9" s="4" t="inlineStr"/>
+      <c r="T9" s="4" t="inlineStr"/>
+      <c r="U9" s="4" t="inlineStr"/>
+      <c r="V9" s="4" t="inlineStr"/>
+      <c r="W9" s="4" t="inlineStr"/>
+      <c r="X9" s="4" t="inlineStr"/>
+      <c r="Y9" s="4" t="inlineStr"/>
+      <c r="Z9" s="4" t="inlineStr"/>
+      <c r="AA9" s="4" t="inlineStr">
         <is>
           <t>REQUEST FOR REALIGNMENT (Realignment of A. MONTES ES1 TO AREVALO ES 100%, RIZAL ES 100%, and ESTEBAN JUNTADOR SR. MEMORIAL ES 100%)</t>
         </is>
       </c>
-      <c r="AL9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AT9" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
+      <c r="AB9" s="4" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>Iloilo City</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="4" t="n">
         <v>117629</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="4" t="inlineStr">
         <is>
           <t>Jalandoni MS</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="4" t="inlineStr">
         <is>
           <t>ILOILO CITY (Capital)</t>
         </is>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="H10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="inlineStr">
+      <c r="J10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L10" t="n">
+      <c r="L10" s="4" t="n">
         <v>18915275.98</v>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="n">
+      <c r="M10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="4" t="n">
         <v>13229998.95</v>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="O10" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="3" t="n">
+      <c r="P10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="5" t="n">
         <v>44396</v>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="R10" s="4" t="inlineStr">
         <is>
           <t>06:43:12</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="S10" s="4" t="inlineStr">
         <is>
           <t>20-12-006</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="T10" s="4" t="inlineStr">
         <is>
           <t>20-12-006</t>
         </is>
       </c>
-      <c r="U10" s="3" t="n">
+      <c r="U10" s="5" t="n">
         <v>44141</v>
       </c>
-      <c r="V10" s="3" t="n">
+      <c r="V10" s="5" t="n">
         <v>44148</v>
       </c>
-      <c r="W10" s="3" t="n">
+      <c r="W10" s="5" t="n">
         <v>44162</v>
       </c>
-      <c r="X10" s="3" t="n">
+      <c r="X10" s="5" t="n">
         <v>44169</v>
       </c>
-      <c r="Y10" s="3" t="n">
+      <c r="Y10" s="5" t="n">
         <v>44209</v>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="Z10" s="4" t="inlineStr">
         <is>
           <t>4SG Enterprises</t>
         </is>
       </c>
-      <c r="AA10" t="inlineStr">
+      <c r="AA10" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="AL10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AT10" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
+      <c r="AB10" s="4" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>Kabankalan City</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="4" t="n">
         <v>117858</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="4" t="inlineStr">
         <is>
           <t>Esteban R. Abada Memorial School(East)</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="4" t="inlineStr">
         <is>
           <t>Kabankalan City</t>
         </is>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="H11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="inlineStr">
+      <c r="J11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L11" t="n">
+      <c r="L11" s="4" t="n">
         <v>12934200.86</v>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" t="inlineStr">
+      <c r="M11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="4" t="inlineStr"/>
+      <c r="O11" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AT11" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
+      <c r="P11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="4" t="inlineStr"/>
+      <c r="R11" s="4" t="inlineStr"/>
+      <c r="S11" s="4" t="inlineStr"/>
+      <c r="T11" s="4" t="inlineStr"/>
+      <c r="U11" s="4" t="inlineStr"/>
+      <c r="V11" s="4" t="inlineStr"/>
+      <c r="W11" s="4" t="inlineStr"/>
+      <c r="X11" s="4" t="inlineStr"/>
+      <c r="Y11" s="4" t="inlineStr"/>
+      <c r="Z11" s="4" t="inlineStr"/>
+      <c r="AA11" s="4" t="inlineStr"/>
+      <c r="AB11" s="4" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>La Carlota City</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="4" t="n">
         <v>302751</v>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" s="4" t="inlineStr">
         <is>
           <t>Doña Hortencia Salas Benedicto NHS</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" s="4" t="inlineStr">
         <is>
           <t>LA CARLOTA CITY</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="H12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="inlineStr">
+      <c r="J12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L12" t="n">
+      <c r="L12" s="4" t="n">
         <v>6732754.41</v>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="n">
+      <c r="M12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="4" t="n">
         <v>3835451.66</v>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="O12" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="inlineStr">
+      <c r="P12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="4" t="inlineStr">
         <is>
           <t>October 18, 2021</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
+      <c r="R12" s="4" t="inlineStr"/>
+      <c r="S12" s="4" t="inlineStr"/>
+      <c r="T12" s="4" t="inlineStr"/>
+      <c r="U12" s="4" t="inlineStr"/>
+      <c r="V12" s="4" t="inlineStr"/>
+      <c r="W12" s="4" t="inlineStr"/>
+      <c r="X12" s="4" t="inlineStr"/>
+      <c r="Y12" s="4" t="inlineStr"/>
+      <c r="Z12" s="4" t="inlineStr">
         <is>
           <t>FOUR SG ENTERPRISES</t>
         </is>
       </c>
-      <c r="AA12" t="inlineStr">
+      <c r="AA12" s="4" t="inlineStr">
         <is>
           <t>Bidding Cancelled due to ECQ</t>
         </is>
       </c>
-      <c r="AL12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AT12" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
+      <c r="AB12" s="4" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>Negros Occidental</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="4" t="n">
         <v>117385</v>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="4" t="inlineStr">
         <is>
           <t>Talisay ES</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" s="4" t="inlineStr">
         <is>
           <t>CITY OF TALISAY</t>
         </is>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="H13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="inlineStr">
+      <c r="J13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L13" t="n">
+      <c r="L13" s="4" t="n">
         <v>3492344.95</v>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="n">
+      <c r="M13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" s="4" t="n">
         <v>3477970.42</v>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="O13" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="3" t="n">
+      <c r="P13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="5" t="n">
         <v>44502</v>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="R13" s="4" t="inlineStr">
         <is>
           <t>Nov. 22, 2021</t>
         </is>
       </c>
-      <c r="U13" s="3" t="n">
+      <c r="S13" s="4" t="inlineStr"/>
+      <c r="T13" s="4" t="inlineStr"/>
+      <c r="U13" s="5" t="n">
         <v>43942</v>
       </c>
-      <c r="V13" s="3" t="n">
+      <c r="V13" s="5" t="n">
         <v>43955</v>
       </c>
-      <c r="W13" s="3" t="n">
+      <c r="W13" s="5" t="n">
         <v>43969</v>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="X13" s="4" t="inlineStr">
         <is>
           <t>26D S.2020</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
+      <c r="Y13" s="4" t="inlineStr"/>
+      <c r="Z13" s="4" t="inlineStr">
         <is>
           <t>FOUR SG ENTERPRISES</t>
         </is>
       </c>
-      <c r="AL13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AT13" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
+      <c r="AA13" s="4" t="inlineStr"/>
+      <c r="AB13" s="4" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>Negros Occidental</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="4" t="n">
         <v>117385</v>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="4" t="inlineStr">
         <is>
           <t>Talisay ES</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" s="4" t="inlineStr">
         <is>
           <t>CITY OF TALISAY</t>
         </is>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="I14" t="n">
+      <c r="H14" s="4" t="inlineStr"/>
+      <c r="I14" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="inlineStr">
+      <c r="J14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L14" t="n">
+      <c r="L14" s="4" t="n">
         <v>2816674.04</v>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="n">
+      <c r="M14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" s="4" t="n">
         <v>2789325.92</v>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="O14" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="3" t="n">
+      <c r="P14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="5" t="n">
         <v>44502</v>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="R14" s="4" t="inlineStr">
         <is>
           <t>Nov. 22, 2021</t>
         </is>
       </c>
-      <c r="U14" s="3" t="n">
+      <c r="S14" s="4" t="inlineStr"/>
+      <c r="T14" s="4" t="inlineStr"/>
+      <c r="U14" s="5" t="n">
         <v>43942</v>
       </c>
-      <c r="V14" s="3" t="n">
+      <c r="V14" s="5" t="n">
         <v>43955</v>
       </c>
-      <c r="W14" s="3" t="n">
+      <c r="W14" s="5" t="n">
         <v>43969</v>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="X14" s="4" t="inlineStr">
         <is>
           <t>26C S.2020</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
+      <c r="Y14" s="4" t="inlineStr"/>
+      <c r="Z14" s="4" t="inlineStr">
         <is>
           <t>FOUR SG ENTERPRISES</t>
         </is>
       </c>
-      <c r="AL14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AT14" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
+      <c r="AA14" s="4" t="inlineStr"/>
+      <c r="AB14" s="4" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="4" t="inlineStr">
         <is>
           <t>Negros Occidental</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="4" t="n">
         <v>117268</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="4" t="inlineStr">
         <is>
           <t>Moises Padilla ES</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" s="4" t="inlineStr">
         <is>
           <t>MOISES PADILLA (MAGALLON)</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="H15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="inlineStr">
+      <c r="J15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L15" t="n">
+      <c r="L15" s="4" t="n">
         <v>14261569.8</v>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="n">
+      <c r="M15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" s="4" t="n">
         <v>14241535.89</v>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="O15" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="3" t="n">
+      <c r="P15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="5" t="n">
         <v>44291</v>
       </c>
-      <c r="R15" s="3" t="n">
+      <c r="R15" s="5" t="n">
         <v>44285</v>
       </c>
-      <c r="S15" t="n">
+      <c r="S15" s="4" t="n">
         <v>6974325</v>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="T15" s="4" t="inlineStr">
         <is>
           <t>20-11-002</t>
         </is>
       </c>
-      <c r="U15" s="3" t="n">
+      <c r="U15" s="5" t="n">
         <v>43945</v>
       </c>
-      <c r="V15" s="3" t="n">
+      <c r="V15" s="5" t="n">
         <v>43955</v>
       </c>
-      <c r="W15" s="3" t="n">
+      <c r="W15" s="5" t="n">
         <v>43969</v>
       </c>
-      <c r="X15" s="3" t="n">
+      <c r="X15" s="5" t="n">
         <v>44153</v>
       </c>
-      <c r="Y15" s="3" t="n">
+      <c r="Y15" s="5" t="n">
         <v>44158</v>
       </c>
-      <c r="Z15" t="inlineStr">
+      <c r="Z15" s="4" t="inlineStr">
         <is>
           <t>FOUR SG ENTERPRISES</t>
         </is>
       </c>
-      <c r="AL15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AT15" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
+      <c r="AA15" s="4" t="inlineStr"/>
+      <c r="AB15" s="4" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="4" t="inlineStr">
         <is>
           <t>Negros Occidental</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="4" t="n">
         <v>116963</v>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" s="4" t="inlineStr">
         <is>
           <t>Cauayan CES</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" s="4" t="inlineStr">
         <is>
           <t>CAUAYAN</t>
         </is>
       </c>
-      <c r="G16" t="n">
+      <c r="G16" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="inlineStr">
+      <c r="H16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L16" t="n">
+      <c r="L16" s="4" t="n">
         <v>5284051.93</v>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="n">
+      <c r="M16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" s="4" t="n">
         <v>5262334.53</v>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="O16" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="3" t="n">
+      <c r="P16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="5" t="n">
         <v>44291</v>
       </c>
-      <c r="R16" s="3" t="n">
+      <c r="R16" s="5" t="n">
         <v>44255</v>
       </c>
-      <c r="S16" t="n">
+      <c r="S16" s="4" t="n">
         <v>6974361</v>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="T16" s="4" t="inlineStr">
         <is>
           <t>20-11-001</t>
         </is>
       </c>
-      <c r="U16" s="3" t="n">
+      <c r="U16" s="5" t="n">
         <v>43945</v>
       </c>
-      <c r="V16" s="3" t="n">
+      <c r="V16" s="5" t="n">
         <v>43955</v>
       </c>
-      <c r="W16" s="3" t="n">
+      <c r="W16" s="5" t="n">
         <v>43969</v>
       </c>
-      <c r="X16" s="3" t="n">
+      <c r="X16" s="5" t="n">
         <v>44153</v>
       </c>
-      <c r="Y16" s="3" t="n">
+      <c r="Y16" s="5" t="n">
         <v>44158</v>
       </c>
-      <c r="Z16" t="inlineStr">
+      <c r="Z16" s="4" t="inlineStr">
         <is>
           <t>FOUR SG ENTERPRISES</t>
         </is>
       </c>
-      <c r="AL16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AT16" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
+      <c r="AA16" s="4" t="inlineStr"/>
+      <c r="AB16" s="4" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="4" t="inlineStr">
         <is>
           <t>Negros Occidental</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="4" t="n">
         <v>117162</v>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" s="4" t="inlineStr">
         <is>
           <t>Bocana ES</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" s="4" t="inlineStr">
         <is>
           <t>ILOG</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="G17" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="H17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="inlineStr">
+      <c r="J17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L17" t="n">
+      <c r="L17" s="4" t="n">
         <v>1915596.29</v>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="n">
+      <c r="M17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" s="4" t="n">
         <v>1898971.66</v>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="O17" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="3" t="n">
+      <c r="P17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="5" t="n">
         <v>44502</v>
       </c>
-      <c r="U17" s="3" t="n">
+      <c r="R17" s="4" t="inlineStr"/>
+      <c r="S17" s="4" t="inlineStr"/>
+      <c r="T17" s="4" t="inlineStr"/>
+      <c r="U17" s="5" t="n">
         <v>43942</v>
       </c>
-      <c r="V17" s="3" t="n">
+      <c r="V17" s="5" t="n">
         <v>43955</v>
       </c>
-      <c r="W17" s="3" t="n">
+      <c r="W17" s="5" t="n">
         <v>43969</v>
       </c>
-      <c r="X17" t="inlineStr">
+      <c r="X17" s="4" t="inlineStr">
         <is>
           <t>26A S.2020</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
+      <c r="Y17" s="4" t="inlineStr"/>
+      <c r="Z17" s="4" t="inlineStr">
         <is>
           <t>FOUR SG ENTERPRISES</t>
         </is>
       </c>
-      <c r="AL17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AT17" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
+      <c r="AA17" s="4" t="inlineStr"/>
+      <c r="AB17" s="4" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="4" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="4" t="inlineStr">
         <is>
           <t>Sagay City</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="4" t="n">
         <v>117692</v>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" s="4" t="inlineStr">
         <is>
           <t>Elia T. Canoy Esperancilla Elementary School</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" s="4" t="inlineStr">
         <is>
           <t>SAGAY CITY</t>
         </is>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
+      <c r="H18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" t="inlineStr">
+      <c r="J18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L18" t="n">
+      <c r="L18" s="4" t="n">
         <v>2418204.21</v>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="n">
+      <c r="M18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" s="4" t="n">
         <v>1810000</v>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="O18" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q18" t="inlineStr">
+      <c r="P18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="4" t="inlineStr">
         <is>
           <t>December 16, 2021</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="R18" s="4" t="inlineStr">
         <is>
           <t>August 21, 2021</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="S18" s="4" t="inlineStr">
         <is>
           <t>02-2020</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="T18" s="4" t="inlineStr">
         <is>
           <t>02-2020</t>
         </is>
       </c>
-      <c r="U18" s="3" t="n">
+      <c r="U18" s="5" t="n">
         <v>43886</v>
       </c>
-      <c r="V18" s="3" t="n">
+      <c r="V18" s="5" t="n">
         <v>43893</v>
       </c>
-      <c r="W18" s="3" t="n">
+      <c r="W18" s="5" t="n">
         <v>43906</v>
       </c>
-      <c r="Y18" t="inlineStr">
+      <c r="X18" s="4" t="inlineStr"/>
+      <c r="Y18" s="4" t="inlineStr">
         <is>
           <t>June 21, 2021</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
+      <c r="Z18" s="4" t="inlineStr">
         <is>
           <t>RISM BUILDERS &amp; CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="AL18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AT18" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
+      <c r="AA18" s="4" t="inlineStr"/>
+      <c r="AB18" s="4" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t>Silay City</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="4" t="n">
         <v>117804</v>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E19" s="4" t="inlineStr">
         <is>
           <t>Silay South Elementary School</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" s="4" t="inlineStr">
         <is>
           <t>SAGAY CITY</t>
         </is>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
+      <c r="H19" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="inlineStr">
+      <c r="J19" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L19" t="n">
+      <c r="L19" s="4" t="n">
         <v>24820703.04</v>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="n">
+      <c r="M19" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" s="4" t="n">
         <v>20338749.46</v>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="O19" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="3" t="n">
+      <c r="P19" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="5" t="n">
         <v>44834</v>
       </c>
-      <c r="T19" t="inlineStr">
+      <c r="R19" s="4" t="inlineStr"/>
+      <c r="S19" s="4" t="inlineStr"/>
+      <c r="T19" s="4" t="inlineStr">
         <is>
           <t>R6-D18-GAB-B2-2020</t>
         </is>
       </c>
-      <c r="U19" t="inlineStr">
+      <c r="U19" s="4" t="inlineStr">
         <is>
           <t>March 27, 2020</t>
         </is>
       </c>
-      <c r="V19" t="inlineStr">
+      <c r="V19" s="4" t="inlineStr">
         <is>
           <t>May 7, 2020</t>
         </is>
       </c>
-      <c r="W19" t="inlineStr">
+      <c r="W19" s="4" t="inlineStr">
         <is>
           <t>May 19, 2020</t>
         </is>
       </c>
-      <c r="X19" t="inlineStr">
+      <c r="X19" s="4" t="inlineStr">
         <is>
           <t>June 18, 2021</t>
         </is>
       </c>
-      <c r="Y19" t="inlineStr">
+      <c r="Y19" s="4" t="inlineStr">
         <is>
           <t>July 27, 2021</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
+      <c r="Z19" s="4" t="inlineStr">
         <is>
           <t>FOUR SG ENTERPRISES</t>
         </is>
       </c>
-      <c r="AA19" t="inlineStr">
+      <c r="AA19" s="4" t="inlineStr">
         <is>
           <t>On-going Rectification of Punchlisted Items</t>
         </is>
       </c>
-      <c r="AL19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AQ19" t="inlineStr">
-        <is>
-          <t>CY 2022</t>
-        </is>
-      </c>
-      <c r="AT19" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
+      <c r="AB19" s="4" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="4" t="inlineStr">
         <is>
           <t>Aklan</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="4" t="n">
         <v>114738</v>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" s="4" t="inlineStr">
         <is>
           <t>Naisud CS</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" s="4" t="inlineStr">
         <is>
           <t>IBAJAY</t>
         </is>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
+      <c r="H20" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" t="inlineStr">
+      <c r="J20" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L20" t="n">
+      <c r="L20" s="4" t="n">
         <v>6399403</v>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="n">
+      <c r="M20" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" s="4" t="n">
         <v>6335000</v>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="O20" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="3" t="n">
+      <c r="P20" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="5" t="n">
         <v>44637</v>
       </c>
-      <c r="R20" s="3" t="n">
+      <c r="R20" s="5" t="n">
         <v>44624</v>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="S20" s="4" t="inlineStr">
         <is>
           <t>CY 2021 GABALDON - 001</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr">
+      <c r="T20" s="4" t="inlineStr">
         <is>
           <t>CY 2021 GABALDON - 001</t>
         </is>
       </c>
-      <c r="U20" s="3" t="n">
+      <c r="U20" s="5" t="n">
         <v>44347</v>
       </c>
-      <c r="V20" s="3" t="n">
+      <c r="V20" s="5" t="n">
         <v>44354</v>
       </c>
-      <c r="W20" s="3" t="n">
+      <c r="W20" s="5" t="n">
         <v>44368</v>
       </c>
-      <c r="X20" s="3" t="n">
+      <c r="X20" s="5" t="n">
         <v>44389</v>
       </c>
-      <c r="Y20" s="3" t="n">
+      <c r="Y20" s="5" t="n">
         <v>44420</v>
       </c>
-      <c r="Z20" t="inlineStr">
+      <c r="Z20" s="4" t="inlineStr">
         <is>
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="AL20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AP20" t="inlineStr">
-        <is>
-          <t>Division Office</t>
-        </is>
-      </c>
-      <c r="AT20" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
+      <c r="AA20" s="4" t="inlineStr"/>
+      <c r="AB20" s="4" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="4" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="4" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="4" t="n">
         <v>116012</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" s="4" t="inlineStr">
         <is>
           <t>Balasan CES</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" s="4" t="inlineStr">
         <is>
           <t>BALASAN</t>
         </is>
       </c>
-      <c r="G21" t="n">
+      <c r="G21" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
+      <c r="H21" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" t="inlineStr">
+      <c r="J21" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L21" t="n">
+      <c r="L21" s="4" t="n">
         <v>9800503</v>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="n">
+      <c r="M21" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" s="4" t="n">
         <v>6455847.57</v>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="O21" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P21" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="3" t="n">
+      <c r="P21" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="5" t="n">
         <v>44522</v>
       </c>
-      <c r="R21" s="3" t="n">
+      <c r="R21" s="5" t="n">
         <v>44508</v>
       </c>
-      <c r="S21" t="inlineStr">
+      <c r="S21" s="4" t="inlineStr">
         <is>
           <t>R-06-BEFF Gabaldon-2020-B2-L1</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr">
+      <c r="T21" s="4" t="inlineStr">
         <is>
           <t>R-06-BEFF Gabaldon-2020-B2-L1</t>
         </is>
       </c>
-      <c r="U21" s="3" t="n">
+      <c r="U21" s="5" t="n">
         <v>43882</v>
       </c>
-      <c r="W21" s="3" t="n">
+      <c r="V21" s="4" t="inlineStr"/>
+      <c r="W21" s="5" t="n">
         <v>43900</v>
       </c>
-      <c r="X21" s="3" t="n">
+      <c r="X21" s="5" t="n">
         <v>44105</v>
       </c>
-      <c r="Y21" s="3" t="n">
+      <c r="Y21" s="5" t="n">
         <v>44372</v>
       </c>
-      <c r="Z21" t="inlineStr">
+      <c r="Z21" s="4" t="inlineStr">
         <is>
           <t>Early Riser Construction</t>
         </is>
       </c>
-      <c r="AL21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO21" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AP21" t="inlineStr">
-        <is>
-          <t>Division Office</t>
-        </is>
-      </c>
-      <c r="AT21" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
+      <c r="AA21" s="4" t="inlineStr"/>
+      <c r="AB21" s="4" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="4" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" s="4" t="inlineStr">
         <is>
           <t>Negros Occidental</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="4" t="n">
         <v>117212</v>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E22" s="4" t="inlineStr">
         <is>
           <t>Tinongan ES</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">ISABELA </t>
         </is>
       </c>
-      <c r="G22" t="n">
+      <c r="G22" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
+      <c r="H22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="J22" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" t="inlineStr">
+      <c r="J22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L22" t="n">
+      <c r="L22" s="4" t="n">
         <v>5776301</v>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="n">
+      <c r="M22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" s="4" t="n">
         <v>3692000</v>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="O22" s="4" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="P22" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="3" t="n">
+      <c r="P22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="5" t="n">
         <v>44545</v>
       </c>
-      <c r="U22" s="3" t="n">
+      <c r="R22" s="4" t="inlineStr"/>
+      <c r="S22" s="4" t="inlineStr"/>
+      <c r="T22" s="4" t="inlineStr"/>
+      <c r="U22" s="5" t="n">
         <v>44355</v>
       </c>
-      <c r="V22" s="3" t="n">
+      <c r="V22" s="5" t="n">
         <v>44362</v>
       </c>
-      <c r="W22" s="3" t="n">
+      <c r="W22" s="5" t="n">
         <v>44375</v>
       </c>
-      <c r="X22" t="inlineStr">
+      <c r="X22" s="4" t="inlineStr">
         <is>
           <t>2021-07-002</t>
         </is>
       </c>
-      <c r="Y22" s="3" t="n">
+      <c r="Y22" s="5" t="n">
         <v>44406</v>
       </c>
-      <c r="Z22" t="inlineStr">
+      <c r="Z22" s="4" t="inlineStr">
         <is>
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="AL22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AP22" t="inlineStr">
-        <is>
-          <t>Division Office</t>
-        </is>
-      </c>
-      <c r="AT22" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
+      <c r="AA22" s="4" t="inlineStr"/>
+      <c r="AB22" s="4" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="4" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="4" t="inlineStr">
         <is>
           <t>Negros Occidental</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="4" t="n">
         <v>117116</v>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E23" s="4" t="inlineStr">
         <is>
           <t>Bulata ES</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">CAUAYAN </t>
         </is>
       </c>
-      <c r="G23" t="n">
+      <c r="G23" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
+      <c r="H23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" t="inlineStr">
+      <c r="J23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L23" t="n">
+      <c r="L23" s="4" t="n">
         <v>4331131</v>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="n">
+      <c r="M23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" s="4" t="n">
         <v>2752000</v>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="O23" s="4" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="P23" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="3" t="n">
+      <c r="P23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="5" t="n">
         <v>44545</v>
       </c>
-      <c r="U23" s="3" t="n">
+      <c r="R23" s="4" t="inlineStr"/>
+      <c r="S23" s="4" t="inlineStr"/>
+      <c r="T23" s="4" t="inlineStr"/>
+      <c r="U23" s="5" t="n">
         <v>44355</v>
       </c>
-      <c r="V23" s="3" t="n">
+      <c r="V23" s="5" t="n">
         <v>44362</v>
       </c>
-      <c r="W23" s="3" t="n">
+      <c r="W23" s="5" t="n">
         <v>44375</v>
       </c>
-      <c r="X23" t="inlineStr">
+      <c r="X23" s="4" t="inlineStr">
         <is>
           <t>2021-07-003</t>
         </is>
       </c>
-      <c r="Y23" s="3" t="n">
+      <c r="Y23" s="5" t="n">
         <v>44406</v>
       </c>
-      <c r="Z23" t="inlineStr">
+      <c r="Z23" s="4" t="inlineStr">
         <is>
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="AL23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AP23" t="inlineStr">
-        <is>
-          <t>Division Office</t>
-        </is>
-      </c>
-      <c r="AT23" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
+      <c r="AA23" s="4" t="inlineStr"/>
+      <c r="AB23" s="4" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="4" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" s="4" t="inlineStr">
         <is>
           <t>San Carlos City</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="4" t="n">
         <v>117772</v>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E24" s="4" t="inlineStr">
         <is>
           <t>Codcod ES</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" s="4" t="inlineStr">
         <is>
           <t>San Carlos City</t>
         </is>
       </c>
-      <c r="G24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" t="inlineStr">
+      <c r="G24" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" s="4" t="inlineStr">
         <is>
           <t>Completion of Abandoned Gabaldon</t>
         </is>
       </c>
-      <c r="L24" t="n">
+      <c r="L24" s="4" t="n">
         <v>396661</v>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="n">
+      <c r="M24" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" s="4" t="n">
         <v>393994.87</v>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="O24" s="4" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="P24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="3" t="n">
+      <c r="P24" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="5" t="n">
         <v>44556</v>
       </c>
-      <c r="R24" s="3" t="n">
+      <c r="R24" s="5" t="n">
         <v>44487</v>
       </c>
-      <c r="S24" t="inlineStr">
+      <c r="S24" s="4" t="inlineStr">
         <is>
           <t>7774758-2021-GABALDON</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr">
+      <c r="T24" s="4" t="inlineStr">
         <is>
           <t>7774758-2021-GABALDON</t>
         </is>
       </c>
-      <c r="U24" s="3" t="n">
+      <c r="U24" s="5" t="n">
         <v>44364</v>
       </c>
-      <c r="V24" s="3" t="n">
+      <c r="V24" s="5" t="n">
         <v>44372</v>
       </c>
-      <c r="W24" s="3" t="n">
+      <c r="W24" s="5" t="n">
         <v>44384</v>
       </c>
-      <c r="X24" s="3" t="n">
+      <c r="X24" s="5" t="n">
         <v>44406</v>
       </c>
-      <c r="Y24" s="3" t="n">
+      <c r="Y24" s="5" t="n">
         <v>44414</v>
       </c>
-      <c r="Z24" t="inlineStr">
+      <c r="Z24" s="4" t="inlineStr">
         <is>
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="AA24" t="inlineStr">
+      <c r="AA24" s="4" t="inlineStr">
         <is>
           <t>100% Completed</t>
         </is>
       </c>
-      <c r="AL24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO24" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AP24" t="inlineStr">
-        <is>
-          <t>Division Office</t>
-        </is>
-      </c>
-      <c r="AT24" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
+      <c r="AB24" s="4" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" s="4" t="inlineStr">
         <is>
           <t>San Carlos City</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="4" t="n">
         <v>117788</v>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E25" s="4" t="inlineStr">
         <is>
           <t>Katingal-an ES</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" s="4" t="inlineStr">
         <is>
           <t>San Carlos City</t>
         </is>
       </c>
-      <c r="G25" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
+      <c r="G25" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" t="inlineStr">
+      <c r="J25" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" s="4" t="inlineStr">
         <is>
           <t>Completion of Abandoned Gabaldon</t>
         </is>
       </c>
-      <c r="L25" t="n">
+      <c r="L25" s="4" t="n">
         <v>1511665</v>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="n">
+      <c r="M25" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" s="4" t="n">
         <v>1501505.13</v>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="O25" s="4" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="P25" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="3" t="n">
+      <c r="P25" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="5" t="n">
         <v>44556</v>
       </c>
-      <c r="R25" s="3" t="n">
+      <c r="R25" s="5" t="n">
         <v>44550</v>
       </c>
-      <c r="S25" t="inlineStr">
+      <c r="S25" s="4" t="inlineStr">
         <is>
           <t>7774758-2021-GABALDON</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr">
+      <c r="T25" s="4" t="inlineStr">
         <is>
           <t>7774758-2021-GABALDON</t>
         </is>
       </c>
-      <c r="U25" s="3" t="n">
+      <c r="U25" s="5" t="n">
         <v>44364</v>
       </c>
-      <c r="V25" s="3" t="n">
+      <c r="V25" s="5" t="n">
         <v>44372</v>
       </c>
-      <c r="W25" s="3" t="n">
+      <c r="W25" s="5" t="n">
         <v>44384</v>
       </c>
-      <c r="X25" s="3" t="n">
+      <c r="X25" s="5" t="n">
         <v>44406</v>
       </c>
-      <c r="Y25" s="3" t="n">
+      <c r="Y25" s="5" t="n">
         <v>44414</v>
       </c>
-      <c r="Z25" t="inlineStr">
+      <c r="Z25" s="4" t="inlineStr">
         <is>
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="AA25" t="inlineStr">
+      <c r="AA25" s="4" t="inlineStr">
         <is>
           <t>100% Completed</t>
         </is>
       </c>
-      <c r="AL25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO25" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AP25" t="inlineStr">
-        <is>
-          <t>Division Office</t>
-        </is>
-      </c>
-      <c r="AT25" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
+      <c r="AB25" s="4" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2023</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="4" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" s="4" t="inlineStr">
         <is>
           <t>Negros Occidental</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="4" t="n">
         <v>117113</v>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E26" s="4" t="inlineStr">
         <is>
           <t>Hinigaran ES-A</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" s="4" t="inlineStr">
         <is>
           <t>HINIGARAN</t>
         </is>
       </c>
-      <c r="G26" t="n">
+      <c r="G26" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" t="inlineStr">
+      <c r="H26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" s="4" t="inlineStr">
         <is>
           <t>Restoration &amp; Conservation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L26" t="n">
+      <c r="L26" s="4" t="n">
         <v>11443993.61</v>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="n">
+      <c r="M26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" s="4" t="n">
         <v>9126569.32</v>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="O26" s="4" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="P26" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q26" t="inlineStr">
+      <c r="P26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="4" t="inlineStr">
         <is>
           <t>7/24/2024</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr">
+      <c r="R26" s="4" t="inlineStr">
         <is>
           <t>7/23/2024</t>
         </is>
       </c>
-      <c r="S26" t="n">
+      <c r="S26" s="4" t="n">
         <v>38952</v>
       </c>
-      <c r="T26" t="inlineStr">
+      <c r="T26" s="4" t="inlineStr">
         <is>
           <t>JO# 25-11-002</t>
         </is>
       </c>
-      <c r="U26" t="inlineStr">
+      <c r="U26" s="4" t="inlineStr">
         <is>
           <t>8/25/2023</t>
         </is>
       </c>
-      <c r="V26" s="3" t="n">
+      <c r="V26" s="5" t="n">
         <v>44935</v>
       </c>
-      <c r="W26" t="inlineStr">
+      <c r="W26" s="4" t="inlineStr">
         <is>
           <t>9/14/2023</t>
         </is>
       </c>
-      <c r="X26" t="inlineStr">
+      <c r="X26" s="4" t="inlineStr">
         <is>
           <t>No. 040 s. 2023</t>
         </is>
       </c>
-      <c r="Y26" t="inlineStr">
+      <c r="Y26" s="4" t="inlineStr">
         <is>
           <t>12/27/2023</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
+      <c r="Z26" s="4" t="inlineStr">
         <is>
           <t>CGGFR CONSTRUCTION AND CONSTRUCTION SUPPLY</t>
         </is>
       </c>
-      <c r="AL26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP26" t="inlineStr">
-        <is>
-          <t>Division Office</t>
-        </is>
-      </c>
-      <c r="AT26" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
+      <c r="AA26" s="4" t="inlineStr"/>
+      <c r="AB26" s="4" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="4" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" s="4" t="inlineStr">
         <is>
           <t>Aklan</t>
         </is>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" s="4" t="n">
         <v>114850</v>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E27" s="4" t="inlineStr">
         <is>
           <t>Malay Elementary School</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" s="4" t="inlineStr">
         <is>
           <t>MALAY</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G27" s="4" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
+      <c r="H27" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="J27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" t="inlineStr">
+      <c r="J27" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" s="4" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L27" t="n">
+      <c r="L27" s="4" t="n">
         <v>8597231.289999999</v>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="n">
+      <c r="M27" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" s="4" t="n">
         <v>8562000</v>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="O27" s="4" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="P27" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q27" t="inlineStr">
+      <c r="P27" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="4" t="inlineStr">
         <is>
           <t>1/20/2025</t>
         </is>
       </c>
-      <c r="R27" t="inlineStr">
+      <c r="R27" s="4" t="inlineStr">
         <is>
           <t>1/20/2025</t>
         </is>
       </c>
-      <c r="S27" t="inlineStr">
+      <c r="S27" s="4" t="inlineStr">
         <is>
           <t>DepEd-RO6-D1-2024GABALDON-012-2024</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr">
+      <c r="T27" s="4" t="inlineStr">
         <is>
           <t>DepEd-RO6-D1-2024GABALDON-012-2024</t>
         </is>
       </c>
-      <c r="U27" s="3" t="n">
+      <c r="U27" s="5" t="n">
         <v>45509</v>
       </c>
-      <c r="V27" t="inlineStr">
+      <c r="V27" s="4" t="inlineStr">
         <is>
           <t>5/15/2024</t>
         </is>
       </c>
-      <c r="W27" t="inlineStr">
+      <c r="W27" s="4" t="inlineStr">
         <is>
           <t>5/27/2024</t>
         </is>
       </c>
-      <c r="X27" t="inlineStr">
+      <c r="X27" s="4" t="inlineStr">
         <is>
           <t>6/19/2024</t>
         </is>
       </c>
-      <c r="Y27" t="inlineStr">
+      <c r="Y27" s="4" t="inlineStr">
         <is>
           <t>7/17/2024</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
+      <c r="Z27" s="4" t="inlineStr">
         <is>
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="AA27" t="inlineStr">
+      <c r="AA27" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="AL27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AP27" t="inlineStr">
-        <is>
-          <t>Division Office</t>
-        </is>
-      </c>
-      <c r="AS27" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT27" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
+      <c r="AB27" s="4" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="4" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" s="4" t="inlineStr">
         <is>
           <t>Guimaras</t>
         </is>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" s="4" t="n">
         <v>115895</v>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E28" s="4" t="inlineStr">
         <is>
           <t>Igang Elementary School</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" s="4" t="inlineStr">
         <is>
           <t>NUEVA VALENCIA</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G28" s="4" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
+      <c r="H28" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="J28" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" t="inlineStr">
+      <c r="J28" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" s="4" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L28" t="n">
+      <c r="L28" s="4" t="n">
         <v>7762335.08</v>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="n">
+      <c r="M28" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" s="4" t="n">
         <v>7707000</v>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="O28" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P28" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="3" t="n">
+      <c r="P28" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="5" t="n">
         <v>45363</v>
       </c>
-      <c r="R28" s="3" t="n">
+      <c r="R28" s="5" t="n">
         <v>45575</v>
       </c>
-      <c r="S28" t="inlineStr">
+      <c r="S28" s="4" t="inlineStr">
         <is>
           <t>Project 04-2024</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr">
+      <c r="T28" s="4" t="inlineStr">
         <is>
           <t>Project 04-2024</t>
         </is>
       </c>
-      <c r="U28" s="3" t="n">
+      <c r="U28" s="5" t="n">
         <v>45294</v>
       </c>
-      <c r="V28" s="3" t="n">
+      <c r="V28" s="5" t="n">
         <v>45629</v>
       </c>
-      <c r="W28" t="inlineStr">
+      <c r="W28" s="4" t="inlineStr">
         <is>
           <t>3/26/2024</t>
         </is>
       </c>
-      <c r="X28" t="inlineStr">
+      <c r="X28" s="4" t="inlineStr">
         <is>
           <t>6/25/2024</t>
         </is>
       </c>
-      <c r="Y28" s="3" t="n">
+      <c r="Y28" s="5" t="n">
         <v>45298</v>
       </c>
-      <c r="Z28" t="inlineStr">
+      <c r="Z28" s="4" t="inlineStr">
         <is>
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="AA28" t="inlineStr">
+      <c r="AA28" s="4" t="inlineStr">
         <is>
           <t>completed and turn-over</t>
         </is>
       </c>
-      <c r="AL28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>10.24</v>
-      </c>
-      <c r="AP28" t="inlineStr">
-        <is>
-          <t>Division Office</t>
-        </is>
-      </c>
-      <c r="AS28" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT28" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
+      <c r="AB28" s="4" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="4" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" s="4" t="inlineStr">
         <is>
           <t>Himamaylan City</t>
         </is>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" s="4" t="n">
         <v>117076</v>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E29" s="4" t="inlineStr">
         <is>
           <t>Himamaylan Central School</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" s="4" t="inlineStr">
         <is>
           <t>CITY OF HIMAMAYLAN</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G29" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">5th </t>
         </is>
       </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
+      <c r="H29" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="J29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" t="inlineStr">
+      <c r="J29" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" s="4" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L29" t="n">
+      <c r="L29" s="4" t="n">
         <v>13950000</v>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="n">
+      <c r="M29" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" s="4" t="n">
         <v>13850000</v>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="O29" s="4" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="P29" t="n">
+      <c r="P29" s="4" t="n">
         <v>0.95</v>
       </c>
-      <c r="Q29" s="3" t="n">
+      <c r="Q29" s="5" t="n">
         <v>45663</v>
       </c>
-      <c r="S29" t="inlineStr">
+      <c r="R29" s="4" t="inlineStr"/>
+      <c r="S29" s="4" t="inlineStr">
         <is>
           <t>IB-sdhc-082024-007</t>
         </is>
       </c>
-      <c r="T29" t="inlineStr">
+      <c r="T29" s="4" t="inlineStr">
         <is>
           <t>IB-sdhc-082024-007</t>
         </is>
       </c>
-      <c r="U29" t="inlineStr">
+      <c r="U29" s="4" t="inlineStr">
         <is>
           <t>8/14/2024</t>
         </is>
       </c>
-      <c r="V29" t="inlineStr">
+      <c r="V29" s="4" t="inlineStr">
         <is>
           <t>8/22/2024</t>
         </is>
       </c>
-      <c r="W29" s="3" t="n">
+      <c r="W29" s="5" t="n">
         <v>45360</v>
       </c>
-      <c r="X29" t="inlineStr">
+      <c r="X29" s="4" t="inlineStr">
         <is>
           <t>9/13/2024</t>
         </is>
       </c>
-      <c r="Y29" s="3" t="n">
+      <c r="Y29" s="5" t="n">
         <v>45931</v>
       </c>
-      <c r="Z29" t="inlineStr">
+      <c r="Z29" s="4" t="inlineStr">
         <is>
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES</t>
         </is>
       </c>
-      <c r="AA29" t="inlineStr">
+      <c r="AA29" s="4" t="inlineStr">
         <is>
           <t>for final inspection and punchlisting on June 7, 2025</t>
         </is>
       </c>
-      <c r="AL29" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AP29" t="inlineStr">
-        <is>
-          <t>Division Office</t>
-        </is>
-      </c>
-      <c r="AS29" t="n">
-        <v>10</v>
-      </c>
-      <c r="AT29" t="inlineStr">
-        <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
+      <c r="AB29" s="4" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="4" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" s="4" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" s="4" t="n">
         <v>116839</v>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E30" s="4" t="inlineStr">
         <is>
           <t>Tigbauan CES</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F30" s="4" t="inlineStr">
         <is>
           <t>TIGBAUAN</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G30" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
+      <c r="H30" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="J30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" t="inlineStr">
+      <c r="J30" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" s="4" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L30" t="n">
+      <c r="L30" s="4" t="n">
         <v>13363220.1</v>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="n">
+      <c r="M30" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" s="4" t="n">
         <v>13324432.63</v>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="O30" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P30" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q30" t="inlineStr">
+      <c r="P30" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="4" t="inlineStr">
         <is>
           <t>3/13/2025</t>
         </is>
       </c>
-      <c r="R30" s="3" t="n">
+      <c r="R30" s="5" t="n">
         <v>45638</v>
       </c>
-      <c r="S30" t="inlineStr">
+      <c r="S30" s="4" t="inlineStr">
         <is>
           <t>BEFF2024-RVI-ILOILO-022-GAB-L1</t>
         </is>
       </c>
-      <c r="T30" t="inlineStr">
+      <c r="T30" s="4" t="inlineStr">
         <is>
           <t>BEFF2024-RVI-ILOILO-022-GAB-L1</t>
         </is>
       </c>
-      <c r="U30" s="3" t="n">
+      <c r="U30" s="5" t="n">
         <v>45446</v>
       </c>
-      <c r="V30" t="inlineStr">
+      <c r="V30" s="4" t="inlineStr">
         <is>
           <t>3/21/2024</t>
         </is>
       </c>
-      <c r="W30" s="3" t="n">
+      <c r="W30" s="5" t="n">
         <v>45326</v>
       </c>
-      <c r="X30" t="inlineStr">
+      <c r="X30" s="4" t="inlineStr">
         <is>
           <t>5/17/2024</t>
         </is>
       </c>
-      <c r="Y30" t="inlineStr">
+      <c r="Y30" s="4" t="inlineStr">
         <is>
           <t>7/15/2024</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
+      <c r="Z30" s="4" t="inlineStr">
         <is>
           <t>EARLY RISER CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AL30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AP30" t="inlineStr">
-        <is>
-          <t>Division Office</t>
-        </is>
-      </c>
-      <c r="AS30" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT30" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
+      <c r="AA30" s="4" t="inlineStr"/>
+      <c r="AB30" s="4" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="4" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" s="4" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" s="4" t="n">
         <v>116394</v>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E31" s="4" t="inlineStr">
         <is>
           <t>Janiuay Pilot ES</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F31" s="4" t="inlineStr">
         <is>
           <t>JANIUAY</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G31" s="4" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
+      <c r="H31" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="J31" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" t="inlineStr">
+      <c r="J31" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" s="4" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L31" t="n">
+      <c r="L31" s="4" t="n">
         <v>8456526.869999999</v>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="n">
+      <c r="M31" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" s="4" t="n">
         <v>8446849.01</v>
       </c>
-      <c r="O31" t="inlineStr">
+      <c r="O31" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P31" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="3" t="n">
+      <c r="P31" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="5" t="n">
         <v>45992</v>
       </c>
-      <c r="R31" s="3" t="n">
+      <c r="R31" s="5" t="n">
         <v>45873</v>
       </c>
-      <c r="S31" t="inlineStr">
+      <c r="S31" s="4" t="inlineStr">
         <is>
           <t>BEFF2024-RVI-ILOILO-022-GAB-L2</t>
         </is>
       </c>
-      <c r="T31" t="inlineStr">
+      <c r="T31" s="4" t="inlineStr">
         <is>
           <t>BEFF2024-RVI-ILOILO-022-GAB-L2</t>
         </is>
       </c>
-      <c r="U31" s="3" t="n">
+      <c r="U31" s="5" t="n">
         <v>45446</v>
       </c>
-      <c r="V31" t="inlineStr">
+      <c r="V31" s="4" t="inlineStr">
         <is>
           <t>3/21/2024</t>
         </is>
       </c>
-      <c r="W31" s="3" t="n">
+      <c r="W31" s="5" t="n">
         <v>45326</v>
       </c>
-      <c r="X31" t="inlineStr">
+      <c r="X31" s="4" t="inlineStr">
         <is>
           <t>5/17/2024</t>
         </is>
       </c>
-      <c r="Y31" t="inlineStr">
+      <c r="Y31" s="4" t="inlineStr">
         <is>
           <t>7/15/2024</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
+      <c r="Z31" s="4" t="inlineStr">
         <is>
           <t>EARLY RISER CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AL31" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="AP31" t="inlineStr">
-        <is>
-          <t>Division Office</t>
-        </is>
-      </c>
-      <c r="AS31" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT31" t="inlineStr">
-        <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
+      <c r="AA31" s="4" t="inlineStr"/>
+      <c r="AB31" s="4" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" s="4" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C32" s="4" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" s="4" t="n">
         <v>116777</v>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E32" s="4" t="inlineStr">
         <is>
           <t>Hugo T. Apelo MES</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F32" s="4" t="inlineStr">
         <is>
           <t>SARA</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G32" s="4" t="inlineStr">
         <is>
           <t>5th</t>
         </is>
       </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
+      <c r="H32" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="J32" t="n">
-        <v>1</v>
-      </c>
-      <c r="K32" t="inlineStr">
+      <c r="J32" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" s="4" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L32" t="n">
+      <c r="L32" s="4" t="n">
         <v>3758099.02</v>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="n">
+      <c r="M32" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" s="4" t="n">
         <v>3750285.99</v>
       </c>
-      <c r="O32" t="inlineStr">
+      <c r="O32" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P32" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="3" t="n">
+      <c r="P32" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="5" t="n">
         <v>45547</v>
       </c>
-      <c r="R32" t="inlineStr">
+      <c r="R32" s="4" t="inlineStr">
         <is>
           <t>10/29/2024</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr">
+      <c r="S32" s="4" t="inlineStr">
         <is>
           <t>BEFF2024-RVI-ILOILO-022-GAB-L3</t>
         </is>
       </c>
-      <c r="T32" t="inlineStr">
+      <c r="T32" s="4" t="inlineStr">
         <is>
           <t>BEFF2024-RVI-ILOILO-022-GAB-L3</t>
         </is>
       </c>
-      <c r="U32" s="3" t="n">
+      <c r="U32" s="5" t="n">
         <v>45446</v>
       </c>
-      <c r="V32" t="inlineStr">
+      <c r="V32" s="4" t="inlineStr">
         <is>
           <t>3/21/2024</t>
         </is>
       </c>
-      <c r="W32" s="3" t="n">
+      <c r="W32" s="5" t="n">
         <v>45326</v>
       </c>
-      <c r="X32" t="inlineStr">
+      <c r="X32" s="4" t="inlineStr">
         <is>
           <t>5/17/2024</t>
         </is>
       </c>
-      <c r="Y32" s="3" t="n">
+      <c r="Y32" s="5" t="n">
         <v>45603</v>
       </c>
-      <c r="Z32" t="inlineStr">
+      <c r="Z32" s="4" t="inlineStr">
         <is>
           <t>ANJUSH BUILDERS</t>
         </is>
       </c>
-      <c r="AL32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>11.24</v>
-      </c>
-      <c r="AP32" t="inlineStr">
-        <is>
-          <t>Division Office</t>
-        </is>
-      </c>
-      <c r="AS32" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT32" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
+      <c r="AA32" s="4" t="inlineStr"/>
+      <c r="AB32" s="4" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="4" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" s="4" t="inlineStr">
         <is>
           <t>Negros Occidental</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" s="4" t="n">
         <v>117429</v>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E33" s="4" t="inlineStr">
         <is>
           <t>Valladolid ES</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F33" s="4" t="inlineStr">
         <is>
           <t>VALLADOLID</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G33" s="4" t="inlineStr">
         <is>
           <t>4th</t>
         </is>
       </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
+      <c r="H33" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="J33" t="n">
-        <v>1</v>
-      </c>
-      <c r="K33" t="inlineStr">
+      <c r="J33" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" s="4" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L33" t="n">
+      <c r="L33" s="4" t="n">
         <v>13287607.81</v>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="n">
+      <c r="M33" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" s="4" t="n">
         <v>8258170.51</v>
       </c>
-      <c r="O33" t="inlineStr">
+      <c r="O33" s="4" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="P33" t="n">
+      <c r="P33" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="S33" t="n">
+      <c r="Q33" s="4" t="inlineStr"/>
+      <c r="R33" s="4" t="inlineStr"/>
+      <c r="S33" s="4" t="n">
         <v>45717</v>
       </c>
-      <c r="U33" t="inlineStr">
+      <c r="T33" s="4" t="inlineStr"/>
+      <c r="U33" s="4" t="inlineStr">
         <is>
           <t>12/27/2024</t>
         </is>
       </c>
-      <c r="V33" s="3" t="n">
+      <c r="V33" s="5" t="n">
         <v>45809</v>
       </c>
-      <c r="W33" t="inlineStr">
+      <c r="W33" s="4" t="inlineStr">
         <is>
           <t>1/20/2025</t>
         </is>
       </c>
-      <c r="X33" t="inlineStr">
+      <c r="X33" s="4" t="inlineStr">
         <is>
           <t>3/19/2025</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr">
+      <c r="Y33" s="4" t="inlineStr"/>
+      <c r="Z33" s="4" t="inlineStr">
         <is>
           <t>CGGFR CONSTRUCTION AND CONSTRUCTION SUPPLY</t>
         </is>
       </c>
-      <c r="AA33" t="inlineStr">
+      <c r="AA33" s="4" t="inlineStr">
         <is>
           <t>Request for the release of  Sub-ARO with RTAs was alredy submitted -still waiting from CO to provide us Sub-ARO.</t>
         </is>
       </c>
-      <c r="AL33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP33" t="inlineStr">
-        <is>
-          <t>Division Office</t>
-        </is>
-      </c>
-      <c r="AR33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT33" t="inlineStr">
-        <is>
-          <t>Under Procurement</t>
-        </is>
-      </c>
+      <c r="AB33" s="4" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" s="4" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C34" s="4" t="inlineStr">
         <is>
           <t>Negros Occidental</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" s="4" t="n">
         <v>117154</v>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E34" s="4" t="inlineStr">
         <is>
           <t>Luis C. Tembrevilla ES</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F34" s="4" t="inlineStr">
         <is>
           <t>HINOBA-AN (ASIA)</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G34" s="4" t="inlineStr">
         <is>
           <t>6th</t>
         </is>
       </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
+      <c r="H34" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="J34" t="n">
-        <v>1</v>
-      </c>
-      <c r="K34" t="inlineStr">
+      <c r="J34" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" s="4" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L34" t="n">
+      <c r="L34" s="4" t="n">
         <v>16334630.93</v>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="n">
+      <c r="M34" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" s="4" t="n">
         <v>10000000</v>
       </c>
-      <c r="O34" t="inlineStr">
+      <c r="O34" s="4" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="P34" t="n">
+      <c r="P34" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="S34" t="n">
+      <c r="Q34" s="4" t="inlineStr"/>
+      <c r="R34" s="4" t="inlineStr"/>
+      <c r="S34" s="4" t="n">
         <v>45689</v>
       </c>
-      <c r="U34" t="inlineStr">
+      <c r="T34" s="4" t="inlineStr"/>
+      <c r="U34" s="4" t="inlineStr">
         <is>
           <t>12/27/2024</t>
         </is>
       </c>
-      <c r="V34" s="3" t="n">
+      <c r="V34" s="5" t="n">
         <v>45839</v>
       </c>
-      <c r="W34" t="inlineStr">
+      <c r="W34" s="4" t="inlineStr">
         <is>
           <t>1/20/2025</t>
         </is>
       </c>
-      <c r="X34" t="inlineStr">
+      <c r="X34" s="4" t="inlineStr">
         <is>
           <t>3/19/2025</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
+      <c r="Y34" s="4" t="inlineStr"/>
+      <c r="Z34" s="4" t="inlineStr">
         <is>
           <t>KEANNE CONSTRUCTION SERVICES</t>
         </is>
       </c>
-      <c r="AA34" t="inlineStr">
+      <c r="AA34" s="4" t="inlineStr">
         <is>
           <t>Request for the release of  Sub-ARO with RTAs was alredy submitted -still waiting from CO to provide us Sub-ARO.</t>
         </is>
       </c>
-      <c r="AL34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP34" t="inlineStr">
-        <is>
-          <t>Division Office</t>
-        </is>
-      </c>
-      <c r="AR34" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT34" t="inlineStr">
-        <is>
-          <t>Under Procurement</t>
-        </is>
-      </c>
+      <c r="AB34" s="4" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AU2:AU34" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AB2:AB34" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Filtered_By_Region/Region VI/Region VI_GABALDON.xlsx
+++ b/Filtered_By_Region/Region VI/Region VI_GABALDON.xlsx
@@ -32,12 +32,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -58,15 +64,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -435,3516 +447,3547 @@
   <dimension ref="A1:AB34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="46" customWidth="1" min="5" max="5"/>
+    <col width="27" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="23" customWidth="1" min="9" max="9"/>
+    <col width="24" customWidth="1" min="10" max="10"/>
+    <col width="58" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="17" customWidth="1" min="14" max="14"/>
+    <col width="19" customWidth="1" min="15" max="15"/>
+    <col width="26" customWidth="1" min="16" max="16"/>
+    <col width="26" customWidth="1" min="17" max="17"/>
+    <col width="27" customWidth="1" min="18" max="18"/>
+    <col width="36" customWidth="1" min="19" max="19"/>
+    <col width="36" customWidth="1" min="20" max="20"/>
+    <col width="31" customWidth="1" min="21" max="21"/>
+    <col width="27" customWidth="1" min="22" max="22"/>
+    <col width="21" customWidth="1" min="23" max="23"/>
+    <col width="33" customWidth="1" min="24" max="24"/>
+    <col width="31" customWidth="1" min="25" max="25"/>
+    <col width="47" customWidth="1" min="26" max="26"/>
+    <col width="133" customWidth="1" min="27" max="27"/>
+    <col width="28" customWidth="1" min="28" max="28"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>REGION</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>TOTAL NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>TOTAL NO. OF BUILDINGS</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>BATCH</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Target Completion Date </t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>Actual Date of Completion</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>Project ID</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>Contract ID</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Invitation to Bid</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t>Pre-Submission Conference</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>Bid Opening</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Resolution to Award</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Notice to Proceed</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" s="3" t="inlineStr">
         <is>
           <t>Name of Contractor</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" s="3" t="inlineStr">
         <is>
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="AB1" s="3" t="inlineStr">
-        <is>
-          <t>Status as of July 4, 2025</t>
+      <c r="AB1" s="4" t="inlineStr">
+        <is>
+          <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Aklan</t>
         </is>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="5" t="n">
         <v>114719</v>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>Ibajay Central School</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>IBAJAY</t>
         </is>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4" t="n">
+      <c r="H2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4" t="inlineStr">
+      <c r="J2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L2" s="4" t="n">
+      <c r="L2" s="5" t="n">
         <v>6238558.58</v>
       </c>
-      <c r="M2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" s="4" t="n">
+      <c r="M2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="5" t="n">
         <v>6218000</v>
       </c>
-      <c r="O2" s="4" t="inlineStr">
+      <c r="O2" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="5" t="n">
+      <c r="P2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="6" t="n">
         <v>44349</v>
       </c>
-      <c r="R2" s="5" t="n">
+      <c r="R2" s="6" t="n">
         <v>44329</v>
       </c>
-      <c r="S2" s="4" t="inlineStr">
+      <c r="S2" s="5" t="inlineStr">
         <is>
           <t>CY 2020 GABALDON - 001</t>
         </is>
       </c>
-      <c r="T2" s="4" t="inlineStr">
+      <c r="T2" s="5" t="inlineStr">
         <is>
           <t>CY 2020 GABALDON - 001</t>
         </is>
       </c>
-      <c r="U2" s="5" t="n">
+      <c r="U2" s="6" t="n">
         <v>44068</v>
       </c>
-      <c r="V2" s="5" t="n">
+      <c r="V2" s="6" t="n">
         <v>44075</v>
       </c>
-      <c r="W2" s="5" t="n">
+      <c r="W2" s="6" t="n">
         <v>44088</v>
       </c>
-      <c r="X2" s="5" t="n">
+      <c r="X2" s="6" t="n">
         <v>44099</v>
       </c>
-      <c r="Y2" s="5" t="n">
+      <c r="Y2" s="6" t="n">
         <v>44162</v>
       </c>
-      <c r="Z2" s="4" t="inlineStr">
+      <c r="Z2" s="5" t="inlineStr">
         <is>
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="AA2" s="4" t="inlineStr"/>
-      <c r="AB2" s="4" t="n"/>
+      <c r="AA2" s="5" t="inlineStr"/>
+      <c r="AB2" s="7" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Bacolod City</t>
         </is>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="5" t="n">
         <v>117449</v>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>Andres Bonifacio I ES</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>BACOLOD CITY (Capital)</t>
         </is>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4" t="n">
+      <c r="H3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="4" t="inlineStr">
+      <c r="J3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L3" s="4" t="n">
+      <c r="L3" s="5" t="n">
         <v>6638076.54</v>
       </c>
-      <c r="M3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="4" t="n">
+      <c r="M3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="5" t="n">
         <v>4653000</v>
       </c>
-      <c r="O3" s="4" t="inlineStr">
+      <c r="O3" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="5" t="n">
+      <c r="P3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="6" t="n">
         <v>44557</v>
       </c>
-      <c r="R3" s="5" t="n">
+      <c r="R3" s="6" t="n">
         <v>44557</v>
       </c>
-      <c r="S3" s="4" t="inlineStr">
+      <c r="S3" s="5" t="inlineStr">
         <is>
           <t>r6bcd04142021-P25</t>
         </is>
       </c>
-      <c r="T3" s="4" t="inlineStr">
+      <c r="T3" s="5" t="inlineStr">
         <is>
           <t>r6bcd04142021-P25</t>
         </is>
       </c>
-      <c r="U3" s="5" t="n">
+      <c r="U3" s="6" t="n">
         <v>44302</v>
       </c>
-      <c r="V3" s="5" t="n">
+      <c r="V3" s="6" t="n">
         <v>44312</v>
       </c>
-      <c r="W3" s="5" t="n">
+      <c r="W3" s="6" t="n">
         <v>44326</v>
       </c>
-      <c r="X3" s="5" t="n">
+      <c r="X3" s="6" t="n">
         <v>44337</v>
       </c>
-      <c r="Y3" s="5" t="n">
+      <c r="Y3" s="6" t="n">
         <v>44407</v>
       </c>
-      <c r="Z3" s="4" t="inlineStr">
+      <c r="Z3" s="5" t="inlineStr">
         <is>
           <t>RISM BUILDERS &amp; CONST. SERVICES INC.</t>
         </is>
       </c>
-      <c r="AA3" s="4" t="inlineStr"/>
-      <c r="AB3" s="4" t="n"/>
+      <c r="AA3" s="5" t="inlineStr"/>
+      <c r="AB3" s="7" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="5" t="n">
         <v>116375</v>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="5" t="inlineStr">
         <is>
           <t>Igbaras CES</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>IGBARAS</t>
         </is>
       </c>
-      <c r="G4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4" t="n">
+      <c r="G4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4" t="inlineStr">
+      <c r="J4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L4" s="4" t="n">
+      <c r="L4" s="5" t="n">
         <v>7538808.48</v>
       </c>
-      <c r="M4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" s="4" t="n">
+      <c r="M4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="5" t="n">
         <v>5490282.08</v>
       </c>
-      <c r="O4" s="4" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="5" t="n">
+      <c r="P4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="6" t="n">
         <v>44834</v>
       </c>
-      <c r="R4" s="5" t="n">
+      <c r="R4" s="6" t="n">
         <v>44840</v>
       </c>
-      <c r="S4" s="4" t="inlineStr">
+      <c r="S4" s="5" t="inlineStr">
         <is>
           <t>Gab2020-RVI-022-ILOILO-B1-L1</t>
         </is>
       </c>
-      <c r="T4" s="4" t="inlineStr">
+      <c r="T4" s="5" t="inlineStr">
         <is>
           <t>Gab2020-RVI-022-ILOILO-B1-L1</t>
         </is>
       </c>
-      <c r="U4" s="5" t="n">
+      <c r="U4" s="6" t="n">
         <v>43882</v>
       </c>
-      <c r="V4" s="5" t="n">
+      <c r="V4" s="6" t="n">
         <v>43888</v>
       </c>
-      <c r="W4" s="5" t="n">
+      <c r="W4" s="6" t="n">
         <v>43900</v>
       </c>
-      <c r="X4" s="5" t="n">
+      <c r="X4" s="6" t="n">
         <v>44152</v>
       </c>
-      <c r="Y4" s="5" t="n">
+      <c r="Y4" s="6" t="n">
         <v>44172</v>
       </c>
-      <c r="Z4" s="4" t="inlineStr">
+      <c r="Z4" s="5" t="inlineStr">
         <is>
           <t>Four SG Enterprises</t>
         </is>
       </c>
-      <c r="AA4" s="4" t="inlineStr">
+      <c r="AA4" s="5" t="inlineStr">
         <is>
           <t>On-going Rectification of Punchlisted Items</t>
         </is>
       </c>
-      <c r="AB4" s="4" t="n"/>
+      <c r="AB4" s="7" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="5" t="n">
         <v>116616</v>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="5" t="inlineStr">
         <is>
           <t>New Lucena CES</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>NEW LUCENA</t>
         </is>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4" t="n">
+      <c r="H5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="4" t="inlineStr">
+      <c r="J5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L5" s="4" t="n">
+      <c r="L5" s="5" t="n">
         <v>5645882.941165853</v>
       </c>
-      <c r="M5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="4" t="n">
+      <c r="M5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="5" t="n">
         <v>3604983.51</v>
       </c>
-      <c r="O5" s="4" t="inlineStr">
+      <c r="O5" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="5" t="n">
+      <c r="P5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="6" t="n">
         <v>44329</v>
       </c>
-      <c r="R5" s="5" t="n">
+      <c r="R5" s="6" t="n">
         <v>44550</v>
       </c>
-      <c r="S5" s="4" t="inlineStr">
+      <c r="S5" s="5" t="inlineStr">
         <is>
           <t>Gab2020-RVI-022-ILOILO-B1-L2</t>
         </is>
       </c>
-      <c r="T5" s="4" t="inlineStr">
+      <c r="T5" s="5" t="inlineStr">
         <is>
           <t>Gab2020-RVI-022-ILOILO-B1-L2</t>
         </is>
       </c>
-      <c r="U5" s="5" t="n">
+      <c r="U5" s="6" t="n">
         <v>43882</v>
       </c>
-      <c r="V5" s="5" t="n">
+      <c r="V5" s="6" t="n">
         <v>43888</v>
       </c>
-      <c r="W5" s="5" t="n">
+      <c r="W5" s="6" t="n">
         <v>43900</v>
       </c>
-      <c r="X5" s="5" t="n">
+      <c r="X5" s="6" t="n">
         <v>44152</v>
       </c>
-      <c r="Y5" s="5" t="n">
+      <c r="Y5" s="6" t="n">
         <v>44172</v>
       </c>
-      <c r="Z5" s="4" t="inlineStr">
+      <c r="Z5" s="5" t="inlineStr">
         <is>
           <t>Four SG Enterprises</t>
         </is>
       </c>
-      <c r="AA5" s="4" t="inlineStr"/>
-      <c r="AB5" s="4" t="n"/>
+      <c r="AA5" s="5" t="inlineStr"/>
+      <c r="AB5" s="7" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="5" t="n">
         <v>116119</v>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="5" t="inlineStr">
         <is>
           <t>Cabatuan CES</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>CABATUAN</t>
         </is>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4" t="n">
+      <c r="H6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="J6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L6" s="4" t="n">
+      <c r="L6" s="5" t="n">
         <v>6311025.38</v>
       </c>
-      <c r="M6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" s="4" t="n">
+      <c r="M6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="5" t="n">
         <v>4526000</v>
       </c>
-      <c r="O6" s="4" t="inlineStr">
+      <c r="O6" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="5" t="n">
+      <c r="P6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="6" t="n">
         <v>44331</v>
       </c>
-      <c r="R6" s="5" t="n">
+      <c r="R6" s="6" t="n">
         <v>44459</v>
       </c>
-      <c r="S6" s="4" t="inlineStr">
+      <c r="S6" s="5" t="inlineStr">
         <is>
           <t>Gab2020-RVI-022-ILOILO-B1-L3</t>
         </is>
       </c>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="T6" s="5" t="inlineStr">
         <is>
           <t>Gab2020-RVI-022-ILOILO-B1-L</t>
         </is>
       </c>
-      <c r="U6" s="5" t="n">
+      <c r="U6" s="6" t="n">
         <v>43882</v>
       </c>
-      <c r="V6" s="5" t="n">
+      <c r="V6" s="6" t="n">
         <v>43888</v>
       </c>
-      <c r="W6" s="5" t="n">
+      <c r="W6" s="6" t="n">
         <v>43900</v>
       </c>
-      <c r="X6" s="5" t="n">
+      <c r="X6" s="6" t="n">
         <v>44152</v>
       </c>
-      <c r="Y6" s="5" t="n">
+      <c r="Y6" s="6" t="n">
         <v>44174</v>
       </c>
-      <c r="Z6" s="4" t="inlineStr">
+      <c r="Z6" s="5" t="inlineStr">
         <is>
           <t>RISM BUILDERS &amp; CONST. SERVICES INC.</t>
         </is>
       </c>
-      <c r="AA6" s="4" t="inlineStr"/>
-      <c r="AB6" s="4" t="n"/>
+      <c r="AA6" s="5" t="inlineStr"/>
+      <c r="AB6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="5" t="n">
         <v>116043</v>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Barotac Nuevo CES</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>BAROTAC NUEVO</t>
         </is>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G7" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4" t="n">
+      <c r="H7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="J7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
+      <c r="J7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L7" s="4" t="n">
+      <c r="L7" s="5" t="n">
         <v>19897556.76641838</v>
       </c>
-      <c r="M7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="4" t="n">
+      <c r="M7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="5" t="n">
         <v>12905885.78</v>
       </c>
-      <c r="O7" s="4" t="inlineStr">
+      <c r="O7" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
+      <c r="P7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="5" t="inlineStr">
         <is>
           <t>Ocober 30, 2022</t>
         </is>
       </c>
-      <c r="R7" s="5" t="n">
+      <c r="R7" s="6" t="n">
         <v>44831</v>
       </c>
-      <c r="S7" s="4" t="inlineStr">
+      <c r="S7" s="5" t="inlineStr">
         <is>
           <t>Gab2020-RVI-022-ILOILO-B1-L4</t>
         </is>
       </c>
-      <c r="T7" s="4" t="inlineStr">
+      <c r="T7" s="5" t="inlineStr">
         <is>
           <t>Gab2020-RVI-022-ILOILO-B1-L4</t>
         </is>
       </c>
-      <c r="U7" s="5" t="n">
+      <c r="U7" s="6" t="n">
         <v>43882</v>
       </c>
-      <c r="V7" s="5" t="n">
+      <c r="V7" s="6" t="n">
         <v>43888</v>
       </c>
-      <c r="W7" s="5" t="n">
+      <c r="W7" s="6" t="n">
         <v>43900</v>
       </c>
-      <c r="X7" s="5" t="n">
+      <c r="X7" s="6" t="n">
         <v>44152</v>
       </c>
-      <c r="Y7" s="5" t="n">
+      <c r="Y7" s="6" t="n">
         <v>44172</v>
       </c>
-      <c r="Z7" s="4" t="inlineStr">
+      <c r="Z7" s="5" t="inlineStr">
         <is>
           <t>Four SG Enterprises</t>
         </is>
       </c>
-      <c r="AA7" s="4" t="inlineStr">
+      <c r="AA7" s="5" t="inlineStr">
         <is>
           <t>On-going but with slow workmanship</t>
         </is>
       </c>
-      <c r="AB7" s="4" t="n"/>
+      <c r="AB7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="5" t="n">
         <v>116349</v>
       </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="E8" s="5" t="inlineStr">
         <is>
           <t>Estancia Central Elementary School</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>ESTANCIA</t>
         </is>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4" t="n">
+      <c r="H8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="J8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="4" t="inlineStr">
+      <c r="J8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L8" s="4" t="n">
+      <c r="L8" s="5" t="n">
         <v>5863706.88</v>
       </c>
-      <c r="M8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" s="4" t="n">
+      <c r="M8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="5" t="n">
         <v>4204000</v>
       </c>
-      <c r="O8" s="4" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="5" t="n">
+      <c r="P8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="6" t="n">
         <v>44522</v>
       </c>
-      <c r="R8" s="5" t="n">
+      <c r="R8" s="6" t="n">
         <v>44481</v>
       </c>
-      <c r="S8" s="4" t="inlineStr">
+      <c r="S8" s="5" t="inlineStr">
         <is>
           <t>Gab2020-RVI-022-ILOILO-B1-L4</t>
         </is>
       </c>
-      <c r="T8" s="4" t="inlineStr">
+      <c r="T8" s="5" t="inlineStr">
         <is>
           <t>Gab2020-RVI-022-ILOILO-B1-L4</t>
         </is>
       </c>
-      <c r="U8" s="5" t="n">
+      <c r="U8" s="6" t="n">
         <v>43882</v>
       </c>
-      <c r="V8" s="5" t="n">
+      <c r="V8" s="6" t="n">
         <v>43888</v>
       </c>
-      <c r="W8" s="5" t="n">
+      <c r="W8" s="6" t="n">
         <v>43900</v>
       </c>
-      <c r="X8" s="5" t="n">
+      <c r="X8" s="6" t="n">
         <v>44105</v>
       </c>
-      <c r="Y8" s="5" t="n">
+      <c r="Y8" s="6" t="n">
         <v>44369</v>
       </c>
-      <c r="Z8" s="4" t="inlineStr">
+      <c r="Z8" s="5" t="inlineStr">
         <is>
           <t>RISM Builders and Merchandising</t>
         </is>
       </c>
-      <c r="AA8" s="4" t="inlineStr"/>
-      <c r="AB8" s="4" t="n"/>
+      <c r="AA8" s="5" t="inlineStr"/>
+      <c r="AB8" s="7" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Iloilo City</t>
         </is>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="5" t="n">
         <v>117626</v>
       </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="E9" s="5" t="inlineStr">
         <is>
           <t>A. Montes ES I</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>ILOILO CITY (Capital)</t>
         </is>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4" t="n">
+      <c r="H9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="J9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="4" t="inlineStr">
+      <c r="J9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L9" s="4" t="n">
+      <c r="L9" s="5" t="n">
         <v>16198458.88</v>
       </c>
-      <c r="M9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" s="4" t="inlineStr"/>
-      <c r="O9" s="4" t="inlineStr">
+      <c r="M9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="5" t="inlineStr"/>
+      <c r="O9" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="4" t="inlineStr"/>
-      <c r="R9" s="4" t="inlineStr"/>
-      <c r="S9" s="4" t="inlineStr"/>
-      <c r="T9" s="4" t="inlineStr"/>
-      <c r="U9" s="4" t="inlineStr"/>
-      <c r="V9" s="4" t="inlineStr"/>
-      <c r="W9" s="4" t="inlineStr"/>
-      <c r="X9" s="4" t="inlineStr"/>
-      <c r="Y9" s="4" t="inlineStr"/>
-      <c r="Z9" s="4" t="inlineStr"/>
-      <c r="AA9" s="4" t="inlineStr">
+      <c r="P9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="5" t="inlineStr"/>
+      <c r="R9" s="5" t="inlineStr"/>
+      <c r="S9" s="5" t="inlineStr"/>
+      <c r="T9" s="5" t="inlineStr"/>
+      <c r="U9" s="5" t="inlineStr"/>
+      <c r="V9" s="5" t="inlineStr"/>
+      <c r="W9" s="5" t="inlineStr"/>
+      <c r="X9" s="5" t="inlineStr"/>
+      <c r="Y9" s="5" t="inlineStr"/>
+      <c r="Z9" s="5" t="inlineStr"/>
+      <c r="AA9" s="5" t="inlineStr">
         <is>
           <t>REQUEST FOR REALIGNMENT (Realignment of A. MONTES ES1 TO AREVALO ES 100%, RIZAL ES 100%, and ESTEBAN JUNTADOR SR. MEMORIAL ES 100%)</t>
         </is>
       </c>
-      <c r="AB9" s="4" t="n"/>
+      <c r="AB9" s="7" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Iloilo City</t>
         </is>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="5" t="n">
         <v>117629</v>
       </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="E10" s="5" t="inlineStr">
         <is>
           <t>Jalandoni MS</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>ILOILO CITY (Capital)</t>
         </is>
       </c>
-      <c r="G10" s="4" t="n">
+      <c r="G10" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4" t="n">
+      <c r="H10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="J10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="4" t="inlineStr">
+      <c r="J10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L10" s="4" t="n">
+      <c r="L10" s="5" t="n">
         <v>18915275.98</v>
       </c>
-      <c r="M10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" s="4" t="n">
+      <c r="M10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="5" t="n">
         <v>13229998.95</v>
       </c>
-      <c r="O10" s="4" t="inlineStr">
+      <c r="O10" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="5" t="n">
+      <c r="P10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="6" t="n">
         <v>44396</v>
       </c>
-      <c r="R10" s="4" t="inlineStr">
+      <c r="R10" s="5" t="inlineStr">
         <is>
           <t>06:43:12</t>
         </is>
       </c>
-      <c r="S10" s="4" t="inlineStr">
+      <c r="S10" s="5" t="inlineStr">
         <is>
           <t>20-12-006</t>
         </is>
       </c>
-      <c r="T10" s="4" t="inlineStr">
+      <c r="T10" s="5" t="inlineStr">
         <is>
           <t>20-12-006</t>
         </is>
       </c>
-      <c r="U10" s="5" t="n">
+      <c r="U10" s="6" t="n">
         <v>44141</v>
       </c>
-      <c r="V10" s="5" t="n">
+      <c r="V10" s="6" t="n">
         <v>44148</v>
       </c>
-      <c r="W10" s="5" t="n">
+      <c r="W10" s="6" t="n">
         <v>44162</v>
       </c>
-      <c r="X10" s="5" t="n">
+      <c r="X10" s="6" t="n">
         <v>44169</v>
       </c>
-      <c r="Y10" s="5" t="n">
+      <c r="Y10" s="6" t="n">
         <v>44209</v>
       </c>
-      <c r="Z10" s="4" t="inlineStr">
+      <c r="Z10" s="5" t="inlineStr">
         <is>
           <t>4SG Enterprises</t>
         </is>
       </c>
-      <c r="AA10" s="4" t="inlineStr">
+      <c r="AA10" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="AB10" s="4" t="n"/>
+      <c r="AB10" s="7" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Kabankalan City</t>
         </is>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="5" t="n">
         <v>117858</v>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="E11" s="5" t="inlineStr">
         <is>
           <t>Esteban R. Abada Memorial School(East)</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>Kabankalan City</t>
         </is>
       </c>
-      <c r="G11" s="4" t="n">
+      <c r="G11" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="H11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4" t="n">
+      <c r="H11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="4" t="inlineStr">
+      <c r="J11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L11" s="4" t="n">
+      <c r="L11" s="5" t="n">
         <v>12934200.86</v>
       </c>
-      <c r="M11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" s="4" t="inlineStr"/>
-      <c r="O11" s="4" t="inlineStr">
+      <c r="M11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="5" t="inlineStr"/>
+      <c r="O11" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="4" t="inlineStr"/>
-      <c r="R11" s="4" t="inlineStr"/>
-      <c r="S11" s="4" t="inlineStr"/>
-      <c r="T11" s="4" t="inlineStr"/>
-      <c r="U11" s="4" t="inlineStr"/>
-      <c r="V11" s="4" t="inlineStr"/>
-      <c r="W11" s="4" t="inlineStr"/>
-      <c r="X11" s="4" t="inlineStr"/>
-      <c r="Y11" s="4" t="inlineStr"/>
-      <c r="Z11" s="4" t="inlineStr"/>
-      <c r="AA11" s="4" t="inlineStr"/>
-      <c r="AB11" s="4" t="n"/>
+      <c r="P11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="5" t="inlineStr"/>
+      <c r="R11" s="5" t="inlineStr"/>
+      <c r="S11" s="5" t="inlineStr"/>
+      <c r="T11" s="5" t="inlineStr"/>
+      <c r="U11" s="5" t="inlineStr"/>
+      <c r="V11" s="5" t="inlineStr"/>
+      <c r="W11" s="5" t="inlineStr"/>
+      <c r="X11" s="5" t="inlineStr"/>
+      <c r="Y11" s="5" t="inlineStr"/>
+      <c r="Z11" s="5" t="inlineStr"/>
+      <c r="AA11" s="5" t="inlineStr"/>
+      <c r="AB11" s="7" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>La Carlota City</t>
         </is>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="5" t="n">
         <v>302751</v>
       </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="E12" s="5" t="inlineStr">
         <is>
           <t>Doña Hortencia Salas Benedicto NHS</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>LA CARLOTA CITY</t>
         </is>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="G12" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4" t="n">
+      <c r="H12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="4" t="inlineStr">
+      <c r="J12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L12" s="4" t="n">
+      <c r="L12" s="5" t="n">
         <v>6732754.41</v>
       </c>
-      <c r="M12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" s="4" t="n">
+      <c r="M12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="5" t="n">
         <v>3835451.66</v>
       </c>
-      <c r="O12" s="4" t="inlineStr">
+      <c r="O12" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="4" t="inlineStr">
+      <c r="P12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="5" t="inlineStr">
         <is>
           <t>October 18, 2021</t>
         </is>
       </c>
-      <c r="R12" s="4" t="inlineStr"/>
-      <c r="S12" s="4" t="inlineStr"/>
-      <c r="T12" s="4" t="inlineStr"/>
-      <c r="U12" s="4" t="inlineStr"/>
-      <c r="V12" s="4" t="inlineStr"/>
-      <c r="W12" s="4" t="inlineStr"/>
-      <c r="X12" s="4" t="inlineStr"/>
-      <c r="Y12" s="4" t="inlineStr"/>
-      <c r="Z12" s="4" t="inlineStr">
+      <c r="R12" s="5" t="inlineStr"/>
+      <c r="S12" s="5" t="inlineStr"/>
+      <c r="T12" s="5" t="inlineStr"/>
+      <c r="U12" s="5" t="inlineStr"/>
+      <c r="V12" s="5" t="inlineStr"/>
+      <c r="W12" s="5" t="inlineStr"/>
+      <c r="X12" s="5" t="inlineStr"/>
+      <c r="Y12" s="5" t="inlineStr"/>
+      <c r="Z12" s="5" t="inlineStr">
         <is>
           <t>FOUR SG ENTERPRISES</t>
         </is>
       </c>
-      <c r="AA12" s="4" t="inlineStr">
+      <c r="AA12" s="5" t="inlineStr">
         <is>
           <t>Bidding Cancelled due to ECQ</t>
         </is>
       </c>
-      <c r="AB12" s="4" t="n"/>
+      <c r="AB12" s="7" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>Negros Occidental</t>
         </is>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="5" t="n">
         <v>117385</v>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="E13" s="5" t="inlineStr">
         <is>
           <t>Talisay ES</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>CITY OF TALISAY</t>
         </is>
       </c>
-      <c r="G13" s="4" t="n">
+      <c r="G13" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="4" t="n">
+      <c r="H13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="4" t="inlineStr">
+      <c r="J13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L13" s="4" t="n">
+      <c r="L13" s="5" t="n">
         <v>3492344.95</v>
       </c>
-      <c r="M13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" s="4" t="n">
+      <c r="M13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" s="5" t="n">
         <v>3477970.42</v>
       </c>
-      <c r="O13" s="4" t="inlineStr">
+      <c r="O13" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="5" t="n">
+      <c r="P13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="6" t="n">
         <v>44502</v>
       </c>
-      <c r="R13" s="4" t="inlineStr">
+      <c r="R13" s="5" t="inlineStr">
         <is>
           <t>Nov. 22, 2021</t>
         </is>
       </c>
-      <c r="S13" s="4" t="inlineStr"/>
-      <c r="T13" s="4" t="inlineStr"/>
-      <c r="U13" s="5" t="n">
+      <c r="S13" s="5" t="inlineStr"/>
+      <c r="T13" s="5" t="inlineStr"/>
+      <c r="U13" s="6" t="n">
         <v>43942</v>
       </c>
-      <c r="V13" s="5" t="n">
+      <c r="V13" s="6" t="n">
         <v>43955</v>
       </c>
-      <c r="W13" s="5" t="n">
+      <c r="W13" s="6" t="n">
         <v>43969</v>
       </c>
-      <c r="X13" s="4" t="inlineStr">
+      <c r="X13" s="5" t="inlineStr">
         <is>
           <t>26D S.2020</t>
         </is>
       </c>
-      <c r="Y13" s="4" t="inlineStr"/>
-      <c r="Z13" s="4" t="inlineStr">
+      <c r="Y13" s="5" t="inlineStr"/>
+      <c r="Z13" s="5" t="inlineStr">
         <is>
           <t>FOUR SG ENTERPRISES</t>
         </is>
       </c>
-      <c r="AA13" s="4" t="inlineStr"/>
-      <c r="AB13" s="4" t="n"/>
+      <c r="AA13" s="5" t="inlineStr"/>
+      <c r="AB13" s="7" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="inlineStr">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>Negros Occidental</t>
         </is>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14" s="5" t="n">
         <v>117385</v>
       </c>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="E14" s="5" t="inlineStr">
         <is>
           <t>Talisay ES</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>CITY OF TALISAY</t>
         </is>
       </c>
-      <c r="G14" s="4" t="n">
+      <c r="G14" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H14" s="4" t="inlineStr"/>
-      <c r="I14" s="4" t="n">
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="4" t="inlineStr">
+      <c r="J14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L14" s="4" t="n">
+      <c r="L14" s="5" t="n">
         <v>2816674.04</v>
       </c>
-      <c r="M14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" s="4" t="n">
+      <c r="M14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" s="5" t="n">
         <v>2789325.92</v>
       </c>
-      <c r="O14" s="4" t="inlineStr">
+      <c r="O14" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="5" t="n">
+      <c r="P14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="6" t="n">
         <v>44502</v>
       </c>
-      <c r="R14" s="4" t="inlineStr">
+      <c r="R14" s="5" t="inlineStr">
         <is>
           <t>Nov. 22, 2021</t>
         </is>
       </c>
-      <c r="S14" s="4" t="inlineStr"/>
-      <c r="T14" s="4" t="inlineStr"/>
-      <c r="U14" s="5" t="n">
+      <c r="S14" s="5" t="inlineStr"/>
+      <c r="T14" s="5" t="inlineStr"/>
+      <c r="U14" s="6" t="n">
         <v>43942</v>
       </c>
-      <c r="V14" s="5" t="n">
+      <c r="V14" s="6" t="n">
         <v>43955</v>
       </c>
-      <c r="W14" s="5" t="n">
+      <c r="W14" s="6" t="n">
         <v>43969</v>
       </c>
-      <c r="X14" s="4" t="inlineStr">
+      <c r="X14" s="5" t="inlineStr">
         <is>
           <t>26C S.2020</t>
         </is>
       </c>
-      <c r="Y14" s="4" t="inlineStr"/>
-      <c r="Z14" s="4" t="inlineStr">
+      <c r="Y14" s="5" t="inlineStr"/>
+      <c r="Z14" s="5" t="inlineStr">
         <is>
           <t>FOUR SG ENTERPRISES</t>
         </is>
       </c>
-      <c r="AA14" s="4" t="inlineStr"/>
-      <c r="AB14" s="4" t="n"/>
+      <c r="AA14" s="5" t="inlineStr"/>
+      <c r="AB14" s="7" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>Negros Occidental</t>
         </is>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="5" t="n">
         <v>117268</v>
       </c>
-      <c r="E15" s="4" t="inlineStr">
+      <c r="E15" s="5" t="inlineStr">
         <is>
           <t>Moises Padilla ES</t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>MOISES PADILLA (MAGALLON)</t>
         </is>
       </c>
-      <c r="G15" s="4" t="n">
+      <c r="G15" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4" t="n">
+      <c r="H15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="J15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="4" t="inlineStr">
+      <c r="J15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L15" s="4" t="n">
+      <c r="L15" s="5" t="n">
         <v>14261569.8</v>
       </c>
-      <c r="M15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" s="4" t="n">
+      <c r="M15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" s="5" t="n">
         <v>14241535.89</v>
       </c>
-      <c r="O15" s="4" t="inlineStr">
+      <c r="O15" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="5" t="n">
+      <c r="P15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="6" t="n">
         <v>44291</v>
       </c>
-      <c r="R15" s="5" t="n">
+      <c r="R15" s="6" t="n">
         <v>44285</v>
       </c>
-      <c r="S15" s="4" t="n">
+      <c r="S15" s="5" t="n">
         <v>6974325</v>
       </c>
-      <c r="T15" s="4" t="inlineStr">
+      <c r="T15" s="5" t="inlineStr">
         <is>
           <t>20-11-002</t>
         </is>
       </c>
-      <c r="U15" s="5" t="n">
+      <c r="U15" s="6" t="n">
         <v>43945</v>
       </c>
-      <c r="V15" s="5" t="n">
+      <c r="V15" s="6" t="n">
         <v>43955</v>
       </c>
-      <c r="W15" s="5" t="n">
+      <c r="W15" s="6" t="n">
         <v>43969</v>
       </c>
-      <c r="X15" s="5" t="n">
+      <c r="X15" s="6" t="n">
         <v>44153</v>
       </c>
-      <c r="Y15" s="5" t="n">
+      <c r="Y15" s="6" t="n">
         <v>44158</v>
       </c>
-      <c r="Z15" s="4" t="inlineStr">
+      <c r="Z15" s="5" t="inlineStr">
         <is>
           <t>FOUR SG ENTERPRISES</t>
         </is>
       </c>
-      <c r="AA15" s="4" t="inlineStr"/>
-      <c r="AB15" s="4" t="n"/>
+      <c r="AA15" s="5" t="inlineStr"/>
+      <c r="AB15" s="7" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="inlineStr">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>Negros Occidental</t>
         </is>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16" s="5" t="n">
         <v>116963</v>
       </c>
-      <c r="E16" s="4" t="inlineStr">
+      <c r="E16" s="5" t="inlineStr">
         <is>
           <t>Cauayan CES</t>
         </is>
       </c>
-      <c r="F16" s="4" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>CAUAYAN</t>
         </is>
       </c>
-      <c r="G16" s="4" t="n">
+      <c r="G16" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="H16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="4" t="inlineStr">
+      <c r="H16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L16" s="4" t="n">
+      <c r="L16" s="5" t="n">
         <v>5284051.93</v>
       </c>
-      <c r="M16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" s="4" t="n">
+      <c r="M16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" s="5" t="n">
         <v>5262334.53</v>
       </c>
-      <c r="O16" s="4" t="inlineStr">
+      <c r="O16" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="5" t="n">
+      <c r="P16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="6" t="n">
         <v>44291</v>
       </c>
-      <c r="R16" s="5" t="n">
+      <c r="R16" s="6" t="n">
         <v>44255</v>
       </c>
-      <c r="S16" s="4" t="n">
+      <c r="S16" s="5" t="n">
         <v>6974361</v>
       </c>
-      <c r="T16" s="4" t="inlineStr">
+      <c r="T16" s="5" t="inlineStr">
         <is>
           <t>20-11-001</t>
         </is>
       </c>
-      <c r="U16" s="5" t="n">
+      <c r="U16" s="6" t="n">
         <v>43945</v>
       </c>
-      <c r="V16" s="5" t="n">
+      <c r="V16" s="6" t="n">
         <v>43955</v>
       </c>
-      <c r="W16" s="5" t="n">
+      <c r="W16" s="6" t="n">
         <v>43969</v>
       </c>
-      <c r="X16" s="5" t="n">
+      <c r="X16" s="6" t="n">
         <v>44153</v>
       </c>
-      <c r="Y16" s="5" t="n">
+      <c r="Y16" s="6" t="n">
         <v>44158</v>
       </c>
-      <c r="Z16" s="4" t="inlineStr">
+      <c r="Z16" s="5" t="inlineStr">
         <is>
           <t>FOUR SG ENTERPRISES</t>
         </is>
       </c>
-      <c r="AA16" s="4" t="inlineStr"/>
-      <c r="AB16" s="4" t="n"/>
+      <c r="AA16" s="5" t="inlineStr"/>
+      <c r="AB16" s="7" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="inlineStr">
+      <c r="A17" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>Negros Occidental</t>
         </is>
       </c>
-      <c r="D17" s="4" t="n">
+      <c r="D17" s="5" t="n">
         <v>117162</v>
       </c>
-      <c r="E17" s="4" t="inlineStr">
+      <c r="E17" s="5" t="inlineStr">
         <is>
           <t>Bocana ES</t>
         </is>
       </c>
-      <c r="F17" s="4" t="inlineStr">
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t>ILOG</t>
         </is>
       </c>
-      <c r="G17" s="4" t="n">
+      <c r="G17" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="H17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="4" t="n">
+      <c r="H17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" s="4" t="inlineStr">
+      <c r="J17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L17" s="4" t="n">
+      <c r="L17" s="5" t="n">
         <v>1915596.29</v>
       </c>
-      <c r="M17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" s="4" t="n">
+      <c r="M17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" s="5" t="n">
         <v>1898971.66</v>
       </c>
-      <c r="O17" s="4" t="inlineStr">
+      <c r="O17" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="5" t="n">
+      <c r="P17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="6" t="n">
         <v>44502</v>
       </c>
-      <c r="R17" s="4" t="inlineStr"/>
-      <c r="S17" s="4" t="inlineStr"/>
-      <c r="T17" s="4" t="inlineStr"/>
-      <c r="U17" s="5" t="n">
+      <c r="R17" s="5" t="inlineStr"/>
+      <c r="S17" s="5" t="inlineStr"/>
+      <c r="T17" s="5" t="inlineStr"/>
+      <c r="U17" s="6" t="n">
         <v>43942</v>
       </c>
-      <c r="V17" s="5" t="n">
+      <c r="V17" s="6" t="n">
         <v>43955</v>
       </c>
-      <c r="W17" s="5" t="n">
+      <c r="W17" s="6" t="n">
         <v>43969</v>
       </c>
-      <c r="X17" s="4" t="inlineStr">
+      <c r="X17" s="5" t="inlineStr">
         <is>
           <t>26A S.2020</t>
         </is>
       </c>
-      <c r="Y17" s="4" t="inlineStr"/>
-      <c r="Z17" s="4" t="inlineStr">
+      <c r="Y17" s="5" t="inlineStr"/>
+      <c r="Z17" s="5" t="inlineStr">
         <is>
           <t>FOUR SG ENTERPRISES</t>
         </is>
       </c>
-      <c r="AA17" s="4" t="inlineStr"/>
-      <c r="AB17" s="4" t="n"/>
+      <c r="AA17" s="5" t="inlineStr"/>
+      <c r="AB17" s="7" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="inlineStr">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>Sagay City</t>
         </is>
       </c>
-      <c r="D18" s="4" t="n">
+      <c r="D18" s="5" t="n">
         <v>117692</v>
       </c>
-      <c r="E18" s="4" t="inlineStr">
+      <c r="E18" s="5" t="inlineStr">
         <is>
           <t>Elia T. Canoy Esperancilla Elementary School</t>
         </is>
       </c>
-      <c r="F18" s="4" t="inlineStr">
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t>SAGAY CITY</t>
         </is>
       </c>
-      <c r="G18" s="4" t="n">
+      <c r="G18" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="4" t="n">
+      <c r="H18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" s="4" t="inlineStr">
+      <c r="J18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L18" s="4" t="n">
+      <c r="L18" s="5" t="n">
         <v>2418204.21</v>
       </c>
-      <c r="M18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" s="4" t="n">
+      <c r="M18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" s="5" t="n">
         <v>1810000</v>
       </c>
-      <c r="O18" s="4" t="inlineStr">
+      <c r="O18" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="4" t="inlineStr">
+      <c r="P18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="5" t="inlineStr">
         <is>
           <t>December 16, 2021</t>
         </is>
       </c>
-      <c r="R18" s="4" t="inlineStr">
+      <c r="R18" s="5" t="inlineStr">
         <is>
           <t>August 21, 2021</t>
         </is>
       </c>
-      <c r="S18" s="4" t="inlineStr">
+      <c r="S18" s="5" t="inlineStr">
         <is>
           <t>02-2020</t>
         </is>
       </c>
-      <c r="T18" s="4" t="inlineStr">
+      <c r="T18" s="5" t="inlineStr">
         <is>
           <t>02-2020</t>
         </is>
       </c>
-      <c r="U18" s="5" t="n">
+      <c r="U18" s="6" t="n">
         <v>43886</v>
       </c>
-      <c r="V18" s="5" t="n">
+      <c r="V18" s="6" t="n">
         <v>43893</v>
       </c>
-      <c r="W18" s="5" t="n">
+      <c r="W18" s="6" t="n">
         <v>43906</v>
       </c>
-      <c r="X18" s="4" t="inlineStr"/>
-      <c r="Y18" s="4" t="inlineStr">
+      <c r="X18" s="5" t="inlineStr"/>
+      <c r="Y18" s="5" t="inlineStr">
         <is>
           <t>June 21, 2021</t>
         </is>
       </c>
-      <c r="Z18" s="4" t="inlineStr">
+      <c r="Z18" s="5" t="inlineStr">
         <is>
           <t>RISM BUILDERS &amp; CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="AA18" s="4" t="inlineStr"/>
-      <c r="AB18" s="4" t="n"/>
+      <c r="AA18" s="5" t="inlineStr"/>
+      <c r="AB18" s="7" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="inlineStr">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>Silay City</t>
         </is>
       </c>
-      <c r="D19" s="4" t="n">
+      <c r="D19" s="5" t="n">
         <v>117804</v>
       </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="E19" s="5" t="inlineStr">
         <is>
           <t>Silay South Elementary School</t>
         </is>
       </c>
-      <c r="F19" s="4" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>SAGAY CITY</t>
         </is>
       </c>
-      <c r="G19" s="4" t="n">
+      <c r="G19" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="4" t="n">
+      <c r="H19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="J19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="4" t="inlineStr">
+      <c r="J19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L19" s="4" t="n">
+      <c r="L19" s="5" t="n">
         <v>24820703.04</v>
       </c>
-      <c r="M19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" s="4" t="n">
+      <c r="M19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" s="5" t="n">
         <v>20338749.46</v>
       </c>
-      <c r="O19" s="4" t="inlineStr">
+      <c r="O19" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="5" t="n">
+      <c r="P19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="6" t="n">
         <v>44834</v>
       </c>
-      <c r="R19" s="4" t="inlineStr"/>
-      <c r="S19" s="4" t="inlineStr"/>
-      <c r="T19" s="4" t="inlineStr">
+      <c r="R19" s="5" t="inlineStr"/>
+      <c r="S19" s="5" t="inlineStr"/>
+      <c r="T19" s="5" t="inlineStr">
         <is>
           <t>R6-D18-GAB-B2-2020</t>
         </is>
       </c>
-      <c r="U19" s="4" t="inlineStr">
+      <c r="U19" s="5" t="inlineStr">
         <is>
           <t>March 27, 2020</t>
         </is>
       </c>
-      <c r="V19" s="4" t="inlineStr">
+      <c r="V19" s="5" t="inlineStr">
         <is>
           <t>May 7, 2020</t>
         </is>
       </c>
-      <c r="W19" s="4" t="inlineStr">
+      <c r="W19" s="5" t="inlineStr">
         <is>
           <t>May 19, 2020</t>
         </is>
       </c>
-      <c r="X19" s="4" t="inlineStr">
+      <c r="X19" s="5" t="inlineStr">
         <is>
           <t>June 18, 2021</t>
         </is>
       </c>
-      <c r="Y19" s="4" t="inlineStr">
+      <c r="Y19" s="5" t="inlineStr">
         <is>
           <t>July 27, 2021</t>
         </is>
       </c>
-      <c r="Z19" s="4" t="inlineStr">
+      <c r="Z19" s="5" t="inlineStr">
         <is>
           <t>FOUR SG ENTERPRISES</t>
         </is>
       </c>
-      <c r="AA19" s="4" t="inlineStr">
+      <c r="AA19" s="5" t="inlineStr">
         <is>
           <t>On-going Rectification of Punchlisted Items</t>
         </is>
       </c>
-      <c r="AB19" s="4" t="n"/>
+      <c r="AB19" s="7" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="inlineStr">
+      <c r="A20" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>Aklan</t>
         </is>
       </c>
-      <c r="D20" s="4" t="n">
+      <c r="D20" s="5" t="n">
         <v>114738</v>
       </c>
-      <c r="E20" s="4" t="inlineStr">
+      <c r="E20" s="5" t="inlineStr">
         <is>
           <t>Naisud CS</t>
         </is>
       </c>
-      <c r="F20" s="4" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t>IBAJAY</t>
         </is>
       </c>
-      <c r="G20" s="4" t="n">
+      <c r="G20" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4" t="n">
+      <c r="H20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" s="4" t="inlineStr">
+      <c r="J20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L20" s="4" t="n">
+      <c r="L20" s="5" t="n">
         <v>6399403</v>
       </c>
-      <c r="M20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" s="4" t="n">
+      <c r="M20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" s="5" t="n">
         <v>6335000</v>
       </c>
-      <c r="O20" s="4" t="inlineStr">
+      <c r="O20" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="5" t="n">
+      <c r="P20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="6" t="n">
         <v>44637</v>
       </c>
-      <c r="R20" s="5" t="n">
+      <c r="R20" s="6" t="n">
         <v>44624</v>
       </c>
-      <c r="S20" s="4" t="inlineStr">
+      <c r="S20" s="5" t="inlineStr">
         <is>
           <t>CY 2021 GABALDON - 001</t>
         </is>
       </c>
-      <c r="T20" s="4" t="inlineStr">
+      <c r="T20" s="5" t="inlineStr">
         <is>
           <t>CY 2021 GABALDON - 001</t>
         </is>
       </c>
-      <c r="U20" s="5" t="n">
+      <c r="U20" s="6" t="n">
         <v>44347</v>
       </c>
-      <c r="V20" s="5" t="n">
+      <c r="V20" s="6" t="n">
         <v>44354</v>
       </c>
-      <c r="W20" s="5" t="n">
+      <c r="W20" s="6" t="n">
         <v>44368</v>
       </c>
-      <c r="X20" s="5" t="n">
+      <c r="X20" s="6" t="n">
         <v>44389</v>
       </c>
-      <c r="Y20" s="5" t="n">
+      <c r="Y20" s="6" t="n">
         <v>44420</v>
       </c>
-      <c r="Z20" s="4" t="inlineStr">
+      <c r="Z20" s="5" t="inlineStr">
         <is>
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="AA20" s="4" t="inlineStr"/>
-      <c r="AB20" s="4" t="n"/>
+      <c r="AA20" s="5" t="inlineStr"/>
+      <c r="AB20" s="7" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="inlineStr">
+      <c r="A21" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D21" s="4" t="n">
+      <c r="D21" s="5" t="n">
         <v>116012</v>
       </c>
-      <c r="E21" s="4" t="inlineStr">
+      <c r="E21" s="5" t="inlineStr">
         <is>
           <t>Balasan CES</t>
         </is>
       </c>
-      <c r="F21" s="4" t="inlineStr">
+      <c r="F21" s="5" t="inlineStr">
         <is>
           <t>BALASAN</t>
         </is>
       </c>
-      <c r="G21" s="4" t="n">
+      <c r="G21" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="4" t="n">
+      <c r="H21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="J21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" s="4" t="inlineStr">
+      <c r="J21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L21" s="4" t="n">
+      <c r="L21" s="5" t="n">
         <v>9800503</v>
       </c>
-      <c r="M21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" s="4" t="n">
+      <c r="M21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" s="5" t="n">
         <v>6455847.57</v>
       </c>
-      <c r="O21" s="4" t="inlineStr">
+      <c r="O21" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="5" t="n">
+      <c r="P21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="6" t="n">
         <v>44522</v>
       </c>
-      <c r="R21" s="5" t="n">
+      <c r="R21" s="6" t="n">
         <v>44508</v>
       </c>
-      <c r="S21" s="4" t="inlineStr">
+      <c r="S21" s="5" t="inlineStr">
         <is>
           <t>R-06-BEFF Gabaldon-2020-B2-L1</t>
         </is>
       </c>
-      <c r="T21" s="4" t="inlineStr">
+      <c r="T21" s="5" t="inlineStr">
         <is>
           <t>R-06-BEFF Gabaldon-2020-B2-L1</t>
         </is>
       </c>
-      <c r="U21" s="5" t="n">
+      <c r="U21" s="6" t="n">
         <v>43882</v>
       </c>
-      <c r="V21" s="4" t="inlineStr"/>
-      <c r="W21" s="5" t="n">
+      <c r="V21" s="5" t="inlineStr"/>
+      <c r="W21" s="6" t="n">
         <v>43900</v>
       </c>
-      <c r="X21" s="5" t="n">
+      <c r="X21" s="6" t="n">
         <v>44105</v>
       </c>
-      <c r="Y21" s="5" t="n">
+      <c r="Y21" s="6" t="n">
         <v>44372</v>
       </c>
-      <c r="Z21" s="4" t="inlineStr">
+      <c r="Z21" s="5" t="inlineStr">
         <is>
           <t>Early Riser Construction</t>
         </is>
       </c>
-      <c r="AA21" s="4" t="inlineStr"/>
-      <c r="AB21" s="4" t="n"/>
+      <c r="AA21" s="5" t="inlineStr"/>
+      <c r="AB21" s="7" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="inlineStr">
+      <c r="A22" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>Negros Occidental</t>
         </is>
       </c>
-      <c r="D22" s="4" t="n">
+      <c r="D22" s="5" t="n">
         <v>117212</v>
       </c>
-      <c r="E22" s="4" t="inlineStr">
+      <c r="E22" s="5" t="inlineStr">
         <is>
           <t>Tinongan ES</t>
         </is>
       </c>
-      <c r="F22" s="4" t="inlineStr">
+      <c r="F22" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">ISABELA </t>
         </is>
       </c>
-      <c r="G22" s="4" t="n">
+      <c r="G22" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="4" t="n">
+      <c r="H22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" s="4" t="inlineStr">
+      <c r="J22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L22" s="4" t="n">
+      <c r="L22" s="5" t="n">
         <v>5776301</v>
       </c>
-      <c r="M22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" s="4" t="n">
+      <c r="M22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" s="5" t="n">
         <v>3692000</v>
       </c>
-      <c r="O22" s="4" t="inlineStr">
+      <c r="O22" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="P22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="5" t="n">
+      <c r="P22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="6" t="n">
         <v>44545</v>
       </c>
-      <c r="R22" s="4" t="inlineStr"/>
-      <c r="S22" s="4" t="inlineStr"/>
-      <c r="T22" s="4" t="inlineStr"/>
-      <c r="U22" s="5" t="n">
+      <c r="R22" s="5" t="inlineStr"/>
+      <c r="S22" s="5" t="inlineStr"/>
+      <c r="T22" s="5" t="inlineStr"/>
+      <c r="U22" s="6" t="n">
         <v>44355</v>
       </c>
-      <c r="V22" s="5" t="n">
+      <c r="V22" s="6" t="n">
         <v>44362</v>
       </c>
-      <c r="W22" s="5" t="n">
+      <c r="W22" s="6" t="n">
         <v>44375</v>
       </c>
-      <c r="X22" s="4" t="inlineStr">
+      <c r="X22" s="5" t="inlineStr">
         <is>
           <t>2021-07-002</t>
         </is>
       </c>
-      <c r="Y22" s="5" t="n">
+      <c r="Y22" s="6" t="n">
         <v>44406</v>
       </c>
-      <c r="Z22" s="4" t="inlineStr">
+      <c r="Z22" s="5" t="inlineStr">
         <is>
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="AA22" s="4" t="inlineStr"/>
-      <c r="AB22" s="4" t="n"/>
+      <c r="AA22" s="5" t="inlineStr"/>
+      <c r="AB22" s="7" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="inlineStr">
+      <c r="A23" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>Negros Occidental</t>
         </is>
       </c>
-      <c r="D23" s="4" t="n">
+      <c r="D23" s="5" t="n">
         <v>117116</v>
       </c>
-      <c r="E23" s="4" t="inlineStr">
+      <c r="E23" s="5" t="inlineStr">
         <is>
           <t>Bulata ES</t>
         </is>
       </c>
-      <c r="F23" s="4" t="inlineStr">
+      <c r="F23" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CAUAYAN </t>
         </is>
       </c>
-      <c r="G23" s="4" t="n">
+      <c r="G23" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="H23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="4" t="n">
+      <c r="H23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" s="4" t="inlineStr">
+      <c r="J23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L23" s="4" t="n">
+      <c r="L23" s="5" t="n">
         <v>4331131</v>
       </c>
-      <c r="M23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" s="4" t="n">
+      <c r="M23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" s="5" t="n">
         <v>2752000</v>
       </c>
-      <c r="O23" s="4" t="inlineStr">
+      <c r="O23" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="P23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="5" t="n">
+      <c r="P23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="6" t="n">
         <v>44545</v>
       </c>
-      <c r="R23" s="4" t="inlineStr"/>
-      <c r="S23" s="4" t="inlineStr"/>
-      <c r="T23" s="4" t="inlineStr"/>
-      <c r="U23" s="5" t="n">
+      <c r="R23" s="5" t="inlineStr"/>
+      <c r="S23" s="5" t="inlineStr"/>
+      <c r="T23" s="5" t="inlineStr"/>
+      <c r="U23" s="6" t="n">
         <v>44355</v>
       </c>
-      <c r="V23" s="5" t="n">
+      <c r="V23" s="6" t="n">
         <v>44362</v>
       </c>
-      <c r="W23" s="5" t="n">
+      <c r="W23" s="6" t="n">
         <v>44375</v>
       </c>
-      <c r="X23" s="4" t="inlineStr">
+      <c r="X23" s="5" t="inlineStr">
         <is>
           <t>2021-07-003</t>
         </is>
       </c>
-      <c r="Y23" s="5" t="n">
+      <c r="Y23" s="6" t="n">
         <v>44406</v>
       </c>
-      <c r="Z23" s="4" t="inlineStr">
+      <c r="Z23" s="5" t="inlineStr">
         <is>
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="AA23" s="4" t="inlineStr"/>
-      <c r="AB23" s="4" t="n"/>
+      <c r="AA23" s="5" t="inlineStr"/>
+      <c r="AB23" s="7" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="inlineStr">
+      <c r="A24" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>San Carlos City</t>
         </is>
       </c>
-      <c r="D24" s="4" t="n">
+      <c r="D24" s="5" t="n">
         <v>117772</v>
       </c>
-      <c r="E24" s="4" t="inlineStr">
+      <c r="E24" s="5" t="inlineStr">
         <is>
           <t>Codcod ES</t>
         </is>
       </c>
-      <c r="F24" s="4" t="inlineStr">
+      <c r="F24" s="5" t="inlineStr">
         <is>
           <t>San Carlos City</t>
         </is>
       </c>
-      <c r="G24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" s="4" t="inlineStr">
+      <c r="G24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" s="5" t="inlineStr">
         <is>
           <t>Completion of Abandoned Gabaldon</t>
         </is>
       </c>
-      <c r="L24" s="4" t="n">
+      <c r="L24" s="5" t="n">
         <v>396661</v>
       </c>
-      <c r="M24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" s="4" t="n">
+      <c r="M24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" s="5" t="n">
         <v>393994.87</v>
       </c>
-      <c r="O24" s="4" t="inlineStr">
+      <c r="O24" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="P24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="5" t="n">
+      <c r="P24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="6" t="n">
         <v>44556</v>
       </c>
-      <c r="R24" s="5" t="n">
+      <c r="R24" s="6" t="n">
         <v>44487</v>
       </c>
-      <c r="S24" s="4" t="inlineStr">
+      <c r="S24" s="5" t="inlineStr">
         <is>
           <t>7774758-2021-GABALDON</t>
         </is>
       </c>
-      <c r="T24" s="4" t="inlineStr">
+      <c r="T24" s="5" t="inlineStr">
         <is>
           <t>7774758-2021-GABALDON</t>
         </is>
       </c>
-      <c r="U24" s="5" t="n">
+      <c r="U24" s="6" t="n">
         <v>44364</v>
       </c>
-      <c r="V24" s="5" t="n">
+      <c r="V24" s="6" t="n">
         <v>44372</v>
       </c>
-      <c r="W24" s="5" t="n">
+      <c r="W24" s="6" t="n">
         <v>44384</v>
       </c>
-      <c r="X24" s="5" t="n">
+      <c r="X24" s="6" t="n">
         <v>44406</v>
       </c>
-      <c r="Y24" s="5" t="n">
+      <c r="Y24" s="6" t="n">
         <v>44414</v>
       </c>
-      <c r="Z24" s="4" t="inlineStr">
+      <c r="Z24" s="5" t="inlineStr">
         <is>
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="AA24" s="4" t="inlineStr">
+      <c r="AA24" s="5" t="inlineStr">
         <is>
           <t>100% Completed</t>
         </is>
       </c>
-      <c r="AB24" s="4" t="n"/>
+      <c r="AB24" s="7" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="inlineStr">
+      <c r="A25" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B25" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="C25" s="5" t="inlineStr">
         <is>
           <t>San Carlos City</t>
         </is>
       </c>
-      <c r="D25" s="4" t="n">
+      <c r="D25" s="5" t="n">
         <v>117788</v>
       </c>
-      <c r="E25" s="4" t="inlineStr">
+      <c r="E25" s="5" t="inlineStr">
         <is>
           <t>Katingal-an ES</t>
         </is>
       </c>
-      <c r="F25" s="4" t="inlineStr">
+      <c r="F25" s="5" t="inlineStr">
         <is>
           <t>San Carlos City</t>
         </is>
       </c>
-      <c r="G25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="4" t="n">
+      <c r="G25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" s="4" t="inlineStr">
+      <c r="J25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" s="5" t="inlineStr">
         <is>
           <t>Completion of Abandoned Gabaldon</t>
         </is>
       </c>
-      <c r="L25" s="4" t="n">
+      <c r="L25" s="5" t="n">
         <v>1511665</v>
       </c>
-      <c r="M25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" s="4" t="n">
+      <c r="M25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" s="5" t="n">
         <v>1501505.13</v>
       </c>
-      <c r="O25" s="4" t="inlineStr">
+      <c r="O25" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="P25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="5" t="n">
+      <c r="P25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="6" t="n">
         <v>44556</v>
       </c>
-      <c r="R25" s="5" t="n">
+      <c r="R25" s="6" t="n">
         <v>44550</v>
       </c>
-      <c r="S25" s="4" t="inlineStr">
+      <c r="S25" s="5" t="inlineStr">
         <is>
           <t>7774758-2021-GABALDON</t>
         </is>
       </c>
-      <c r="T25" s="4" t="inlineStr">
+      <c r="T25" s="5" t="inlineStr">
         <is>
           <t>7774758-2021-GABALDON</t>
         </is>
       </c>
-      <c r="U25" s="5" t="n">
+      <c r="U25" s="6" t="n">
         <v>44364</v>
       </c>
-      <c r="V25" s="5" t="n">
+      <c r="V25" s="6" t="n">
         <v>44372</v>
       </c>
-      <c r="W25" s="5" t="n">
+      <c r="W25" s="6" t="n">
         <v>44384</v>
       </c>
-      <c r="X25" s="5" t="n">
+      <c r="X25" s="6" t="n">
         <v>44406</v>
       </c>
-      <c r="Y25" s="5" t="n">
+      <c r="Y25" s="6" t="n">
         <v>44414</v>
       </c>
-      <c r="Z25" s="4" t="inlineStr">
+      <c r="Z25" s="5" t="inlineStr">
         <is>
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="AA25" s="4" t="inlineStr">
+      <c r="AA25" s="5" t="inlineStr">
         <is>
           <t>100% Completed</t>
         </is>
       </c>
-      <c r="AB25" s="4" t="n"/>
+      <c r="AB25" s="7" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="inlineStr">
+      <c r="A26" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2023</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C26" s="4" t="inlineStr">
+      <c r="C26" s="5" t="inlineStr">
         <is>
           <t>Negros Occidental</t>
         </is>
       </c>
-      <c r="D26" s="4" t="n">
+      <c r="D26" s="5" t="n">
         <v>117113</v>
       </c>
-      <c r="E26" s="4" t="inlineStr">
+      <c r="E26" s="5" t="inlineStr">
         <is>
           <t>Hinigaran ES-A</t>
         </is>
       </c>
-      <c r="F26" s="4" t="inlineStr">
+      <c r="F26" s="5" t="inlineStr">
         <is>
           <t>HINIGARAN</t>
         </is>
       </c>
-      <c r="G26" s="4" t="n">
+      <c r="G26" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" s="4" t="inlineStr">
+      <c r="H26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
         <is>
           <t>Restoration &amp; Conservation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L26" s="4" t="n">
+      <c r="L26" s="5" t="n">
         <v>11443993.61</v>
       </c>
-      <c r="M26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" s="4" t="n">
+      <c r="M26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" s="5" t="n">
         <v>9126569.32</v>
       </c>
-      <c r="O26" s="4" t="inlineStr">
+      <c r="O26" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="P26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="4" t="inlineStr">
+      <c r="P26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="5" t="inlineStr">
         <is>
           <t>7/24/2024</t>
         </is>
       </c>
-      <c r="R26" s="4" t="inlineStr">
+      <c r="R26" s="5" t="inlineStr">
         <is>
           <t>7/23/2024</t>
         </is>
       </c>
-      <c r="S26" s="4" t="n">
+      <c r="S26" s="5" t="n">
         <v>38952</v>
       </c>
-      <c r="T26" s="4" t="inlineStr">
+      <c r="T26" s="5" t="inlineStr">
         <is>
           <t>JO# 25-11-002</t>
         </is>
       </c>
-      <c r="U26" s="4" t="inlineStr">
+      <c r="U26" s="5" t="inlineStr">
         <is>
           <t>8/25/2023</t>
         </is>
       </c>
-      <c r="V26" s="5" t="n">
+      <c r="V26" s="6" t="n">
         <v>44935</v>
       </c>
-      <c r="W26" s="4" t="inlineStr">
+      <c r="W26" s="5" t="inlineStr">
         <is>
           <t>9/14/2023</t>
         </is>
       </c>
-      <c r="X26" s="4" t="inlineStr">
+      <c r="X26" s="5" t="inlineStr">
         <is>
           <t>No. 040 s. 2023</t>
         </is>
       </c>
-      <c r="Y26" s="4" t="inlineStr">
+      <c r="Y26" s="5" t="inlineStr">
         <is>
           <t>12/27/2023</t>
         </is>
       </c>
-      <c r="Z26" s="4" t="inlineStr">
+      <c r="Z26" s="5" t="inlineStr">
         <is>
           <t>CGGFR CONSTRUCTION AND CONSTRUCTION SUPPLY</t>
         </is>
       </c>
-      <c r="AA26" s="4" t="inlineStr"/>
-      <c r="AB26" s="4" t="n"/>
+      <c r="AA26" s="5" t="inlineStr"/>
+      <c r="AB26" s="7" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="inlineStr">
+      <c r="A27" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr">
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C27" s="4" t="inlineStr">
+      <c r="C27" s="5" t="inlineStr">
         <is>
           <t>Aklan</t>
         </is>
       </c>
-      <c r="D27" s="4" t="n">
+      <c r="D27" s="5" t="n">
         <v>114850</v>
       </c>
-      <c r="E27" s="4" t="inlineStr">
+      <c r="E27" s="5" t="inlineStr">
         <is>
           <t>Malay Elementary School</t>
         </is>
       </c>
-      <c r="F27" s="4" t="inlineStr">
+      <c r="F27" s="5" t="inlineStr">
         <is>
           <t>MALAY</t>
         </is>
       </c>
-      <c r="G27" s="4" t="inlineStr">
+      <c r="G27" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H27" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" s="4" t="n">
+      <c r="H27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J27" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" s="4" t="inlineStr">
+      <c r="J27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L27" s="4" t="n">
+      <c r="L27" s="5" t="n">
         <v>8597231.289999999</v>
       </c>
-      <c r="M27" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" s="4" t="n">
+      <c r="M27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" s="5" t="n">
         <v>8562000</v>
       </c>
-      <c r="O27" s="4" t="inlineStr">
+      <c r="O27" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="P27" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="4" t="inlineStr">
+      <c r="P27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="5" t="inlineStr">
         <is>
           <t>1/20/2025</t>
         </is>
       </c>
-      <c r="R27" s="4" t="inlineStr">
+      <c r="R27" s="5" t="inlineStr">
         <is>
           <t>1/20/2025</t>
         </is>
       </c>
-      <c r="S27" s="4" t="inlineStr">
+      <c r="S27" s="5" t="inlineStr">
         <is>
           <t>DepEd-RO6-D1-2024GABALDON-012-2024</t>
         </is>
       </c>
-      <c r="T27" s="4" t="inlineStr">
+      <c r="T27" s="5" t="inlineStr">
         <is>
           <t>DepEd-RO6-D1-2024GABALDON-012-2024</t>
         </is>
       </c>
-      <c r="U27" s="5" t="n">
+      <c r="U27" s="6" t="n">
         <v>45509</v>
       </c>
-      <c r="V27" s="4" t="inlineStr">
+      <c r="V27" s="5" t="inlineStr">
         <is>
           <t>5/15/2024</t>
         </is>
       </c>
-      <c r="W27" s="4" t="inlineStr">
+      <c r="W27" s="5" t="inlineStr">
         <is>
           <t>5/27/2024</t>
         </is>
       </c>
-      <c r="X27" s="4" t="inlineStr">
+      <c r="X27" s="5" t="inlineStr">
         <is>
           <t>6/19/2024</t>
         </is>
       </c>
-      <c r="Y27" s="4" t="inlineStr">
+      <c r="Y27" s="5" t="inlineStr">
         <is>
           <t>7/17/2024</t>
         </is>
       </c>
-      <c r="Z27" s="4" t="inlineStr">
+      <c r="Z27" s="5" t="inlineStr">
         <is>
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="AA27" s="4" t="inlineStr">
+      <c r="AA27" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="AB27" s="4" t="n"/>
+      <c r="AB27" s="7" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="inlineStr">
+      <c r="A28" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="C28" s="5" t="inlineStr">
         <is>
           <t>Guimaras</t>
         </is>
       </c>
-      <c r="D28" s="4" t="n">
+      <c r="D28" s="5" t="n">
         <v>115895</v>
       </c>
-      <c r="E28" s="4" t="inlineStr">
+      <c r="E28" s="5" t="inlineStr">
         <is>
           <t>Igang Elementary School</t>
         </is>
       </c>
-      <c r="F28" s="4" t="inlineStr">
+      <c r="F28" s="5" t="inlineStr">
         <is>
           <t>NUEVA VALENCIA</t>
         </is>
       </c>
-      <c r="G28" s="4" t="inlineStr">
+      <c r="G28" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H28" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" s="4" t="n">
+      <c r="H28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J28" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" s="4" t="inlineStr">
+      <c r="J28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L28" s="4" t="n">
+      <c r="L28" s="5" t="n">
         <v>7762335.08</v>
       </c>
-      <c r="M28" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" s="4" t="n">
+      <c r="M28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" s="5" t="n">
         <v>7707000</v>
       </c>
-      <c r="O28" s="4" t="inlineStr">
+      <c r="O28" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P28" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="5" t="n">
+      <c r="P28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="6" t="n">
         <v>45363</v>
       </c>
-      <c r="R28" s="5" t="n">
+      <c r="R28" s="6" t="n">
         <v>45575</v>
       </c>
-      <c r="S28" s="4" t="inlineStr">
+      <c r="S28" s="5" t="inlineStr">
         <is>
           <t>Project 04-2024</t>
         </is>
       </c>
-      <c r="T28" s="4" t="inlineStr">
+      <c r="T28" s="5" t="inlineStr">
         <is>
           <t>Project 04-2024</t>
         </is>
       </c>
-      <c r="U28" s="5" t="n">
+      <c r="U28" s="6" t="n">
         <v>45294</v>
       </c>
-      <c r="V28" s="5" t="n">
+      <c r="V28" s="6" t="n">
         <v>45629</v>
       </c>
-      <c r="W28" s="4" t="inlineStr">
+      <c r="W28" s="5" t="inlineStr">
         <is>
           <t>3/26/2024</t>
         </is>
       </c>
-      <c r="X28" s="4" t="inlineStr">
+      <c r="X28" s="5" t="inlineStr">
         <is>
           <t>6/25/2024</t>
         </is>
       </c>
-      <c r="Y28" s="5" t="n">
+      <c r="Y28" s="6" t="n">
         <v>45298</v>
       </c>
-      <c r="Z28" s="4" t="inlineStr">
+      <c r="Z28" s="5" t="inlineStr">
         <is>
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="AA28" s="4" t="inlineStr">
+      <c r="AA28" s="5" t="inlineStr">
         <is>
           <t>completed and turn-over</t>
         </is>
       </c>
-      <c r="AB28" s="4" t="n"/>
+      <c r="AB28" s="7" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="inlineStr">
+      <c r="A29" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B29" s="4" t="inlineStr">
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C29" s="4" t="inlineStr">
+      <c r="C29" s="5" t="inlineStr">
         <is>
           <t>Himamaylan City</t>
         </is>
       </c>
-      <c r="D29" s="4" t="n">
+      <c r="D29" s="5" t="n">
         <v>117076</v>
       </c>
-      <c r="E29" s="4" t="inlineStr">
+      <c r="E29" s="5" t="inlineStr">
         <is>
           <t>Himamaylan Central School</t>
         </is>
       </c>
-      <c r="F29" s="4" t="inlineStr">
+      <c r="F29" s="5" t="inlineStr">
         <is>
           <t>CITY OF HIMAMAYLAN</t>
         </is>
       </c>
-      <c r="G29" s="4" t="inlineStr">
+      <c r="G29" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">5th </t>
         </is>
       </c>
-      <c r="H29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" s="4" t="n">
+      <c r="H29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="J29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" s="4" t="inlineStr">
+      <c r="J29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L29" s="4" t="n">
+      <c r="L29" s="5" t="n">
         <v>13950000</v>
       </c>
-      <c r="M29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" s="4" t="n">
+      <c r="M29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" s="5" t="n">
         <v>13850000</v>
       </c>
-      <c r="O29" s="4" t="inlineStr">
+      <c r="O29" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="P29" s="4" t="n">
+      <c r="P29" s="5" t="n">
         <v>0.95</v>
       </c>
-      <c r="Q29" s="5" t="n">
+      <c r="Q29" s="6" t="n">
         <v>45663</v>
       </c>
-      <c r="R29" s="4" t="inlineStr"/>
-      <c r="S29" s="4" t="inlineStr">
+      <c r="R29" s="5" t="inlineStr"/>
+      <c r="S29" s="5" t="inlineStr">
         <is>
           <t>IB-sdhc-082024-007</t>
         </is>
       </c>
-      <c r="T29" s="4" t="inlineStr">
+      <c r="T29" s="5" t="inlineStr">
         <is>
           <t>IB-sdhc-082024-007</t>
         </is>
       </c>
-      <c r="U29" s="4" t="inlineStr">
+      <c r="U29" s="5" t="inlineStr">
         <is>
           <t>8/14/2024</t>
         </is>
       </c>
-      <c r="V29" s="4" t="inlineStr">
+      <c r="V29" s="5" t="inlineStr">
         <is>
           <t>8/22/2024</t>
         </is>
       </c>
-      <c r="W29" s="5" t="n">
+      <c r="W29" s="6" t="n">
         <v>45360</v>
       </c>
-      <c r="X29" s="4" t="inlineStr">
+      <c r="X29" s="5" t="inlineStr">
         <is>
           <t>9/13/2024</t>
         </is>
       </c>
-      <c r="Y29" s="5" t="n">
+      <c r="Y29" s="6" t="n">
         <v>45931</v>
       </c>
-      <c r="Z29" s="4" t="inlineStr">
+      <c r="Z29" s="5" t="inlineStr">
         <is>
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES</t>
         </is>
       </c>
-      <c r="AA29" s="4" t="inlineStr">
+      <c r="AA29" s="5" t="inlineStr">
         <is>
           <t>for final inspection and punchlisting on June 7, 2025</t>
         </is>
       </c>
-      <c r="AB29" s="4" t="n"/>
+      <c r="AB29" s="7" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="inlineStr">
+      <c r="A30" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B30" s="4" t="inlineStr">
+      <c r="B30" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C30" s="4" t="inlineStr">
+      <c r="C30" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D30" s="4" t="n">
+      <c r="D30" s="5" t="n">
         <v>116839</v>
       </c>
-      <c r="E30" s="4" t="inlineStr">
+      <c r="E30" s="5" t="inlineStr">
         <is>
           <t>Tigbauan CES</t>
         </is>
       </c>
-      <c r="F30" s="4" t="inlineStr">
+      <c r="F30" s="5" t="inlineStr">
         <is>
           <t>TIGBAUAN</t>
         </is>
       </c>
-      <c r="G30" s="4" t="inlineStr">
+      <c r="G30" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H30" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" s="4" t="n">
+      <c r="H30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="J30" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" s="4" t="inlineStr">
+      <c r="J30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L30" s="4" t="n">
+      <c r="L30" s="5" t="n">
         <v>13363220.1</v>
       </c>
-      <c r="M30" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" s="4" t="n">
+      <c r="M30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" s="5" t="n">
         <v>13324432.63</v>
       </c>
-      <c r="O30" s="4" t="inlineStr">
+      <c r="O30" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P30" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="4" t="inlineStr">
+      <c r="P30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="5" t="inlineStr">
         <is>
           <t>3/13/2025</t>
         </is>
       </c>
-      <c r="R30" s="5" t="n">
+      <c r="R30" s="6" t="n">
         <v>45638</v>
       </c>
-      <c r="S30" s="4" t="inlineStr">
+      <c r="S30" s="5" t="inlineStr">
         <is>
           <t>BEFF2024-RVI-ILOILO-022-GAB-L1</t>
         </is>
       </c>
-      <c r="T30" s="4" t="inlineStr">
+      <c r="T30" s="5" t="inlineStr">
         <is>
           <t>BEFF2024-RVI-ILOILO-022-GAB-L1</t>
         </is>
       </c>
-      <c r="U30" s="5" t="n">
+      <c r="U30" s="6" t="n">
         <v>45446</v>
       </c>
-      <c r="V30" s="4" t="inlineStr">
+      <c r="V30" s="5" t="inlineStr">
         <is>
           <t>3/21/2024</t>
         </is>
       </c>
-      <c r="W30" s="5" t="n">
+      <c r="W30" s="6" t="n">
         <v>45326</v>
       </c>
-      <c r="X30" s="4" t="inlineStr">
+      <c r="X30" s="5" t="inlineStr">
         <is>
           <t>5/17/2024</t>
         </is>
       </c>
-      <c r="Y30" s="4" t="inlineStr">
+      <c r="Y30" s="5" t="inlineStr">
         <is>
           <t>7/15/2024</t>
         </is>
       </c>
-      <c r="Z30" s="4" t="inlineStr">
+      <c r="Z30" s="5" t="inlineStr">
         <is>
           <t>EARLY RISER CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA30" s="4" t="inlineStr"/>
-      <c r="AB30" s="4" t="n"/>
+      <c r="AA30" s="5" t="inlineStr"/>
+      <c r="AB30" s="7" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="inlineStr">
+      <c r="A31" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="B31" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C31" s="4" t="inlineStr">
+      <c r="C31" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D31" s="4" t="n">
+      <c r="D31" s="5" t="n">
         <v>116394</v>
       </c>
-      <c r="E31" s="4" t="inlineStr">
+      <c r="E31" s="5" t="inlineStr">
         <is>
           <t>Janiuay Pilot ES</t>
         </is>
       </c>
-      <c r="F31" s="4" t="inlineStr">
+      <c r="F31" s="5" t="inlineStr">
         <is>
           <t>JANIUAY</t>
         </is>
       </c>
-      <c r="G31" s="4" t="inlineStr">
+      <c r="G31" s="5" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="H31" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" s="4" t="n">
+      <c r="H31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="J31" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" s="4" t="inlineStr">
+      <c r="J31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L31" s="4" t="n">
+      <c r="L31" s="5" t="n">
         <v>8456526.869999999</v>
       </c>
-      <c r="M31" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" s="4" t="n">
+      <c r="M31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" s="5" t="n">
         <v>8446849.01</v>
       </c>
-      <c r="O31" s="4" t="inlineStr">
+      <c r="O31" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P31" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="5" t="n">
+      <c r="P31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="6" t="n">
         <v>45992</v>
       </c>
-      <c r="R31" s="5" t="n">
+      <c r="R31" s="6" t="n">
         <v>45873</v>
       </c>
-      <c r="S31" s="4" t="inlineStr">
+      <c r="S31" s="5" t="inlineStr">
         <is>
           <t>BEFF2024-RVI-ILOILO-022-GAB-L2</t>
         </is>
       </c>
-      <c r="T31" s="4" t="inlineStr">
+      <c r="T31" s="5" t="inlineStr">
         <is>
           <t>BEFF2024-RVI-ILOILO-022-GAB-L2</t>
         </is>
       </c>
-      <c r="U31" s="5" t="n">
+      <c r="U31" s="6" t="n">
         <v>45446</v>
       </c>
-      <c r="V31" s="4" t="inlineStr">
+      <c r="V31" s="5" t="inlineStr">
         <is>
           <t>3/21/2024</t>
         </is>
       </c>
-      <c r="W31" s="5" t="n">
+      <c r="W31" s="6" t="n">
         <v>45326</v>
       </c>
-      <c r="X31" s="4" t="inlineStr">
+      <c r="X31" s="5" t="inlineStr">
         <is>
           <t>5/17/2024</t>
         </is>
       </c>
-      <c r="Y31" s="4" t="inlineStr">
+      <c r="Y31" s="5" t="inlineStr">
         <is>
           <t>7/15/2024</t>
         </is>
       </c>
-      <c r="Z31" s="4" t="inlineStr">
+      <c r="Z31" s="5" t="inlineStr">
         <is>
           <t>EARLY RISER CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA31" s="4" t="inlineStr"/>
-      <c r="AB31" s="4" t="n"/>
+      <c r="AA31" s="5" t="inlineStr"/>
+      <c r="AB31" s="7" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="inlineStr">
+      <c r="A32" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B32" s="4" t="inlineStr">
+      <c r="B32" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C32" s="4" t="inlineStr">
+      <c r="C32" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D32" s="4" t="n">
+      <c r="D32" s="5" t="n">
         <v>116777</v>
       </c>
-      <c r="E32" s="4" t="inlineStr">
+      <c r="E32" s="5" t="inlineStr">
         <is>
           <t>Hugo T. Apelo MES</t>
         </is>
       </c>
-      <c r="F32" s="4" t="inlineStr">
+      <c r="F32" s="5" t="inlineStr">
         <is>
           <t>SARA</t>
         </is>
       </c>
-      <c r="G32" s="4" t="inlineStr">
+      <c r="G32" s="5" t="inlineStr">
         <is>
           <t>5th</t>
         </is>
       </c>
-      <c r="H32" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" s="4" t="n">
+      <c r="H32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J32" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K32" s="4" t="inlineStr">
+      <c r="J32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L32" s="4" t="n">
+      <c r="L32" s="5" t="n">
         <v>3758099.02</v>
       </c>
-      <c r="M32" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" s="4" t="n">
+      <c r="M32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" s="5" t="n">
         <v>3750285.99</v>
       </c>
-      <c r="O32" s="4" t="inlineStr">
+      <c r="O32" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P32" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="5" t="n">
+      <c r="P32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="6" t="n">
         <v>45547</v>
       </c>
-      <c r="R32" s="4" t="inlineStr">
+      <c r="R32" s="5" t="inlineStr">
         <is>
           <t>10/29/2024</t>
         </is>
       </c>
-      <c r="S32" s="4" t="inlineStr">
+      <c r="S32" s="5" t="inlineStr">
         <is>
           <t>BEFF2024-RVI-ILOILO-022-GAB-L3</t>
         </is>
       </c>
-      <c r="T32" s="4" t="inlineStr">
+      <c r="T32" s="5" t="inlineStr">
         <is>
           <t>BEFF2024-RVI-ILOILO-022-GAB-L3</t>
         </is>
       </c>
-      <c r="U32" s="5" t="n">
+      <c r="U32" s="6" t="n">
         <v>45446</v>
       </c>
-      <c r="V32" s="4" t="inlineStr">
+      <c r="V32" s="5" t="inlineStr">
         <is>
           <t>3/21/2024</t>
         </is>
       </c>
-      <c r="W32" s="5" t="n">
+      <c r="W32" s="6" t="n">
         <v>45326</v>
       </c>
-      <c r="X32" s="4" t="inlineStr">
+      <c r="X32" s="5" t="inlineStr">
         <is>
           <t>5/17/2024</t>
         </is>
       </c>
-      <c r="Y32" s="5" t="n">
+      <c r="Y32" s="6" t="n">
         <v>45603</v>
       </c>
-      <c r="Z32" s="4" t="inlineStr">
+      <c r="Z32" s="5" t="inlineStr">
         <is>
           <t>ANJUSH BUILDERS</t>
         </is>
       </c>
-      <c r="AA32" s="4" t="inlineStr"/>
-      <c r="AB32" s="4" t="n"/>
+      <c r="AA32" s="5" t="inlineStr"/>
+      <c r="AB32" s="7" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="inlineStr">
+      <c r="A33" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B33" s="4" t="inlineStr">
+      <c r="B33" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C33" s="4" t="inlineStr">
+      <c r="C33" s="5" t="inlineStr">
         <is>
           <t>Negros Occidental</t>
         </is>
       </c>
-      <c r="D33" s="4" t="n">
+      <c r="D33" s="5" t="n">
         <v>117429</v>
       </c>
-      <c r="E33" s="4" t="inlineStr">
+      <c r="E33" s="5" t="inlineStr">
         <is>
           <t>Valladolid ES</t>
         </is>
       </c>
-      <c r="F33" s="4" t="inlineStr">
+      <c r="F33" s="5" t="inlineStr">
         <is>
           <t>VALLADOLID</t>
         </is>
       </c>
-      <c r="G33" s="4" t="inlineStr">
+      <c r="G33" s="5" t="inlineStr">
         <is>
           <t>4th</t>
         </is>
       </c>
-      <c r="H33" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" s="4" t="n">
+      <c r="H33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="J33" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K33" s="4" t="inlineStr">
+      <c r="J33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L33" s="4" t="n">
+      <c r="L33" s="5" t="n">
         <v>13287607.81</v>
       </c>
-      <c r="M33" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" s="4" t="n">
+      <c r="M33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" s="5" t="n">
         <v>8258170.51</v>
       </c>
-      <c r="O33" s="4" t="inlineStr">
+      <c r="O33" s="5" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="P33" s="4" t="n">
+      <c r="P33" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Q33" s="4" t="inlineStr"/>
-      <c r="R33" s="4" t="inlineStr"/>
-      <c r="S33" s="4" t="n">
+      <c r="Q33" s="5" t="inlineStr"/>
+      <c r="R33" s="5" t="inlineStr"/>
+      <c r="S33" s="5" t="n">
         <v>45717</v>
       </c>
-      <c r="T33" s="4" t="inlineStr"/>
-      <c r="U33" s="4" t="inlineStr">
+      <c r="T33" s="5" t="inlineStr"/>
+      <c r="U33" s="5" t="inlineStr">
         <is>
           <t>12/27/2024</t>
         </is>
       </c>
-      <c r="V33" s="5" t="n">
+      <c r="V33" s="6" t="n">
         <v>45809</v>
       </c>
-      <c r="W33" s="4" t="inlineStr">
+      <c r="W33" s="5" t="inlineStr">
         <is>
           <t>1/20/2025</t>
         </is>
       </c>
-      <c r="X33" s="4" t="inlineStr">
+      <c r="X33" s="5" t="inlineStr">
         <is>
           <t>3/19/2025</t>
         </is>
       </c>
-      <c r="Y33" s="4" t="inlineStr"/>
-      <c r="Z33" s="4" t="inlineStr">
+      <c r="Y33" s="5" t="inlineStr"/>
+      <c r="Z33" s="5" t="inlineStr">
         <is>
           <t>CGGFR CONSTRUCTION AND CONSTRUCTION SUPPLY</t>
         </is>
       </c>
-      <c r="AA33" s="4" t="inlineStr">
+      <c r="AA33" s="5" t="inlineStr">
         <is>
           <t>Request for the release of  Sub-ARO with RTAs was alredy submitted -still waiting from CO to provide us Sub-ARO.</t>
         </is>
       </c>
-      <c r="AB33" s="4" t="n"/>
+      <c r="AB33" s="7" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="inlineStr">
+      <c r="A34" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B34" s="4" t="inlineStr">
+      <c r="B34" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C34" s="4" t="inlineStr">
+      <c r="C34" s="5" t="inlineStr">
         <is>
           <t>Negros Occidental</t>
         </is>
       </c>
-      <c r="D34" s="4" t="n">
+      <c r="D34" s="5" t="n">
         <v>117154</v>
       </c>
-      <c r="E34" s="4" t="inlineStr">
+      <c r="E34" s="5" t="inlineStr">
         <is>
           <t>Luis C. Tembrevilla ES</t>
         </is>
       </c>
-      <c r="F34" s="4" t="inlineStr">
+      <c r="F34" s="5" t="inlineStr">
         <is>
           <t>HINOBA-AN (ASIA)</t>
         </is>
       </c>
-      <c r="G34" s="4" t="inlineStr">
+      <c r="G34" s="5" t="inlineStr">
         <is>
           <t>6th</t>
         </is>
       </c>
-      <c r="H34" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" s="4" t="n">
+      <c r="H34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="J34" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K34" s="4" t="inlineStr">
+      <c r="J34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L34" s="4" t="n">
+      <c r="L34" s="5" t="n">
         <v>16334630.93</v>
       </c>
-      <c r="M34" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" s="4" t="n">
+      <c r="M34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" s="5" t="n">
         <v>10000000</v>
       </c>
-      <c r="O34" s="4" t="inlineStr">
+      <c r="O34" s="5" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
       </c>
-      <c r="P34" s="4" t="n">
+      <c r="P34" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Q34" s="4" t="inlineStr"/>
-      <c r="R34" s="4" t="inlineStr"/>
-      <c r="S34" s="4" t="n">
+      <c r="Q34" s="5" t="inlineStr"/>
+      <c r="R34" s="5" t="inlineStr"/>
+      <c r="S34" s="5" t="n">
         <v>45689</v>
       </c>
-      <c r="T34" s="4" t="inlineStr"/>
-      <c r="U34" s="4" t="inlineStr">
+      <c r="T34" s="5" t="inlineStr"/>
+      <c r="U34" s="5" t="inlineStr">
         <is>
           <t>12/27/2024</t>
         </is>
       </c>
-      <c r="V34" s="5" t="n">
+      <c r="V34" s="6" t="n">
         <v>45839</v>
       </c>
-      <c r="W34" s="4" t="inlineStr">
+      <c r="W34" s="5" t="inlineStr">
         <is>
           <t>1/20/2025</t>
         </is>
       </c>
-      <c r="X34" s="4" t="inlineStr">
+      <c r="X34" s="5" t="inlineStr">
         <is>
           <t>3/19/2025</t>
         </is>
       </c>
-      <c r="Y34" s="4" t="inlineStr"/>
-      <c r="Z34" s="4" t="inlineStr">
+      <c r="Y34" s="5" t="inlineStr"/>
+      <c r="Z34" s="5" t="inlineStr">
         <is>
           <t>KEANNE CONSTRUCTION SERVICES</t>
         </is>
       </c>
-      <c r="AA34" s="4" t="inlineStr">
+      <c r="AA34" s="5" t="inlineStr">
         <is>
           <t>Request for the release of  Sub-ARO with RTAs was alredy submitted -still waiting from CO to provide us Sub-ARO.</t>
         </is>
       </c>
-      <c r="AB34" s="4" t="n"/>
+      <c r="AB34" s="7" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Filtered_By_Region/Region VI/Region VI_GABALDON.xlsx
+++ b/Filtered_By_Region/Region VI/Region VI_GABALDON.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB34"/>
+  <dimension ref="A1:AB24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -455,10 +455,10 @@
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="19" customWidth="1" min="3" max="3"/>
+    <col width="17" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="46" customWidth="1" min="5" max="5"/>
-    <col width="27" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
     <col width="23" customWidth="1" min="9" max="9"/>
@@ -467,7 +467,7 @@
     <col width="20" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="17" customWidth="1" min="14" max="14"/>
-    <col width="19" customWidth="1" min="15" max="15"/>
+    <col width="11" customWidth="1" min="15" max="15"/>
     <col width="26" customWidth="1" min="16" max="16"/>
     <col width="26" customWidth="1" min="17" max="17"/>
     <col width="27" customWidth="1" min="18" max="18"/>
@@ -491,7 +491,7 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>REGION</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">
@@ -1710,30 +1710,30 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>Negros Occidental</t>
+          <t>Sagay City</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>117385</v>
+        <v>117692</v>
       </c>
       <c r="E13" s="5" t="inlineStr">
         <is>
-          <t>Talisay ES</t>
+          <t>Elia T. Canoy Esperancilla Elementary School</t>
         </is>
       </c>
       <c r="F13" s="5" t="inlineStr">
         <is>
-          <t>CITY OF TALISAY</t>
+          <t>SAGAY CITY</t>
         </is>
       </c>
       <c r="G13" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1744,13 +1744,13 @@
         </is>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3492344.95</v>
+        <v>2418204.21</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>3477970.42</v>
+        <v>1810000</v>
       </c>
       <c r="O13" s="5" t="inlineStr">
         <is>
@@ -1760,34 +1760,44 @@
       <c r="P13" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q13" s="6" t="n">
-        <v>44502</v>
+      <c r="Q13" s="5" t="inlineStr">
+        <is>
+          <t>December 16, 2021</t>
+        </is>
       </c>
       <c r="R13" s="5" t="inlineStr">
         <is>
-          <t>Nov. 22, 2021</t>
-        </is>
-      </c>
-      <c r="S13" s="5" t="inlineStr"/>
-      <c r="T13" s="5" t="inlineStr"/>
+          <t>August 21, 2021</t>
+        </is>
+      </c>
+      <c r="S13" s="5" t="inlineStr">
+        <is>
+          <t>02-2020</t>
+        </is>
+      </c>
+      <c r="T13" s="5" t="inlineStr">
+        <is>
+          <t>02-2020</t>
+        </is>
+      </c>
       <c r="U13" s="6" t="n">
-        <v>43942</v>
+        <v>43886</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>43955</v>
+        <v>43893</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>43969</v>
-      </c>
-      <c r="X13" s="5" t="inlineStr">
-        <is>
-          <t>26D S.2020</t>
-        </is>
-      </c>
-      <c r="Y13" s="5" t="inlineStr"/>
+        <v>43906</v>
+      </c>
+      <c r="X13" s="5" t="inlineStr"/>
+      <c r="Y13" s="5" t="inlineStr">
+        <is>
+          <t>June 21, 2021</t>
+        </is>
+      </c>
       <c r="Z13" s="5" t="inlineStr">
         <is>
-          <t>FOUR SG ENTERPRISES</t>
+          <t>RISM BUILDERS &amp; CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
       <c r="AA13" s="5" t="inlineStr"/>
@@ -1806,28 +1816,30 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>Negros Occidental</t>
+          <t>Silay City</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>117385</v>
+        <v>117804</v>
       </c>
       <c r="E14" s="5" t="inlineStr">
         <is>
-          <t>Talisay ES</t>
+          <t>Silay South Elementary School</t>
         </is>
       </c>
       <c r="F14" s="5" t="inlineStr">
         <is>
-          <t>CITY OF TALISAY</t>
+          <t>SAGAY CITY</t>
         </is>
       </c>
       <c r="G14" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="I14" s="5" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -1838,13 +1850,13 @@
         </is>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2816674.04</v>
+        <v>24820703.04</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>2789325.92</v>
+        <v>20338749.46</v>
       </c>
       <c r="O14" s="5" t="inlineStr">
         <is>
@@ -1855,42 +1867,56 @@
         <v>1</v>
       </c>
       <c r="Q14" s="6" t="n">
-        <v>44502</v>
-      </c>
-      <c r="R14" s="5" t="inlineStr">
-        <is>
-          <t>Nov. 22, 2021</t>
-        </is>
-      </c>
+        <v>44834</v>
+      </c>
+      <c r="R14" s="5" t="inlineStr"/>
       <c r="S14" s="5" t="inlineStr"/>
-      <c r="T14" s="5" t="inlineStr"/>
-      <c r="U14" s="6" t="n">
-        <v>43942</v>
-      </c>
-      <c r="V14" s="6" t="n">
-        <v>43955</v>
-      </c>
-      <c r="W14" s="6" t="n">
-        <v>43969</v>
+      <c r="T14" s="5" t="inlineStr">
+        <is>
+          <t>R6-D18-GAB-B2-2020</t>
+        </is>
+      </c>
+      <c r="U14" s="5" t="inlineStr">
+        <is>
+          <t>March 27, 2020</t>
+        </is>
+      </c>
+      <c r="V14" s="5" t="inlineStr">
+        <is>
+          <t>May 7, 2020</t>
+        </is>
+      </c>
+      <c r="W14" s="5" t="inlineStr">
+        <is>
+          <t>May 19, 2020</t>
+        </is>
       </c>
       <c r="X14" s="5" t="inlineStr">
         <is>
-          <t>26C S.2020</t>
-        </is>
-      </c>
-      <c r="Y14" s="5" t="inlineStr"/>
+          <t>June 18, 2021</t>
+        </is>
+      </c>
+      <c r="Y14" s="5" t="inlineStr">
+        <is>
+          <t>July 27, 2021</t>
+        </is>
+      </c>
       <c r="Z14" s="5" t="inlineStr">
         <is>
           <t>FOUR SG ENTERPRISES</t>
         </is>
       </c>
-      <c r="AA14" s="5" t="inlineStr"/>
+      <c r="AA14" s="5" t="inlineStr">
+        <is>
+          <t>On-going Rectification of Punchlisted Items</t>
+        </is>
+      </c>
       <c r="AB14" s="7" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="inlineStr">
         <is>
-          <t>GABALDON 2020</t>
+          <t>GABALDON 2021</t>
         </is>
       </c>
       <c r="B15" s="5" t="inlineStr">
@@ -1900,31 +1926,31 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>Negros Occidental</t>
+          <t>Aklan</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>117268</v>
+        <v>114738</v>
       </c>
       <c r="E15" s="5" t="inlineStr">
         <is>
-          <t>Moises Padilla ES</t>
+          <t>Naisud CS</t>
         </is>
       </c>
       <c r="F15" s="5" t="inlineStr">
         <is>
-          <t>MOISES PADILLA (MAGALLON)</t>
+          <t>IBAJAY</t>
         </is>
       </c>
       <c r="G15" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H15" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="5" t="n">
-        <v>16</v>
-      </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
       </c>
@@ -1934,54 +1960,56 @@
         </is>
       </c>
       <c r="L15" s="5" t="n">
-        <v>14261569.8</v>
+        <v>6399403</v>
       </c>
       <c r="M15" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>14241535.89</v>
+        <v>6335000</v>
       </c>
       <c r="O15" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>COMPLETED</t>
         </is>
       </c>
       <c r="P15" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q15" s="6" t="n">
-        <v>44291</v>
+        <v>44637</v>
       </c>
       <c r="R15" s="6" t="n">
-        <v>44285</v>
-      </c>
-      <c r="S15" s="5" t="n">
-        <v>6974325</v>
+        <v>44624</v>
+      </c>
+      <c r="S15" s="5" t="inlineStr">
+        <is>
+          <t>CY 2021 GABALDON - 001</t>
+        </is>
       </c>
       <c r="T15" s="5" t="inlineStr">
         <is>
-          <t>20-11-002</t>
+          <t>CY 2021 GABALDON - 001</t>
         </is>
       </c>
       <c r="U15" s="6" t="n">
-        <v>43945</v>
+        <v>44347</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>43955</v>
+        <v>44354</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>43969</v>
+        <v>44368</v>
       </c>
       <c r="X15" s="6" t="n">
-        <v>44153</v>
+        <v>44389</v>
       </c>
       <c r="Y15" s="6" t="n">
-        <v>44158</v>
+        <v>44420</v>
       </c>
       <c r="Z15" s="5" t="inlineStr">
         <is>
-          <t>FOUR SG ENTERPRISES</t>
+          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
       <c r="AA15" s="5" t="inlineStr"/>
@@ -1990,7 +2018,7 @@
     <row r="16">
       <c r="A16" s="5" t="inlineStr">
         <is>
-          <t>GABALDON 2020</t>
+          <t>GABALDON 2021</t>
         </is>
       </c>
       <c r="B16" s="5" t="inlineStr">
@@ -2000,30 +2028,30 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>Negros Occidental</t>
+          <t>Iloilo</t>
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>116963</v>
+        <v>116012</v>
       </c>
       <c r="E16" s="5" t="inlineStr">
         <is>
-          <t>Cauayan CES</t>
+          <t>Balasan CES</t>
         </is>
       </c>
       <c r="F16" s="5" t="inlineStr">
         <is>
-          <t>CAUAYAN</t>
+          <t>BALASAN</t>
         </is>
       </c>
       <c r="G16" s="5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H16" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -2034,54 +2062,54 @@
         </is>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5284051.93</v>
+        <v>9800503</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>5262334.53</v>
+        <v>6455847.57</v>
       </c>
       <c r="O16" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>COMPLETED</t>
         </is>
       </c>
       <c r="P16" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q16" s="6" t="n">
-        <v>44291</v>
+        <v>44522</v>
       </c>
       <c r="R16" s="6" t="n">
-        <v>44255</v>
-      </c>
-      <c r="S16" s="5" t="n">
-        <v>6974361</v>
+        <v>44508</v>
+      </c>
+      <c r="S16" s="5" t="inlineStr">
+        <is>
+          <t>R-06-BEFF Gabaldon-2020-B2-L1</t>
+        </is>
       </c>
       <c r="T16" s="5" t="inlineStr">
         <is>
-          <t>20-11-001</t>
+          <t>R-06-BEFF Gabaldon-2020-B2-L1</t>
         </is>
       </c>
       <c r="U16" s="6" t="n">
-        <v>43945</v>
-      </c>
-      <c r="V16" s="6" t="n">
-        <v>43955</v>
-      </c>
+        <v>43882</v>
+      </c>
+      <c r="V16" s="5" t="inlineStr"/>
       <c r="W16" s="6" t="n">
-        <v>43969</v>
+        <v>43900</v>
       </c>
       <c r="X16" s="6" t="n">
-        <v>44153</v>
+        <v>44105</v>
       </c>
       <c r="Y16" s="6" t="n">
-        <v>44158</v>
+        <v>44372</v>
       </c>
       <c r="Z16" s="5" t="inlineStr">
         <is>
-          <t>FOUR SG ENTERPRISES</t>
+          <t>Early Riser Construction</t>
         </is>
       </c>
       <c r="AA16" s="5" t="inlineStr"/>
@@ -2090,7 +2118,7 @@
     <row r="17">
       <c r="A17" s="5" t="inlineStr">
         <is>
-          <t>GABALDON 2020</t>
+          <t>GABALDON 2021</t>
         </is>
       </c>
       <c r="B17" s="5" t="inlineStr">
@@ -2100,89 +2128,103 @@
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>Negros Occidental</t>
+          <t>San Carlos City</t>
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>117162</v>
+        <v>117772</v>
       </c>
       <c r="E17" s="5" t="inlineStr">
         <is>
-          <t>Bocana ES</t>
+          <t>Codcod ES</t>
         </is>
       </c>
       <c r="F17" s="5" t="inlineStr">
         <is>
-          <t>ILOG</t>
+          <t>San Carlos City</t>
         </is>
       </c>
       <c r="G17" s="5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H17" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K17" s="5" t="inlineStr">
         <is>
-          <t>Rehabilitation of Gabaldon Building</t>
+          <t>Completion of Abandoned Gabaldon</t>
         </is>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1915596.29</v>
+        <v>396661</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>1898971.66</v>
+        <v>393994.87</v>
       </c>
       <c r="O17" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="P17" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q17" s="6" t="n">
-        <v>44502</v>
-      </c>
-      <c r="R17" s="5" t="inlineStr"/>
-      <c r="S17" s="5" t="inlineStr"/>
-      <c r="T17" s="5" t="inlineStr"/>
+        <v>44556</v>
+      </c>
+      <c r="R17" s="6" t="n">
+        <v>44487</v>
+      </c>
+      <c r="S17" s="5" t="inlineStr">
+        <is>
+          <t>7774758-2021-GABALDON</t>
+        </is>
+      </c>
+      <c r="T17" s="5" t="inlineStr">
+        <is>
+          <t>7774758-2021-GABALDON</t>
+        </is>
+      </c>
       <c r="U17" s="6" t="n">
-        <v>43942</v>
+        <v>44364</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>43955</v>
+        <v>44372</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>43969</v>
-      </c>
-      <c r="X17" s="5" t="inlineStr">
-        <is>
-          <t>26A S.2020</t>
-        </is>
-      </c>
-      <c r="Y17" s="5" t="inlineStr"/>
+        <v>44384</v>
+      </c>
+      <c r="X17" s="6" t="n">
+        <v>44406</v>
+      </c>
+      <c r="Y17" s="6" t="n">
+        <v>44414</v>
+      </c>
       <c r="Z17" s="5" t="inlineStr">
         <is>
-          <t>FOUR SG ENTERPRISES</t>
-        </is>
-      </c>
-      <c r="AA17" s="5" t="inlineStr"/>
+          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
+        </is>
+      </c>
+      <c r="AA17" s="5" t="inlineStr">
+        <is>
+          <t>100% Completed</t>
+        </is>
+      </c>
       <c r="AB17" s="7" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="5" t="inlineStr">
         <is>
-          <t>GABALDON 2020</t>
+          <t>GABALDON 2021</t>
         </is>
       </c>
       <c r="B18" s="5" t="inlineStr">
@@ -2192,103 +2234,103 @@
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>Sagay City</t>
+          <t>San Carlos City</t>
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>117692</v>
+        <v>117788</v>
       </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
-          <t>Elia T. Canoy Esperancilla Elementary School</t>
+          <t>Katingal-an ES</t>
         </is>
       </c>
       <c r="F18" s="5" t="inlineStr">
         <is>
-          <t>SAGAY CITY</t>
+          <t>San Carlos City</t>
         </is>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K18" s="5" t="inlineStr">
         <is>
-          <t>Rehabilitation of Gabaldon Building</t>
+          <t>Completion of Abandoned Gabaldon</t>
         </is>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2418204.21</v>
+        <v>1511665</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>1810000</v>
+        <v>1501505.13</v>
       </c>
       <c r="O18" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="P18" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q18" s="5" t="inlineStr">
-        <is>
-          <t>December 16, 2021</t>
-        </is>
-      </c>
-      <c r="R18" s="5" t="inlineStr">
-        <is>
-          <t>August 21, 2021</t>
-        </is>
+      <c r="Q18" s="6" t="n">
+        <v>44556</v>
+      </c>
+      <c r="R18" s="6" t="n">
+        <v>44550</v>
       </c>
       <c r="S18" s="5" t="inlineStr">
         <is>
-          <t>02-2020</t>
+          <t>7774758-2021-GABALDON</t>
         </is>
       </c>
       <c r="T18" s="5" t="inlineStr">
         <is>
-          <t>02-2020</t>
+          <t>7774758-2021-GABALDON</t>
         </is>
       </c>
       <c r="U18" s="6" t="n">
-        <v>43886</v>
+        <v>44364</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>43893</v>
+        <v>44372</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>43906</v>
-      </c>
-      <c r="X18" s="5" t="inlineStr"/>
-      <c r="Y18" s="5" t="inlineStr">
-        <is>
-          <t>June 21, 2021</t>
-        </is>
+        <v>44384</v>
+      </c>
+      <c r="X18" s="6" t="n">
+        <v>44406</v>
+      </c>
+      <c r="Y18" s="6" t="n">
+        <v>44414</v>
       </c>
       <c r="Z18" s="5" t="inlineStr">
         <is>
-          <t>RISM BUILDERS &amp; CONSTRUCTION SERVICES, INC.</t>
-        </is>
-      </c>
-      <c r="AA18" s="5" t="inlineStr"/>
+          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
+        </is>
+      </c>
+      <c r="AA18" s="5" t="inlineStr">
+        <is>
+          <t>100% Completed</t>
+        </is>
+      </c>
       <c r="AB18" s="7" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="inlineStr">
         <is>
-          <t>GABALDON 2020</t>
+          <t>GABALDON 2024</t>
         </is>
       </c>
       <c r="B19" s="5" t="inlineStr">
@@ -2298,99 +2340,109 @@
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
-          <t>Silay City</t>
+          <t>Aklan</t>
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>117804</v>
+        <v>114850</v>
       </c>
       <c r="E19" s="5" t="inlineStr">
         <is>
-          <t>Silay South Elementary School</t>
+          <t>Malay Elementary School</t>
         </is>
       </c>
       <c r="F19" s="5" t="inlineStr">
         <is>
-          <t>SAGAY CITY</t>
-        </is>
-      </c>
-      <c r="G19" s="5" t="n">
-        <v>3</v>
+          <t>MALAY</t>
+        </is>
+      </c>
+      <c r="G19" s="5" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
       </c>
       <c r="H19" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K19" s="5" t="inlineStr">
         <is>
-          <t>Rehabilitation of Gabaldon Building</t>
+          <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
       <c r="L19" s="5" t="n">
-        <v>24820703.04</v>
+        <v>8597231.289999999</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>20338749.46</v>
+        <v>8562000</v>
       </c>
       <c r="O19" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="P19" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q19" s="6" t="n">
-        <v>44834</v>
-      </c>
-      <c r="R19" s="5" t="inlineStr"/>
-      <c r="S19" s="5" t="inlineStr"/>
+      <c r="Q19" s="5" t="inlineStr">
+        <is>
+          <t>1/20/2025</t>
+        </is>
+      </c>
+      <c r="R19" s="5" t="inlineStr">
+        <is>
+          <t>1/20/2025</t>
+        </is>
+      </c>
+      <c r="S19" s="5" t="inlineStr">
+        <is>
+          <t>DepEd-RO6-D1-2024GABALDON-012-2024</t>
+        </is>
+      </c>
       <c r="T19" s="5" t="inlineStr">
         <is>
-          <t>R6-D18-GAB-B2-2020</t>
-        </is>
-      </c>
-      <c r="U19" s="5" t="inlineStr">
-        <is>
-          <t>March 27, 2020</t>
-        </is>
+          <t>DepEd-RO6-D1-2024GABALDON-012-2024</t>
+        </is>
+      </c>
+      <c r="U19" s="6" t="n">
+        <v>45509</v>
       </c>
       <c r="V19" s="5" t="inlineStr">
         <is>
-          <t>May 7, 2020</t>
+          <t>5/15/2024</t>
         </is>
       </c>
       <c r="W19" s="5" t="inlineStr">
         <is>
-          <t>May 19, 2020</t>
+          <t>5/27/2024</t>
         </is>
       </c>
       <c r="X19" s="5" t="inlineStr">
         <is>
-          <t>June 18, 2021</t>
+          <t>6/19/2024</t>
         </is>
       </c>
       <c r="Y19" s="5" t="inlineStr">
         <is>
-          <t>July 27, 2021</t>
+          <t>7/17/2024</t>
         </is>
       </c>
       <c r="Z19" s="5" t="inlineStr">
         <is>
-          <t>FOUR SG ENTERPRISES</t>
+          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
       <c r="AA19" s="5" t="inlineStr">
         <is>
-          <t>On-going Rectification of Punchlisted Items</t>
+          <t>COMPLETED</t>
         </is>
       </c>
       <c r="AB19" s="7" t="n"/>
@@ -2398,7 +2450,7 @@
     <row r="20">
       <c r="A20" s="5" t="inlineStr">
         <is>
-          <t>GABALDON 2021</t>
+          <t>GABALDON 2024</t>
         </is>
       </c>
       <c r="B20" s="5" t="inlineStr">
@@ -2408,47 +2460,49 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>Aklan</t>
+          <t>Guimaras</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>114738</v>
+        <v>115895</v>
       </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
-          <t>Naisud CS</t>
+          <t>Igang Elementary School</t>
         </is>
       </c>
       <c r="F20" s="5" t="inlineStr">
         <is>
-          <t>IBAJAY</t>
-        </is>
-      </c>
-      <c r="G20" s="5" t="n">
+          <t>NUEVA VALENCIA</t>
+        </is>
+      </c>
+      <c r="G20" s="5" t="inlineStr">
+        <is>
+          <t>Lone</t>
+        </is>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H20" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="5" t="n">
-        <v>5</v>
-      </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K20" s="5" t="inlineStr">
         <is>
-          <t>Rehabilitation of Gabaldon Building</t>
+          <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6399403</v>
+        <v>7762335.08</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>6335000</v>
+        <v>7707000</v>
       </c>
       <c r="O20" s="5" t="inlineStr">
         <is>
@@ -2459,48 +2513,56 @@
         <v>1</v>
       </c>
       <c r="Q20" s="6" t="n">
-        <v>44637</v>
+        <v>45363</v>
       </c>
       <c r="R20" s="6" t="n">
-        <v>44624</v>
+        <v>45575</v>
       </c>
       <c r="S20" s="5" t="inlineStr">
         <is>
-          <t>CY 2021 GABALDON - 001</t>
+          <t>Project 04-2024</t>
         </is>
       </c>
       <c r="T20" s="5" t="inlineStr">
         <is>
-          <t>CY 2021 GABALDON - 001</t>
+          <t>Project 04-2024</t>
         </is>
       </c>
       <c r="U20" s="6" t="n">
-        <v>44347</v>
+        <v>45294</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>44354</v>
-      </c>
-      <c r="W20" s="6" t="n">
-        <v>44368</v>
-      </c>
-      <c r="X20" s="6" t="n">
-        <v>44389</v>
+        <v>45629</v>
+      </c>
+      <c r="W20" s="5" t="inlineStr">
+        <is>
+          <t>3/26/2024</t>
+        </is>
+      </c>
+      <c r="X20" s="5" t="inlineStr">
+        <is>
+          <t>6/25/2024</t>
+        </is>
       </c>
       <c r="Y20" s="6" t="n">
-        <v>44420</v>
+        <v>45298</v>
       </c>
       <c r="Z20" s="5" t="inlineStr">
         <is>
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="AA20" s="5" t="inlineStr"/>
+      <c r="AA20" s="5" t="inlineStr">
+        <is>
+          <t>completed and turn-over</t>
+        </is>
+      </c>
       <c r="AB20" s="7" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="5" t="inlineStr">
         <is>
-          <t>GABALDON 2021</t>
+          <t>GABALDON 2024</t>
         </is>
       </c>
       <c r="B21" s="5" t="inlineStr">
@@ -2510,97 +2572,109 @@
       </c>
       <c r="C21" s="5" t="inlineStr">
         <is>
-          <t>Iloilo</t>
+          <t>Himamaylan City</t>
         </is>
       </c>
       <c r="D21" s="5" t="n">
-        <v>116012</v>
+        <v>117076</v>
       </c>
       <c r="E21" s="5" t="inlineStr">
         <is>
-          <t>Balasan CES</t>
+          <t>Himamaylan Central School</t>
         </is>
       </c>
       <c r="F21" s="5" t="inlineStr">
         <is>
-          <t>BALASAN</t>
-        </is>
-      </c>
-      <c r="G21" s="5" t="n">
-        <v>5</v>
+          <t>CITY OF HIMAMAYLAN</t>
+        </is>
+      </c>
+      <c r="G21" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5th </t>
+        </is>
       </c>
       <c r="H21" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K21" s="5" t="inlineStr">
         <is>
-          <t>Rehabilitation of Gabaldon Building</t>
+          <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
       <c r="L21" s="5" t="n">
-        <v>9800503</v>
+        <v>13950000</v>
       </c>
       <c r="M21" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>6455847.57</v>
+        <v>13850000</v>
       </c>
       <c r="O21" s="5" t="inlineStr">
         <is>
-          <t>COMPLETED</t>
+          <t>Ongoing</t>
         </is>
       </c>
       <c r="P21" s="5" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="Q21" s="6" t="n">
-        <v>44522</v>
-      </c>
-      <c r="R21" s="6" t="n">
-        <v>44508</v>
-      </c>
+        <v>45663</v>
+      </c>
+      <c r="R21" s="5" t="inlineStr"/>
       <c r="S21" s="5" t="inlineStr">
         <is>
-          <t>R-06-BEFF Gabaldon-2020-B2-L1</t>
+          <t>IB-sdhc-082024-007</t>
         </is>
       </c>
       <c r="T21" s="5" t="inlineStr">
         <is>
-          <t>R-06-BEFF Gabaldon-2020-B2-L1</t>
-        </is>
-      </c>
-      <c r="U21" s="6" t="n">
-        <v>43882</v>
-      </c>
-      <c r="V21" s="5" t="inlineStr"/>
+          <t>IB-sdhc-082024-007</t>
+        </is>
+      </c>
+      <c r="U21" s="5" t="inlineStr">
+        <is>
+          <t>8/14/2024</t>
+        </is>
+      </c>
+      <c r="V21" s="5" t="inlineStr">
+        <is>
+          <t>8/22/2024</t>
+        </is>
+      </c>
       <c r="W21" s="6" t="n">
-        <v>43900</v>
-      </c>
-      <c r="X21" s="6" t="n">
-        <v>44105</v>
+        <v>45360</v>
+      </c>
+      <c r="X21" s="5" t="inlineStr">
+        <is>
+          <t>9/13/2024</t>
+        </is>
       </c>
       <c r="Y21" s="6" t="n">
-        <v>44372</v>
+        <v>45931</v>
       </c>
       <c r="Z21" s="5" t="inlineStr">
         <is>
-          <t>Early Riser Construction</t>
-        </is>
-      </c>
-      <c r="AA21" s="5" t="inlineStr"/>
+          <t>RISM BUILDERS AND CONSTRUCTION SERVICES</t>
+        </is>
+      </c>
+      <c r="AA21" s="5" t="inlineStr">
+        <is>
+          <t>for final inspection and punchlisting on June 7, 2025</t>
+        </is>
+      </c>
       <c r="AB21" s="7" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="5" t="inlineStr">
         <is>
-          <t>GABALDON 2021</t>
+          <t>GABALDON 2024</t>
         </is>
       </c>
       <c r="B22" s="5" t="inlineStr">
@@ -2610,82 +2684,100 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>Negros Occidental</t>
+          <t>Iloilo</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>117212</v>
+        <v>116839</v>
       </c>
       <c r="E22" s="5" t="inlineStr">
         <is>
-          <t>Tinongan ES</t>
+          <t>Tigbauan CES</t>
         </is>
       </c>
       <c r="F22" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">ISABELA </t>
-        </is>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>5</v>
+          <t>TIGBAUAN</t>
+        </is>
+      </c>
+      <c r="G22" s="5" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
       </c>
       <c r="H22" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K22" s="5" t="inlineStr">
         <is>
-          <t>Rehabilitation of Gabaldon Building</t>
+          <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5776301</v>
+        <v>13363220.1</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>3692000</v>
+        <v>13324432.63</v>
       </c>
       <c r="O22" s="5" t="inlineStr">
         <is>
-          <t>completed</t>
+          <t>COMPLETED</t>
         </is>
       </c>
       <c r="P22" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q22" s="6" t="n">
-        <v>44545</v>
-      </c>
-      <c r="R22" s="5" t="inlineStr"/>
-      <c r="S22" s="5" t="inlineStr"/>
-      <c r="T22" s="5" t="inlineStr"/>
+      <c r="Q22" s="5" t="inlineStr">
+        <is>
+          <t>3/13/2025</t>
+        </is>
+      </c>
+      <c r="R22" s="6" t="n">
+        <v>45638</v>
+      </c>
+      <c r="S22" s="5" t="inlineStr">
+        <is>
+          <t>BEFF2024-RVI-ILOILO-022-GAB-L1</t>
+        </is>
+      </c>
+      <c r="T22" s="5" t="inlineStr">
+        <is>
+          <t>BEFF2024-RVI-ILOILO-022-GAB-L1</t>
+        </is>
+      </c>
       <c r="U22" s="6" t="n">
-        <v>44355</v>
-      </c>
-      <c r="V22" s="6" t="n">
-        <v>44362</v>
+        <v>45446</v>
+      </c>
+      <c r="V22" s="5" t="inlineStr">
+        <is>
+          <t>3/21/2024</t>
+        </is>
       </c>
       <c r="W22" s="6" t="n">
-        <v>44375</v>
+        <v>45326</v>
       </c>
       <c r="X22" s="5" t="inlineStr">
         <is>
-          <t>2021-07-002</t>
-        </is>
-      </c>
-      <c r="Y22" s="6" t="n">
-        <v>44406</v>
+          <t>5/17/2024</t>
+        </is>
+      </c>
+      <c r="Y22" s="5" t="inlineStr">
+        <is>
+          <t>7/15/2024</t>
+        </is>
       </c>
       <c r="Z22" s="5" t="inlineStr">
         <is>
-          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
+          <t>EARLY RISER CONSTRUCTION</t>
         </is>
       </c>
       <c r="AA22" s="5" t="inlineStr"/>
@@ -2694,7 +2786,7 @@
     <row r="23">
       <c r="A23" s="5" t="inlineStr">
         <is>
-          <t>GABALDON 2021</t>
+          <t>GABALDON 2024</t>
         </is>
       </c>
       <c r="B23" s="5" t="inlineStr">
@@ -2704,82 +2796,98 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>Negros Occidental</t>
+          <t>Iloilo</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>117116</v>
+        <v>116394</v>
       </c>
       <c r="E23" s="5" t="inlineStr">
         <is>
-          <t>Bulata ES</t>
+          <t>Janiuay Pilot ES</t>
         </is>
       </c>
       <c r="F23" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAUAYAN </t>
-        </is>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>6</v>
+          <t>JANIUAY</t>
+        </is>
+      </c>
+      <c r="G23" s="5" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
       </c>
       <c r="H23" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K23" s="5" t="inlineStr">
         <is>
-          <t>Rehabilitation of Gabaldon Building</t>
+          <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
       <c r="L23" s="5" t="n">
-        <v>4331131</v>
+        <v>8456526.869999999</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>2752000</v>
+        <v>8446849.01</v>
       </c>
       <c r="O23" s="5" t="inlineStr">
         <is>
-          <t>completed</t>
+          <t>COMPLETED</t>
         </is>
       </c>
       <c r="P23" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q23" s="6" t="n">
-        <v>44545</v>
-      </c>
-      <c r="R23" s="5" t="inlineStr"/>
-      <c r="S23" s="5" t="inlineStr"/>
-      <c r="T23" s="5" t="inlineStr"/>
+        <v>45992</v>
+      </c>
+      <c r="R23" s="6" t="n">
+        <v>45873</v>
+      </c>
+      <c r="S23" s="5" t="inlineStr">
+        <is>
+          <t>BEFF2024-RVI-ILOILO-022-GAB-L2</t>
+        </is>
+      </c>
+      <c r="T23" s="5" t="inlineStr">
+        <is>
+          <t>BEFF2024-RVI-ILOILO-022-GAB-L2</t>
+        </is>
+      </c>
       <c r="U23" s="6" t="n">
-        <v>44355</v>
-      </c>
-      <c r="V23" s="6" t="n">
-        <v>44362</v>
+        <v>45446</v>
+      </c>
+      <c r="V23" s="5" t="inlineStr">
+        <is>
+          <t>3/21/2024</t>
+        </is>
       </c>
       <c r="W23" s="6" t="n">
-        <v>44375</v>
+        <v>45326</v>
       </c>
       <c r="X23" s="5" t="inlineStr">
         <is>
-          <t>2021-07-003</t>
-        </is>
-      </c>
-      <c r="Y23" s="6" t="n">
-        <v>44406</v>
+          <t>5/17/2024</t>
+        </is>
+      </c>
+      <c r="Y23" s="5" t="inlineStr">
+        <is>
+          <t>7/15/2024</t>
+        </is>
       </c>
       <c r="Z23" s="5" t="inlineStr">
         <is>
-          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
+          <t>EARLY RISER CONSTRUCTION</t>
         </is>
       </c>
       <c r="AA23" s="5" t="inlineStr"/>
@@ -2788,7 +2896,7 @@
     <row r="24">
       <c r="A24" s="5" t="inlineStr">
         <is>
-          <t>GABALDON 2021</t>
+          <t>GABALDON 2024</t>
         </is>
       </c>
       <c r="B24" s="5" t="inlineStr">
@@ -2798,1200 +2906,106 @@
       </c>
       <c r="C24" s="5" t="inlineStr">
         <is>
-          <t>San Carlos City</t>
+          <t>Iloilo</t>
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>117772</v>
+        <v>116777</v>
       </c>
       <c r="E24" s="5" t="inlineStr">
         <is>
-          <t>Codcod ES</t>
+          <t>Hugo T. Apelo MES</t>
         </is>
       </c>
       <c r="F24" s="5" t="inlineStr">
         <is>
-          <t>San Carlos City</t>
-        </is>
-      </c>
-      <c r="G24" s="5" t="n">
-        <v>1</v>
+          <t>SARA</t>
+        </is>
+      </c>
+      <c r="G24" s="5" t="inlineStr">
+        <is>
+          <t>5th</t>
+        </is>
       </c>
       <c r="H24" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K24" s="5" t="inlineStr">
         <is>
-          <t>Completion of Abandoned Gabaldon</t>
+          <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
       <c r="L24" s="5" t="n">
-        <v>396661</v>
+        <v>3758099.02</v>
       </c>
       <c r="M24" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>393994.87</v>
+        <v>3750285.99</v>
       </c>
       <c r="O24" s="5" t="inlineStr">
         <is>
-          <t>completed</t>
+          <t>COMPLETED</t>
         </is>
       </c>
       <c r="P24" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q24" s="6" t="n">
-        <v>44556</v>
-      </c>
-      <c r="R24" s="6" t="n">
-        <v>44487</v>
+        <v>45547</v>
+      </c>
+      <c r="R24" s="5" t="inlineStr">
+        <is>
+          <t>10/29/2024</t>
+        </is>
       </c>
       <c r="S24" s="5" t="inlineStr">
         <is>
-          <t>7774758-2021-GABALDON</t>
+          <t>BEFF2024-RVI-ILOILO-022-GAB-L3</t>
         </is>
       </c>
       <c r="T24" s="5" t="inlineStr">
         <is>
-          <t>7774758-2021-GABALDON</t>
+          <t>BEFF2024-RVI-ILOILO-022-GAB-L3</t>
         </is>
       </c>
       <c r="U24" s="6" t="n">
-        <v>44364</v>
-      </c>
-      <c r="V24" s="6" t="n">
-        <v>44372</v>
+        <v>45446</v>
+      </c>
+      <c r="V24" s="5" t="inlineStr">
+        <is>
+          <t>3/21/2024</t>
+        </is>
       </c>
       <c r="W24" s="6" t="n">
-        <v>44384</v>
-      </c>
-      <c r="X24" s="6" t="n">
-        <v>44406</v>
+        <v>45326</v>
+      </c>
+      <c r="X24" s="5" t="inlineStr">
+        <is>
+          <t>5/17/2024</t>
+        </is>
       </c>
       <c r="Y24" s="6" t="n">
-        <v>44414</v>
+        <v>45603</v>
       </c>
       <c r="Z24" s="5" t="inlineStr">
         <is>
-          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
-        </is>
-      </c>
-      <c r="AA24" s="5" t="inlineStr">
-        <is>
-          <t>100% Completed</t>
-        </is>
-      </c>
+          <t>ANJUSH BUILDERS</t>
+        </is>
+      </c>
+      <c r="AA24" s="5" t="inlineStr"/>
       <c r="AB24" s="7" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="5" t="inlineStr">
-        <is>
-          <t>GABALDON 2021</t>
-        </is>
-      </c>
-      <c r="B25" s="5" t="inlineStr">
-        <is>
-          <t>Region VI</t>
-        </is>
-      </c>
-      <c r="C25" s="5" t="inlineStr">
-        <is>
-          <t>San Carlos City</t>
-        </is>
-      </c>
-      <c r="D25" s="5" t="n">
-        <v>117788</v>
-      </c>
-      <c r="E25" s="5" t="inlineStr">
-        <is>
-          <t>Katingal-an ES</t>
-        </is>
-      </c>
-      <c r="F25" s="5" t="inlineStr">
-        <is>
-          <t>San Carlos City</t>
-        </is>
-      </c>
-      <c r="G25" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="J25" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" s="5" t="inlineStr">
-        <is>
-          <t>Completion of Abandoned Gabaldon</t>
-        </is>
-      </c>
-      <c r="L25" s="5" t="n">
-        <v>1511665</v>
-      </c>
-      <c r="M25" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" s="5" t="n">
-        <v>1501505.13</v>
-      </c>
-      <c r="O25" s="5" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
-      <c r="P25" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="6" t="n">
-        <v>44556</v>
-      </c>
-      <c r="R25" s="6" t="n">
-        <v>44550</v>
-      </c>
-      <c r="S25" s="5" t="inlineStr">
-        <is>
-          <t>7774758-2021-GABALDON</t>
-        </is>
-      </c>
-      <c r="T25" s="5" t="inlineStr">
-        <is>
-          <t>7774758-2021-GABALDON</t>
-        </is>
-      </c>
-      <c r="U25" s="6" t="n">
-        <v>44364</v>
-      </c>
-      <c r="V25" s="6" t="n">
-        <v>44372</v>
-      </c>
-      <c r="W25" s="6" t="n">
-        <v>44384</v>
-      </c>
-      <c r="X25" s="6" t="n">
-        <v>44406</v>
-      </c>
-      <c r="Y25" s="6" t="n">
-        <v>44414</v>
-      </c>
-      <c r="Z25" s="5" t="inlineStr">
-        <is>
-          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
-        </is>
-      </c>
-      <c r="AA25" s="5" t="inlineStr">
-        <is>
-          <t>100% Completed</t>
-        </is>
-      </c>
-      <c r="AB25" s="7" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="5" t="inlineStr">
-        <is>
-          <t>GABALDON 2023</t>
-        </is>
-      </c>
-      <c r="B26" s="5" t="inlineStr">
-        <is>
-          <t>Region VI</t>
-        </is>
-      </c>
-      <c r="C26" s="5" t="inlineStr">
-        <is>
-          <t>Negros Occidental</t>
-        </is>
-      </c>
-      <c r="D26" s="5" t="n">
-        <v>117113</v>
-      </c>
-      <c r="E26" s="5" t="inlineStr">
-        <is>
-          <t>Hinigaran ES-A</t>
-        </is>
-      </c>
-      <c r="F26" s="5" t="inlineStr">
-        <is>
-          <t>HINIGARAN</t>
-        </is>
-      </c>
-      <c r="G26" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="H26" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" s="5" t="inlineStr">
-        <is>
-          <t>Restoration &amp; Conservation of Gabaldon Building</t>
-        </is>
-      </c>
-      <c r="L26" s="5" t="n">
-        <v>11443993.61</v>
-      </c>
-      <c r="M26" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" s="5" t="n">
-        <v>9126569.32</v>
-      </c>
-      <c r="O26" s="5" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
-      <c r="P26" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="5" t="inlineStr">
-        <is>
-          <t>7/24/2024</t>
-        </is>
-      </c>
-      <c r="R26" s="5" t="inlineStr">
-        <is>
-          <t>7/23/2024</t>
-        </is>
-      </c>
-      <c r="S26" s="5" t="n">
-        <v>38952</v>
-      </c>
-      <c r="T26" s="5" t="inlineStr">
-        <is>
-          <t>JO# 25-11-002</t>
-        </is>
-      </c>
-      <c r="U26" s="5" t="inlineStr">
-        <is>
-          <t>8/25/2023</t>
-        </is>
-      </c>
-      <c r="V26" s="6" t="n">
-        <v>44935</v>
-      </c>
-      <c r="W26" s="5" t="inlineStr">
-        <is>
-          <t>9/14/2023</t>
-        </is>
-      </c>
-      <c r="X26" s="5" t="inlineStr">
-        <is>
-          <t>No. 040 s. 2023</t>
-        </is>
-      </c>
-      <c r="Y26" s="5" t="inlineStr">
-        <is>
-          <t>12/27/2023</t>
-        </is>
-      </c>
-      <c r="Z26" s="5" t="inlineStr">
-        <is>
-          <t>CGGFR CONSTRUCTION AND CONSTRUCTION SUPPLY</t>
-        </is>
-      </c>
-      <c r="AA26" s="5" t="inlineStr"/>
-      <c r="AB26" s="7" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="5" t="inlineStr">
-        <is>
-          <t>GABALDON 2024</t>
-        </is>
-      </c>
-      <c r="B27" s="5" t="inlineStr">
-        <is>
-          <t>Region VI</t>
-        </is>
-      </c>
-      <c r="C27" s="5" t="inlineStr">
-        <is>
-          <t>Aklan</t>
-        </is>
-      </c>
-      <c r="D27" s="5" t="n">
-        <v>114850</v>
-      </c>
-      <c r="E27" s="5" t="inlineStr">
-        <is>
-          <t>Malay Elementary School</t>
-        </is>
-      </c>
-      <c r="F27" s="5" t="inlineStr">
-        <is>
-          <t>MALAY</t>
-        </is>
-      </c>
-      <c r="G27" s="5" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="H27" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J27" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" s="5" t="inlineStr">
-        <is>
-          <t>Conservation and Restoration of Gabaldon School Building</t>
-        </is>
-      </c>
-      <c r="L27" s="5" t="n">
-        <v>8597231.289999999</v>
-      </c>
-      <c r="M27" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" s="5" t="n">
-        <v>8562000</v>
-      </c>
-      <c r="O27" s="5" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
-      <c r="P27" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="5" t="inlineStr">
-        <is>
-          <t>1/20/2025</t>
-        </is>
-      </c>
-      <c r="R27" s="5" t="inlineStr">
-        <is>
-          <t>1/20/2025</t>
-        </is>
-      </c>
-      <c r="S27" s="5" t="inlineStr">
-        <is>
-          <t>DepEd-RO6-D1-2024GABALDON-012-2024</t>
-        </is>
-      </c>
-      <c r="T27" s="5" t="inlineStr">
-        <is>
-          <t>DepEd-RO6-D1-2024GABALDON-012-2024</t>
-        </is>
-      </c>
-      <c r="U27" s="6" t="n">
-        <v>45509</v>
-      </c>
-      <c r="V27" s="5" t="inlineStr">
-        <is>
-          <t>5/15/2024</t>
-        </is>
-      </c>
-      <c r="W27" s="5" t="inlineStr">
-        <is>
-          <t>5/27/2024</t>
-        </is>
-      </c>
-      <c r="X27" s="5" t="inlineStr">
-        <is>
-          <t>6/19/2024</t>
-        </is>
-      </c>
-      <c r="Y27" s="5" t="inlineStr">
-        <is>
-          <t>7/17/2024</t>
-        </is>
-      </c>
-      <c r="Z27" s="5" t="inlineStr">
-        <is>
-          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
-        </is>
-      </c>
-      <c r="AA27" s="5" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
-      <c r="AB27" s="7" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="5" t="inlineStr">
-        <is>
-          <t>GABALDON 2024</t>
-        </is>
-      </c>
-      <c r="B28" s="5" t="inlineStr">
-        <is>
-          <t>Region VI</t>
-        </is>
-      </c>
-      <c r="C28" s="5" t="inlineStr">
-        <is>
-          <t>Guimaras</t>
-        </is>
-      </c>
-      <c r="D28" s="5" t="n">
-        <v>115895</v>
-      </c>
-      <c r="E28" s="5" t="inlineStr">
-        <is>
-          <t>Igang Elementary School</t>
-        </is>
-      </c>
-      <c r="F28" s="5" t="inlineStr">
-        <is>
-          <t>NUEVA VALENCIA</t>
-        </is>
-      </c>
-      <c r="G28" s="5" t="inlineStr">
-        <is>
-          <t>Lone</t>
-        </is>
-      </c>
-      <c r="H28" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J28" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" s="5" t="inlineStr">
-        <is>
-          <t>Conservation and Restoration of Gabaldon School Building</t>
-        </is>
-      </c>
-      <c r="L28" s="5" t="n">
-        <v>7762335.08</v>
-      </c>
-      <c r="M28" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" s="5" t="n">
-        <v>7707000</v>
-      </c>
-      <c r="O28" s="5" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
-      <c r="P28" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="6" t="n">
-        <v>45363</v>
-      </c>
-      <c r="R28" s="6" t="n">
-        <v>45575</v>
-      </c>
-      <c r="S28" s="5" t="inlineStr">
-        <is>
-          <t>Project 04-2024</t>
-        </is>
-      </c>
-      <c r="T28" s="5" t="inlineStr">
-        <is>
-          <t>Project 04-2024</t>
-        </is>
-      </c>
-      <c r="U28" s="6" t="n">
-        <v>45294</v>
-      </c>
-      <c r="V28" s="6" t="n">
-        <v>45629</v>
-      </c>
-      <c r="W28" s="5" t="inlineStr">
-        <is>
-          <t>3/26/2024</t>
-        </is>
-      </c>
-      <c r="X28" s="5" t="inlineStr">
-        <is>
-          <t>6/25/2024</t>
-        </is>
-      </c>
-      <c r="Y28" s="6" t="n">
-        <v>45298</v>
-      </c>
-      <c r="Z28" s="5" t="inlineStr">
-        <is>
-          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
-        </is>
-      </c>
-      <c r="AA28" s="5" t="inlineStr">
-        <is>
-          <t>completed and turn-over</t>
-        </is>
-      </c>
-      <c r="AB28" s="7" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="5" t="inlineStr">
-        <is>
-          <t>GABALDON 2024</t>
-        </is>
-      </c>
-      <c r="B29" s="5" t="inlineStr">
-        <is>
-          <t>Region VI</t>
-        </is>
-      </c>
-      <c r="C29" s="5" t="inlineStr">
-        <is>
-          <t>Himamaylan City</t>
-        </is>
-      </c>
-      <c r="D29" s="5" t="n">
-        <v>117076</v>
-      </c>
-      <c r="E29" s="5" t="inlineStr">
-        <is>
-          <t>Himamaylan Central School</t>
-        </is>
-      </c>
-      <c r="F29" s="5" t="inlineStr">
-        <is>
-          <t>CITY OF HIMAMAYLAN</t>
-        </is>
-      </c>
-      <c r="G29" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5th </t>
-        </is>
-      </c>
-      <c r="H29" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="J29" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" s="5" t="inlineStr">
-        <is>
-          <t>Conservation and Restoration of Gabaldon School Building</t>
-        </is>
-      </c>
-      <c r="L29" s="5" t="n">
-        <v>13950000</v>
-      </c>
-      <c r="M29" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" s="5" t="n">
-        <v>13850000</v>
-      </c>
-      <c r="O29" s="5" t="inlineStr">
-        <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
-      <c r="P29" s="5" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="Q29" s="6" t="n">
-        <v>45663</v>
-      </c>
-      <c r="R29" s="5" t="inlineStr"/>
-      <c r="S29" s="5" t="inlineStr">
-        <is>
-          <t>IB-sdhc-082024-007</t>
-        </is>
-      </c>
-      <c r="T29" s="5" t="inlineStr">
-        <is>
-          <t>IB-sdhc-082024-007</t>
-        </is>
-      </c>
-      <c r="U29" s="5" t="inlineStr">
-        <is>
-          <t>8/14/2024</t>
-        </is>
-      </c>
-      <c r="V29" s="5" t="inlineStr">
-        <is>
-          <t>8/22/2024</t>
-        </is>
-      </c>
-      <c r="W29" s="6" t="n">
-        <v>45360</v>
-      </c>
-      <c r="X29" s="5" t="inlineStr">
-        <is>
-          <t>9/13/2024</t>
-        </is>
-      </c>
-      <c r="Y29" s="6" t="n">
-        <v>45931</v>
-      </c>
-      <c r="Z29" s="5" t="inlineStr">
-        <is>
-          <t>RISM BUILDERS AND CONSTRUCTION SERVICES</t>
-        </is>
-      </c>
-      <c r="AA29" s="5" t="inlineStr">
-        <is>
-          <t>for final inspection and punchlisting on June 7, 2025</t>
-        </is>
-      </c>
-      <c r="AB29" s="7" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="5" t="inlineStr">
-        <is>
-          <t>GABALDON 2024</t>
-        </is>
-      </c>
-      <c r="B30" s="5" t="inlineStr">
-        <is>
-          <t>Region VI</t>
-        </is>
-      </c>
-      <c r="C30" s="5" t="inlineStr">
-        <is>
-          <t>Iloilo</t>
-        </is>
-      </c>
-      <c r="D30" s="5" t="n">
-        <v>116839</v>
-      </c>
-      <c r="E30" s="5" t="inlineStr">
-        <is>
-          <t>Tigbauan CES</t>
-        </is>
-      </c>
-      <c r="F30" s="5" t="inlineStr">
-        <is>
-          <t>TIGBAUAN</t>
-        </is>
-      </c>
-      <c r="G30" s="5" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="H30" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="J30" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" s="5" t="inlineStr">
-        <is>
-          <t>Conservation and Restoration of Gabaldon School Building</t>
-        </is>
-      </c>
-      <c r="L30" s="5" t="n">
-        <v>13363220.1</v>
-      </c>
-      <c r="M30" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" s="5" t="n">
-        <v>13324432.63</v>
-      </c>
-      <c r="O30" s="5" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
-      <c r="P30" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="5" t="inlineStr">
-        <is>
-          <t>3/13/2025</t>
-        </is>
-      </c>
-      <c r="R30" s="6" t="n">
-        <v>45638</v>
-      </c>
-      <c r="S30" s="5" t="inlineStr">
-        <is>
-          <t>BEFF2024-RVI-ILOILO-022-GAB-L1</t>
-        </is>
-      </c>
-      <c r="T30" s="5" t="inlineStr">
-        <is>
-          <t>BEFF2024-RVI-ILOILO-022-GAB-L1</t>
-        </is>
-      </c>
-      <c r="U30" s="6" t="n">
-        <v>45446</v>
-      </c>
-      <c r="V30" s="5" t="inlineStr">
-        <is>
-          <t>3/21/2024</t>
-        </is>
-      </c>
-      <c r="W30" s="6" t="n">
-        <v>45326</v>
-      </c>
-      <c r="X30" s="5" t="inlineStr">
-        <is>
-          <t>5/17/2024</t>
-        </is>
-      </c>
-      <c r="Y30" s="5" t="inlineStr">
-        <is>
-          <t>7/15/2024</t>
-        </is>
-      </c>
-      <c r="Z30" s="5" t="inlineStr">
-        <is>
-          <t>EARLY RISER CONSTRUCTION</t>
-        </is>
-      </c>
-      <c r="AA30" s="5" t="inlineStr"/>
-      <c r="AB30" s="7" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="5" t="inlineStr">
-        <is>
-          <t>GABALDON 2024</t>
-        </is>
-      </c>
-      <c r="B31" s="5" t="inlineStr">
-        <is>
-          <t>Region VI</t>
-        </is>
-      </c>
-      <c r="C31" s="5" t="inlineStr">
-        <is>
-          <t>Iloilo</t>
-        </is>
-      </c>
-      <c r="D31" s="5" t="n">
-        <v>116394</v>
-      </c>
-      <c r="E31" s="5" t="inlineStr">
-        <is>
-          <t>Janiuay Pilot ES</t>
-        </is>
-      </c>
-      <c r="F31" s="5" t="inlineStr">
-        <is>
-          <t>JANIUAY</t>
-        </is>
-      </c>
-      <c r="G31" s="5" t="inlineStr">
-        <is>
-          <t>3rd</t>
-        </is>
-      </c>
-      <c r="H31" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="J31" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" s="5" t="inlineStr">
-        <is>
-          <t>Conservation and Restoration of Gabaldon School Building</t>
-        </is>
-      </c>
-      <c r="L31" s="5" t="n">
-        <v>8456526.869999999</v>
-      </c>
-      <c r="M31" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" s="5" t="n">
-        <v>8446849.01</v>
-      </c>
-      <c r="O31" s="5" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
-      <c r="P31" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="6" t="n">
-        <v>45992</v>
-      </c>
-      <c r="R31" s="6" t="n">
-        <v>45873</v>
-      </c>
-      <c r="S31" s="5" t="inlineStr">
-        <is>
-          <t>BEFF2024-RVI-ILOILO-022-GAB-L2</t>
-        </is>
-      </c>
-      <c r="T31" s="5" t="inlineStr">
-        <is>
-          <t>BEFF2024-RVI-ILOILO-022-GAB-L2</t>
-        </is>
-      </c>
-      <c r="U31" s="6" t="n">
-        <v>45446</v>
-      </c>
-      <c r="V31" s="5" t="inlineStr">
-        <is>
-          <t>3/21/2024</t>
-        </is>
-      </c>
-      <c r="W31" s="6" t="n">
-        <v>45326</v>
-      </c>
-      <c r="X31" s="5" t="inlineStr">
-        <is>
-          <t>5/17/2024</t>
-        </is>
-      </c>
-      <c r="Y31" s="5" t="inlineStr">
-        <is>
-          <t>7/15/2024</t>
-        </is>
-      </c>
-      <c r="Z31" s="5" t="inlineStr">
-        <is>
-          <t>EARLY RISER CONSTRUCTION</t>
-        </is>
-      </c>
-      <c r="AA31" s="5" t="inlineStr"/>
-      <c r="AB31" s="7" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="5" t="inlineStr">
-        <is>
-          <t>GABALDON 2024</t>
-        </is>
-      </c>
-      <c r="B32" s="5" t="inlineStr">
-        <is>
-          <t>Region VI</t>
-        </is>
-      </c>
-      <c r="C32" s="5" t="inlineStr">
-        <is>
-          <t>Iloilo</t>
-        </is>
-      </c>
-      <c r="D32" s="5" t="n">
-        <v>116777</v>
-      </c>
-      <c r="E32" s="5" t="inlineStr">
-        <is>
-          <t>Hugo T. Apelo MES</t>
-        </is>
-      </c>
-      <c r="F32" s="5" t="inlineStr">
-        <is>
-          <t>SARA</t>
-        </is>
-      </c>
-      <c r="G32" s="5" t="inlineStr">
-        <is>
-          <t>5th</t>
-        </is>
-      </c>
-      <c r="H32" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J32" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K32" s="5" t="inlineStr">
-        <is>
-          <t>Conservation and Restoration of Gabaldon School Building</t>
-        </is>
-      </c>
-      <c r="L32" s="5" t="n">
-        <v>3758099.02</v>
-      </c>
-      <c r="M32" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" s="5" t="n">
-        <v>3750285.99</v>
-      </c>
-      <c r="O32" s="5" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
-      <c r="P32" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="6" t="n">
-        <v>45547</v>
-      </c>
-      <c r="R32" s="5" t="inlineStr">
-        <is>
-          <t>10/29/2024</t>
-        </is>
-      </c>
-      <c r="S32" s="5" t="inlineStr">
-        <is>
-          <t>BEFF2024-RVI-ILOILO-022-GAB-L3</t>
-        </is>
-      </c>
-      <c r="T32" s="5" t="inlineStr">
-        <is>
-          <t>BEFF2024-RVI-ILOILO-022-GAB-L3</t>
-        </is>
-      </c>
-      <c r="U32" s="6" t="n">
-        <v>45446</v>
-      </c>
-      <c r="V32" s="5" t="inlineStr">
-        <is>
-          <t>3/21/2024</t>
-        </is>
-      </c>
-      <c r="W32" s="6" t="n">
-        <v>45326</v>
-      </c>
-      <c r="X32" s="5" t="inlineStr">
-        <is>
-          <t>5/17/2024</t>
-        </is>
-      </c>
-      <c r="Y32" s="6" t="n">
-        <v>45603</v>
-      </c>
-      <c r="Z32" s="5" t="inlineStr">
-        <is>
-          <t>ANJUSH BUILDERS</t>
-        </is>
-      </c>
-      <c r="AA32" s="5" t="inlineStr"/>
-      <c r="AB32" s="7" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="5" t="inlineStr">
-        <is>
-          <t>GABALDON 2024</t>
-        </is>
-      </c>
-      <c r="B33" s="5" t="inlineStr">
-        <is>
-          <t>Region VI</t>
-        </is>
-      </c>
-      <c r="C33" s="5" t="inlineStr">
-        <is>
-          <t>Negros Occidental</t>
-        </is>
-      </c>
-      <c r="D33" s="5" t="n">
-        <v>117429</v>
-      </c>
-      <c r="E33" s="5" t="inlineStr">
-        <is>
-          <t>Valladolid ES</t>
-        </is>
-      </c>
-      <c r="F33" s="5" t="inlineStr">
-        <is>
-          <t>VALLADOLID</t>
-        </is>
-      </c>
-      <c r="G33" s="5" t="inlineStr">
-        <is>
-          <t>4th</t>
-        </is>
-      </c>
-      <c r="H33" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="J33" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K33" s="5" t="inlineStr">
-        <is>
-          <t>Conservation and Restoration of Gabaldon School Building</t>
-        </is>
-      </c>
-      <c r="L33" s="5" t="n">
-        <v>13287607.81</v>
-      </c>
-      <c r="M33" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" s="5" t="n">
-        <v>8258170.51</v>
-      </c>
-      <c r="O33" s="5" t="inlineStr">
-        <is>
-          <t>Under Procurement</t>
-        </is>
-      </c>
-      <c r="P33" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="5" t="inlineStr"/>
-      <c r="R33" s="5" t="inlineStr"/>
-      <c r="S33" s="5" t="n">
-        <v>45717</v>
-      </c>
-      <c r="T33" s="5" t="inlineStr"/>
-      <c r="U33" s="5" t="inlineStr">
-        <is>
-          <t>12/27/2024</t>
-        </is>
-      </c>
-      <c r="V33" s="6" t="n">
-        <v>45809</v>
-      </c>
-      <c r="W33" s="5" t="inlineStr">
-        <is>
-          <t>1/20/2025</t>
-        </is>
-      </c>
-      <c r="X33" s="5" t="inlineStr">
-        <is>
-          <t>3/19/2025</t>
-        </is>
-      </c>
-      <c r="Y33" s="5" t="inlineStr"/>
-      <c r="Z33" s="5" t="inlineStr">
-        <is>
-          <t>CGGFR CONSTRUCTION AND CONSTRUCTION SUPPLY</t>
-        </is>
-      </c>
-      <c r="AA33" s="5" t="inlineStr">
-        <is>
-          <t>Request for the release of  Sub-ARO with RTAs was alredy submitted -still waiting from CO to provide us Sub-ARO.</t>
-        </is>
-      </c>
-      <c r="AB33" s="7" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="5" t="inlineStr">
-        <is>
-          <t>GABALDON 2024</t>
-        </is>
-      </c>
-      <c r="B34" s="5" t="inlineStr">
-        <is>
-          <t>Region VI</t>
-        </is>
-      </c>
-      <c r="C34" s="5" t="inlineStr">
-        <is>
-          <t>Negros Occidental</t>
-        </is>
-      </c>
-      <c r="D34" s="5" t="n">
-        <v>117154</v>
-      </c>
-      <c r="E34" s="5" t="inlineStr">
-        <is>
-          <t>Luis C. Tembrevilla ES</t>
-        </is>
-      </c>
-      <c r="F34" s="5" t="inlineStr">
-        <is>
-          <t>HINOBA-AN (ASIA)</t>
-        </is>
-      </c>
-      <c r="G34" s="5" t="inlineStr">
-        <is>
-          <t>6th</t>
-        </is>
-      </c>
-      <c r="H34" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="J34" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K34" s="5" t="inlineStr">
-        <is>
-          <t>Conservation and Restoration of Gabaldon School Building</t>
-        </is>
-      </c>
-      <c r="L34" s="5" t="n">
-        <v>16334630.93</v>
-      </c>
-      <c r="M34" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" s="5" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="O34" s="5" t="inlineStr">
-        <is>
-          <t>Under Procurement</t>
-        </is>
-      </c>
-      <c r="P34" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="5" t="inlineStr"/>
-      <c r="R34" s="5" t="inlineStr"/>
-      <c r="S34" s="5" t="n">
-        <v>45689</v>
-      </c>
-      <c r="T34" s="5" t="inlineStr"/>
-      <c r="U34" s="5" t="inlineStr">
-        <is>
-          <t>12/27/2024</t>
-        </is>
-      </c>
-      <c r="V34" s="6" t="n">
-        <v>45839</v>
-      </c>
-      <c r="W34" s="5" t="inlineStr">
-        <is>
-          <t>1/20/2025</t>
-        </is>
-      </c>
-      <c r="X34" s="5" t="inlineStr">
-        <is>
-          <t>3/19/2025</t>
-        </is>
-      </c>
-      <c r="Y34" s="5" t="inlineStr"/>
-      <c r="Z34" s="5" t="inlineStr">
-        <is>
-          <t>KEANNE CONSTRUCTION SERVICES</t>
-        </is>
-      </c>
-      <c r="AA34" s="5" t="inlineStr">
-        <is>
-          <t>Request for the release of  Sub-ARO with RTAs was alredy submitted -still waiting from CO to provide us Sub-ARO.</t>
-        </is>
-      </c>
-      <c r="AB34" s="7" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AB2:AB34" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AB2:AB24" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Filtered_By_Region/Region VI/Region VI_GABALDON.xlsx
+++ b/Filtered_By_Region/Region VI/Region VI_GABALDON.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB24"/>
+  <dimension ref="A1:AB16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -455,10 +455,10 @@
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="17" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="46" customWidth="1" min="5" max="5"/>
-    <col width="24" customWidth="1" min="6" max="6"/>
+    <col width="36" customWidth="1" min="5" max="5"/>
+    <col width="23" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
     <col width="23" customWidth="1" min="9" max="9"/>
@@ -740,30 +740,30 @@
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
-          <t>Bacolod City</t>
+          <t>Iloilo</t>
         </is>
       </c>
       <c r="D3" s="5" t="n">
-        <v>117449</v>
+        <v>116375</v>
       </c>
       <c r="E3" s="5" t="inlineStr">
         <is>
-          <t>Andres Bonifacio I ES</t>
+          <t>Igbaras CES</t>
         </is>
       </c>
       <c r="F3" s="5" t="inlineStr">
         <is>
-          <t>BACOLOD CITY (Capital)</t>
+          <t>IGBARAS</t>
         </is>
       </c>
       <c r="G3" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I3" s="5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J3" s="5" t="n">
         <v>1</v>
@@ -774,13 +774,13 @@
         </is>
       </c>
       <c r="L3" s="5" t="n">
-        <v>6638076.54</v>
+        <v>7538808.48</v>
       </c>
       <c r="M3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N3" s="5" t="n">
-        <v>4653000</v>
+        <v>5490282.08</v>
       </c>
       <c r="O3" s="5" t="inlineStr">
         <is>
@@ -791,42 +791,46 @@
         <v>1</v>
       </c>
       <c r="Q3" s="6" t="n">
-        <v>44557</v>
+        <v>44834</v>
       </c>
       <c r="R3" s="6" t="n">
-        <v>44557</v>
+        <v>44840</v>
       </c>
       <c r="S3" s="5" t="inlineStr">
         <is>
-          <t>r6bcd04142021-P25</t>
+          <t>Gab2020-RVI-022-ILOILO-B1-L1</t>
         </is>
       </c>
       <c r="T3" s="5" t="inlineStr">
         <is>
-          <t>r6bcd04142021-P25</t>
+          <t>Gab2020-RVI-022-ILOILO-B1-L1</t>
         </is>
       </c>
       <c r="U3" s="6" t="n">
-        <v>44302</v>
+        <v>43882</v>
       </c>
       <c r="V3" s="6" t="n">
-        <v>44312</v>
+        <v>43888</v>
       </c>
       <c r="W3" s="6" t="n">
-        <v>44326</v>
+        <v>43900</v>
       </c>
       <c r="X3" s="6" t="n">
-        <v>44337</v>
+        <v>44152</v>
       </c>
       <c r="Y3" s="6" t="n">
-        <v>44407</v>
+        <v>44172</v>
       </c>
       <c r="Z3" s="5" t="inlineStr">
         <is>
-          <t>RISM BUILDERS &amp; CONST. SERVICES INC.</t>
-        </is>
-      </c>
-      <c r="AA3" s="5" t="inlineStr"/>
+          <t>Four SG Enterprises</t>
+        </is>
+      </c>
+      <c r="AA3" s="5" t="inlineStr">
+        <is>
+          <t>On-going Rectification of Punchlisted Items</t>
+        </is>
+      </c>
       <c r="AB3" s="7" t="n"/>
     </row>
     <row r="4">
@@ -846,26 +850,26 @@
         </is>
       </c>
       <c r="D4" s="5" t="n">
-        <v>116375</v>
+        <v>116616</v>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>Igbaras CES</t>
+          <t>New Lucena CES</t>
         </is>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
-          <t>IGBARAS</t>
+          <t>NEW LUCENA</t>
         </is>
       </c>
       <c r="G4" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -876,13 +880,13 @@
         </is>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7538808.48</v>
+        <v>5645882.941165853</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>5490282.08</v>
+        <v>3604983.51</v>
       </c>
       <c r="O4" s="5" t="inlineStr">
         <is>
@@ -893,19 +897,19 @@
         <v>1</v>
       </c>
       <c r="Q4" s="6" t="n">
-        <v>44834</v>
+        <v>44329</v>
       </c>
       <c r="R4" s="6" t="n">
-        <v>44840</v>
+        <v>44550</v>
       </c>
       <c r="S4" s="5" t="inlineStr">
         <is>
-          <t>Gab2020-RVI-022-ILOILO-B1-L1</t>
+          <t>Gab2020-RVI-022-ILOILO-B1-L2</t>
         </is>
       </c>
       <c r="T4" s="5" t="inlineStr">
         <is>
-          <t>Gab2020-RVI-022-ILOILO-B1-L1</t>
+          <t>Gab2020-RVI-022-ILOILO-B1-L2</t>
         </is>
       </c>
       <c r="U4" s="6" t="n">
@@ -928,11 +932,7 @@
           <t>Four SG Enterprises</t>
         </is>
       </c>
-      <c r="AA4" s="5" t="inlineStr">
-        <is>
-          <t>On-going Rectification of Punchlisted Items</t>
-        </is>
-      </c>
+      <c r="AA4" s="5" t="inlineStr"/>
       <c r="AB4" s="7" t="n"/>
     </row>
     <row r="5">
@@ -952,20 +952,20 @@
         </is>
       </c>
       <c r="D5" s="5" t="n">
-        <v>116616</v>
+        <v>116119</v>
       </c>
       <c r="E5" s="5" t="inlineStr">
         <is>
-          <t>New Lucena CES</t>
+          <t>Cabatuan CES</t>
         </is>
       </c>
       <c r="F5" s="5" t="inlineStr">
         <is>
-          <t>NEW LUCENA</t>
+          <t>CABATUAN</t>
         </is>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5" s="5" t="n">
         <v>1</v>
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5645882.941165853</v>
+        <v>6311025.38</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>3604983.51</v>
+        <v>4526000</v>
       </c>
       <c r="O5" s="5" t="inlineStr">
         <is>
@@ -999,19 +999,19 @@
         <v>1</v>
       </c>
       <c r="Q5" s="6" t="n">
-        <v>44329</v>
+        <v>44331</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>44550</v>
+        <v>44459</v>
       </c>
       <c r="S5" s="5" t="inlineStr">
         <is>
-          <t>Gab2020-RVI-022-ILOILO-B1-L2</t>
+          <t>Gab2020-RVI-022-ILOILO-B1-L3</t>
         </is>
       </c>
       <c r="T5" s="5" t="inlineStr">
         <is>
-          <t>Gab2020-RVI-022-ILOILO-B1-L2</t>
+          <t>Gab2020-RVI-022-ILOILO-B1-L</t>
         </is>
       </c>
       <c r="U5" s="6" t="n">
@@ -1027,11 +1027,11 @@
         <v>44152</v>
       </c>
       <c r="Y5" s="6" t="n">
-        <v>44172</v>
+        <v>44174</v>
       </c>
       <c r="Z5" s="5" t="inlineStr">
         <is>
-          <t>Four SG Enterprises</t>
+          <t>RISM BUILDERS &amp; CONST. SERVICES INC.</t>
         </is>
       </c>
       <c r="AA5" s="5" t="inlineStr"/>
@@ -1054,26 +1054,26 @@
         </is>
       </c>
       <c r="D6" s="5" t="n">
-        <v>116119</v>
+        <v>116043</v>
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
-          <t>Cabatuan CES</t>
+          <t>Barotac Nuevo CES</t>
         </is>
       </c>
       <c r="F6" s="5" t="inlineStr">
         <is>
-          <t>CABATUAN</t>
+          <t>BAROTAC NUEVO</t>
         </is>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -1084,13 +1084,13 @@
         </is>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6311025.38</v>
+        <v>19897556.76641838</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>4526000</v>
+        <v>12905885.78</v>
       </c>
       <c r="O6" s="5" t="inlineStr">
         <is>
@@ -1100,20 +1100,22 @@
       <c r="P6" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q6" s="6" t="n">
-        <v>44331</v>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Ocober 30, 2022</t>
+        </is>
       </c>
       <c r="R6" s="6" t="n">
-        <v>44459</v>
+        <v>44831</v>
       </c>
       <c r="S6" s="5" t="inlineStr">
         <is>
-          <t>Gab2020-RVI-022-ILOILO-B1-L3</t>
+          <t>Gab2020-RVI-022-ILOILO-B1-L4</t>
         </is>
       </c>
       <c r="T6" s="5" t="inlineStr">
         <is>
-          <t>Gab2020-RVI-022-ILOILO-B1-L</t>
+          <t>Gab2020-RVI-022-ILOILO-B1-L4</t>
         </is>
       </c>
       <c r="U6" s="6" t="n">
@@ -1129,14 +1131,18 @@
         <v>44152</v>
       </c>
       <c r="Y6" s="6" t="n">
-        <v>44174</v>
+        <v>44172</v>
       </c>
       <c r="Z6" s="5" t="inlineStr">
         <is>
-          <t>RISM BUILDERS &amp; CONST. SERVICES INC.</t>
-        </is>
-      </c>
-      <c r="AA6" s="5" t="inlineStr"/>
+          <t>Four SG Enterprises</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>On-going but with slow workmanship</t>
+        </is>
+      </c>
       <c r="AB6" s="7" t="n"/>
     </row>
     <row r="7">
@@ -1156,26 +1162,26 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>116043</v>
+        <v>116349</v>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
-          <t>Barotac Nuevo CES</t>
+          <t>Estancia Central Elementary School</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
-          <t>BAROTAC NUEVO</t>
+          <t>ESTANCIA</t>
         </is>
       </c>
       <c r="G7" s="5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H7" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -1186,13 +1192,13 @@
         </is>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19897556.76641838</v>
+        <v>5863706.88</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>12905885.78</v>
+        <v>4204000</v>
       </c>
       <c r="O7" s="5" t="inlineStr">
         <is>
@@ -1202,13 +1208,11 @@
       <c r="P7" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q7" s="5" t="inlineStr">
-        <is>
-          <t>Ocober 30, 2022</t>
-        </is>
+      <c r="Q7" s="6" t="n">
+        <v>44522</v>
       </c>
       <c r="R7" s="6" t="n">
-        <v>44831</v>
+        <v>44481</v>
       </c>
       <c r="S7" s="5" t="inlineStr">
         <is>
@@ -1230,21 +1234,17 @@
         <v>43900</v>
       </c>
       <c r="X7" s="6" t="n">
-        <v>44152</v>
+        <v>44105</v>
       </c>
       <c r="Y7" s="6" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="Z7" s="5" t="inlineStr">
         <is>
-          <t>Four SG Enterprises</t>
-        </is>
-      </c>
-      <c r="AA7" s="5" t="inlineStr">
-        <is>
-          <t>On-going but with slow workmanship</t>
-        </is>
-      </c>
+          <t>RISM Builders and Merchandising</t>
+        </is>
+      </c>
+      <c r="AA7" s="5" t="inlineStr"/>
       <c r="AB7" s="7" t="n"/>
     </row>
     <row r="8">
@@ -1260,30 +1260,30 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>Iloilo</t>
+          <t>Iloilo City</t>
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>116349</v>
+        <v>117626</v>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>Estancia Central Elementary School</t>
+          <t>A. Montes ES I</t>
         </is>
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
-          <t>ESTANCIA</t>
+          <t>ILOILO CITY (Capital)</t>
         </is>
       </c>
       <c r="G8" s="5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -1294,14 +1294,12 @@
         </is>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5863706.88</v>
+        <v>16198458.88</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N8" s="5" t="n">
-        <v>4204000</v>
-      </c>
+      <c r="N8" s="5" t="inlineStr"/>
       <c r="O8" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1310,43 +1308,21 @@
       <c r="P8" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q8" s="6" t="n">
-        <v>44522</v>
-      </c>
-      <c r="R8" s="6" t="n">
-        <v>44481</v>
-      </c>
-      <c r="S8" s="5" t="inlineStr">
-        <is>
-          <t>Gab2020-RVI-022-ILOILO-B1-L4</t>
-        </is>
-      </c>
-      <c r="T8" s="5" t="inlineStr">
-        <is>
-          <t>Gab2020-RVI-022-ILOILO-B1-L4</t>
-        </is>
-      </c>
-      <c r="U8" s="6" t="n">
-        <v>43882</v>
-      </c>
-      <c r="V8" s="6" t="n">
-        <v>43888</v>
-      </c>
-      <c r="W8" s="6" t="n">
-        <v>43900</v>
-      </c>
-      <c r="X8" s="6" t="n">
-        <v>44105</v>
-      </c>
-      <c r="Y8" s="6" t="n">
-        <v>44369</v>
-      </c>
-      <c r="Z8" s="5" t="inlineStr">
-        <is>
-          <t>RISM Builders and Merchandising</t>
-        </is>
-      </c>
-      <c r="AA8" s="5" t="inlineStr"/>
+      <c r="Q8" s="5" t="inlineStr"/>
+      <c r="R8" s="5" t="inlineStr"/>
+      <c r="S8" s="5" t="inlineStr"/>
+      <c r="T8" s="5" t="inlineStr"/>
+      <c r="U8" s="5" t="inlineStr"/>
+      <c r="V8" s="5" t="inlineStr"/>
+      <c r="W8" s="5" t="inlineStr"/>
+      <c r="X8" s="5" t="inlineStr"/>
+      <c r="Y8" s="5" t="inlineStr"/>
+      <c r="Z8" s="5" t="inlineStr"/>
+      <c r="AA8" s="5" t="inlineStr">
+        <is>
+          <t>REQUEST FOR REALIGNMENT (Realignment of A. MONTES ES1 TO AREVALO ES 100%, RIZAL ES 100%, and ESTEBAN JUNTADOR SR. MEMORIAL ES 100%)</t>
+        </is>
+      </c>
       <c r="AB8" s="7" t="n"/>
     </row>
     <row r="9">
@@ -1366,11 +1342,11 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>117626</v>
+        <v>117629</v>
       </c>
       <c r="E9" s="5" t="inlineStr">
         <is>
-          <t>A. Montes ES I</t>
+          <t>Jalandoni MS</t>
         </is>
       </c>
       <c r="F9" s="5" t="inlineStr">
@@ -1385,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -1396,12 +1372,14 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>16198458.88</v>
+        <v>18915275.98</v>
       </c>
       <c r="M9" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N9" s="5" t="inlineStr"/>
+      <c r="N9" s="5" t="n">
+        <v>13229998.95</v>
+      </c>
       <c r="O9" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1410,19 +1388,47 @@
       <c r="P9" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q9" s="5" t="inlineStr"/>
-      <c r="R9" s="5" t="inlineStr"/>
-      <c r="S9" s="5" t="inlineStr"/>
-      <c r="T9" s="5" t="inlineStr"/>
-      <c r="U9" s="5" t="inlineStr"/>
-      <c r="V9" s="5" t="inlineStr"/>
-      <c r="W9" s="5" t="inlineStr"/>
-      <c r="X9" s="5" t="inlineStr"/>
-      <c r="Y9" s="5" t="inlineStr"/>
-      <c r="Z9" s="5" t="inlineStr"/>
+      <c r="Q9" s="6" t="n">
+        <v>44396</v>
+      </c>
+      <c r="R9" s="5" t="inlineStr">
+        <is>
+          <t>06:43:12</t>
+        </is>
+      </c>
+      <c r="S9" s="5" t="inlineStr">
+        <is>
+          <t>20-12-006</t>
+        </is>
+      </c>
+      <c r="T9" s="5" t="inlineStr">
+        <is>
+          <t>20-12-006</t>
+        </is>
+      </c>
+      <c r="U9" s="6" t="n">
+        <v>44141</v>
+      </c>
+      <c r="V9" s="6" t="n">
+        <v>44148</v>
+      </c>
+      <c r="W9" s="6" t="n">
+        <v>44162</v>
+      </c>
+      <c r="X9" s="6" t="n">
+        <v>44169</v>
+      </c>
+      <c r="Y9" s="6" t="n">
+        <v>44209</v>
+      </c>
+      <c r="Z9" s="5" t="inlineStr">
+        <is>
+          <t>4SG Enterprises</t>
+        </is>
+      </c>
       <c r="AA9" s="5" t="inlineStr">
         <is>
-          <t>REQUEST FOR REALIGNMENT (Realignment of A. MONTES ES1 TO AREVALO ES 100%, RIZAL ES 100%, and ESTEBAN JUNTADOR SR. MEMORIAL ES 100%)</t>
+          <t>COMPLETED</t>
         </is>
       </c>
       <c r="AB9" s="7" t="n"/>
@@ -1430,7 +1436,7 @@
     <row r="10">
       <c r="A10" s="5" t="inlineStr">
         <is>
-          <t>GABALDON 2020</t>
+          <t>GABALDON 2021</t>
         </is>
       </c>
       <c r="B10" s="5" t="inlineStr">
@@ -1440,30 +1446,30 @@
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>Iloilo City</t>
+          <t>Aklan</t>
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>117629</v>
+        <v>114738</v>
       </c>
       <c r="E10" s="5" t="inlineStr">
         <is>
-          <t>Jalandoni MS</t>
+          <t>Naisud CS</t>
         </is>
       </c>
       <c r="F10" s="5" t="inlineStr">
         <is>
-          <t>ILOILO CITY (Capital)</t>
+          <t>IBAJAY</t>
         </is>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1474,71 +1480,65 @@
         </is>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18915275.98</v>
+        <v>6399403</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>13229998.95</v>
+        <v>6335000</v>
       </c>
       <c r="O10" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>COMPLETED</t>
         </is>
       </c>
       <c r="P10" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q10" s="6" t="n">
-        <v>44396</v>
-      </c>
-      <c r="R10" s="5" t="inlineStr">
-        <is>
-          <t>06:43:12</t>
-        </is>
+        <v>44637</v>
+      </c>
+      <c r="R10" s="6" t="n">
+        <v>44624</v>
       </c>
       <c r="S10" s="5" t="inlineStr">
         <is>
-          <t>20-12-006</t>
+          <t>CY 2021 GABALDON - 001</t>
         </is>
       </c>
       <c r="T10" s="5" t="inlineStr">
         <is>
-          <t>20-12-006</t>
+          <t>CY 2021 GABALDON - 001</t>
         </is>
       </c>
       <c r="U10" s="6" t="n">
-        <v>44141</v>
+        <v>44347</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>44148</v>
+        <v>44354</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>44162</v>
+        <v>44368</v>
       </c>
       <c r="X10" s="6" t="n">
-        <v>44169</v>
+        <v>44389</v>
       </c>
       <c r="Y10" s="6" t="n">
-        <v>44209</v>
+        <v>44420</v>
       </c>
       <c r="Z10" s="5" t="inlineStr">
         <is>
-          <t>4SG Enterprises</t>
-        </is>
-      </c>
-      <c r="AA10" s="5" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
+          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
+        </is>
+      </c>
+      <c r="AA10" s="5" t="inlineStr"/>
       <c r="AB10" s="7" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="5" t="inlineStr">
         <is>
-          <t>GABALDON 2020</t>
+          <t>GABALDON 2021</t>
         </is>
       </c>
       <c r="B11" s="5" t="inlineStr">
@@ -1548,30 +1548,30 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>Kabankalan City</t>
+          <t>Iloilo</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>117858</v>
+        <v>116012</v>
       </c>
       <c r="E11" s="5" t="inlineStr">
         <is>
-          <t>Esteban R. Abada Memorial School(East)</t>
+          <t>Balasan CES</t>
         </is>
       </c>
       <c r="F11" s="5" t="inlineStr">
         <is>
-          <t>Kabankalan City</t>
+          <t>BALASAN</t>
         </is>
       </c>
       <c r="G11" s="5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H11" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -1582,37 +1582,63 @@
         </is>
       </c>
       <c r="L11" s="5" t="n">
-        <v>12934200.86</v>
+        <v>9800503</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N11" s="5" t="inlineStr"/>
+      <c r="N11" s="5" t="n">
+        <v>6455847.57</v>
+      </c>
       <c r="O11" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>COMPLETED</t>
         </is>
       </c>
       <c r="P11" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q11" s="5" t="inlineStr"/>
-      <c r="R11" s="5" t="inlineStr"/>
-      <c r="S11" s="5" t="inlineStr"/>
-      <c r="T11" s="5" t="inlineStr"/>
-      <c r="U11" s="5" t="inlineStr"/>
+      <c r="Q11" s="6" t="n">
+        <v>44522</v>
+      </c>
+      <c r="R11" s="6" t="n">
+        <v>44508</v>
+      </c>
+      <c r="S11" s="5" t="inlineStr">
+        <is>
+          <t>R-06-BEFF Gabaldon-2020-B2-L1</t>
+        </is>
+      </c>
+      <c r="T11" s="5" t="inlineStr">
+        <is>
+          <t>R-06-BEFF Gabaldon-2020-B2-L1</t>
+        </is>
+      </c>
+      <c r="U11" s="6" t="n">
+        <v>43882</v>
+      </c>
       <c r="V11" s="5" t="inlineStr"/>
-      <c r="W11" s="5" t="inlineStr"/>
-      <c r="X11" s="5" t="inlineStr"/>
-      <c r="Y11" s="5" t="inlineStr"/>
-      <c r="Z11" s="5" t="inlineStr"/>
+      <c r="W11" s="6" t="n">
+        <v>43900</v>
+      </c>
+      <c r="X11" s="6" t="n">
+        <v>44105</v>
+      </c>
+      <c r="Y11" s="6" t="n">
+        <v>44372</v>
+      </c>
+      <c r="Z11" s="5" t="inlineStr">
+        <is>
+          <t>Early Riser Construction</t>
+        </is>
+      </c>
       <c r="AA11" s="5" t="inlineStr"/>
       <c r="AB11" s="7" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="5" t="inlineStr">
         <is>
-          <t>GABALDON 2020</t>
+          <t>GABALDON 2024</t>
         </is>
       </c>
       <c r="B12" s="5" t="inlineStr">
@@ -1622,24 +1648,26 @@
       </c>
       <c r="C12" s="5" t="inlineStr">
         <is>
-          <t>La Carlota City</t>
+          <t>Aklan</t>
         </is>
       </c>
       <c r="D12" s="5" t="n">
-        <v>302751</v>
+        <v>114850</v>
       </c>
       <c r="E12" s="5" t="inlineStr">
         <is>
-          <t>Doña Hortencia Salas Benedicto NHS</t>
+          <t>Malay Elementary School</t>
         </is>
       </c>
       <c r="F12" s="5" t="inlineStr">
         <is>
-          <t>LA CARLOTA CITY</t>
-        </is>
-      </c>
-      <c r="G12" s="5" t="n">
-        <v>4</v>
+          <t>MALAY</t>
+        </is>
+      </c>
+      <c r="G12" s="5" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
       </c>
       <c r="H12" s="5" t="n">
         <v>1</v>
@@ -1652,21 +1680,21 @@
       </c>
       <c r="K12" s="5" t="inlineStr">
         <is>
-          <t>Rehabilitation of Gabaldon Building</t>
+          <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6732754.41</v>
+        <v>8597231.289999999</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>3835451.66</v>
+        <v>8562000</v>
       </c>
       <c r="O12" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="P12" s="5" t="n">
@@ -1674,25 +1702,55 @@
       </c>
       <c r="Q12" s="5" t="inlineStr">
         <is>
-          <t>October 18, 2021</t>
-        </is>
-      </c>
-      <c r="R12" s="5" t="inlineStr"/>
-      <c r="S12" s="5" t="inlineStr"/>
-      <c r="T12" s="5" t="inlineStr"/>
-      <c r="U12" s="5" t="inlineStr"/>
-      <c r="V12" s="5" t="inlineStr"/>
-      <c r="W12" s="5" t="inlineStr"/>
-      <c r="X12" s="5" t="inlineStr"/>
-      <c r="Y12" s="5" t="inlineStr"/>
+          <t>1/20/2025</t>
+        </is>
+      </c>
+      <c r="R12" s="5" t="inlineStr">
+        <is>
+          <t>1/20/2025</t>
+        </is>
+      </c>
+      <c r="S12" s="5" t="inlineStr">
+        <is>
+          <t>DepEd-RO6-D1-2024GABALDON-012-2024</t>
+        </is>
+      </c>
+      <c r="T12" s="5" t="inlineStr">
+        <is>
+          <t>DepEd-RO6-D1-2024GABALDON-012-2024</t>
+        </is>
+      </c>
+      <c r="U12" s="6" t="n">
+        <v>45509</v>
+      </c>
+      <c r="V12" s="5" t="inlineStr">
+        <is>
+          <t>5/15/2024</t>
+        </is>
+      </c>
+      <c r="W12" s="5" t="inlineStr">
+        <is>
+          <t>5/27/2024</t>
+        </is>
+      </c>
+      <c r="X12" s="5" t="inlineStr">
+        <is>
+          <t>6/19/2024</t>
+        </is>
+      </c>
+      <c r="Y12" s="5" t="inlineStr">
+        <is>
+          <t>7/17/2024</t>
+        </is>
+      </c>
       <c r="Z12" s="5" t="inlineStr">
         <is>
-          <t>FOUR SG ENTERPRISES</t>
+          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
       <c r="AA12" s="5" t="inlineStr">
         <is>
-          <t>Bidding Cancelled due to ECQ</t>
+          <t>COMPLETED</t>
         </is>
       </c>
       <c r="AB12" s="7" t="n"/>
@@ -1700,7 +1758,7 @@
     <row r="13">
       <c r="A13" s="5" t="inlineStr">
         <is>
-          <t>GABALDON 2020</t>
+          <t>GABALDON 2024</t>
         </is>
       </c>
       <c r="B13" s="5" t="inlineStr">
@@ -1710,24 +1768,26 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>Sagay City</t>
+          <t>Guimaras</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>117692</v>
+        <v>115895</v>
       </c>
       <c r="E13" s="5" t="inlineStr">
         <is>
-          <t>Elia T. Canoy Esperancilla Elementary School</t>
+          <t>Igang Elementary School</t>
         </is>
       </c>
       <c r="F13" s="5" t="inlineStr">
         <is>
-          <t>SAGAY CITY</t>
-        </is>
-      </c>
-      <c r="G13" s="5" t="n">
-        <v>2</v>
+          <t>NUEVA VALENCIA</t>
+        </is>
+      </c>
+      <c r="G13" s="5" t="inlineStr">
+        <is>
+          <t>Lone</t>
+        </is>
       </c>
       <c r="H13" s="5" t="n">
         <v>1</v>
@@ -1740,73 +1800,77 @@
       </c>
       <c r="K13" s="5" t="inlineStr">
         <is>
-          <t>Rehabilitation of Gabaldon Building</t>
+          <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2418204.21</v>
+        <v>7762335.08</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>1810000</v>
+        <v>7707000</v>
       </c>
       <c r="O13" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>COMPLETED</t>
         </is>
       </c>
       <c r="P13" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q13" s="5" t="inlineStr">
-        <is>
-          <t>December 16, 2021</t>
-        </is>
-      </c>
-      <c r="R13" s="5" t="inlineStr">
-        <is>
-          <t>August 21, 2021</t>
-        </is>
+      <c r="Q13" s="6" t="n">
+        <v>45363</v>
+      </c>
+      <c r="R13" s="6" t="n">
+        <v>45575</v>
       </c>
       <c r="S13" s="5" t="inlineStr">
         <is>
-          <t>02-2020</t>
+          <t>Project 04-2024</t>
         </is>
       </c>
       <c r="T13" s="5" t="inlineStr">
         <is>
-          <t>02-2020</t>
+          <t>Project 04-2024</t>
         </is>
       </c>
       <c r="U13" s="6" t="n">
-        <v>43886</v>
+        <v>45294</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>43893</v>
-      </c>
-      <c r="W13" s="6" t="n">
-        <v>43906</v>
-      </c>
-      <c r="X13" s="5" t="inlineStr"/>
-      <c r="Y13" s="5" t="inlineStr">
-        <is>
-          <t>June 21, 2021</t>
-        </is>
+        <v>45629</v>
+      </c>
+      <c r="W13" s="5" t="inlineStr">
+        <is>
+          <t>3/26/2024</t>
+        </is>
+      </c>
+      <c r="X13" s="5" t="inlineStr">
+        <is>
+          <t>6/25/2024</t>
+        </is>
+      </c>
+      <c r="Y13" s="6" t="n">
+        <v>45298</v>
       </c>
       <c r="Z13" s="5" t="inlineStr">
         <is>
-          <t>RISM BUILDERS &amp; CONSTRUCTION SERVICES, INC.</t>
-        </is>
-      </c>
-      <c r="AA13" s="5" t="inlineStr"/>
+          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
+        </is>
+      </c>
+      <c r="AA13" s="5" t="inlineStr">
+        <is>
+          <t>completed and turn-over</t>
+        </is>
+      </c>
       <c r="AB13" s="7" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="5" t="inlineStr">
         <is>
-          <t>GABALDON 2020</t>
+          <t>GABALDON 2024</t>
         </is>
       </c>
       <c r="B14" s="5" t="inlineStr">
@@ -1816,107 +1880,109 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>Silay City</t>
+          <t>Iloilo</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>117804</v>
+        <v>116839</v>
       </c>
       <c r="E14" s="5" t="inlineStr">
         <is>
-          <t>Silay South Elementary School</t>
+          <t>Tigbauan CES</t>
         </is>
       </c>
       <c r="F14" s="5" t="inlineStr">
         <is>
-          <t>SAGAY CITY</t>
-        </is>
-      </c>
-      <c r="G14" s="5" t="n">
-        <v>3</v>
+          <t>TIGBAUAN</t>
+        </is>
+      </c>
+      <c r="G14" s="5" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
       </c>
       <c r="H14" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K14" s="5" t="inlineStr">
         <is>
-          <t>Rehabilitation of Gabaldon Building</t>
+          <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
       <c r="L14" s="5" t="n">
-        <v>24820703.04</v>
+        <v>13363220.1</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>20338749.46</v>
+        <v>13324432.63</v>
       </c>
       <c r="O14" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>COMPLETED</t>
         </is>
       </c>
       <c r="P14" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q14" s="6" t="n">
-        <v>44834</v>
-      </c>
-      <c r="R14" s="5" t="inlineStr"/>
-      <c r="S14" s="5" t="inlineStr"/>
+      <c r="Q14" s="5" t="inlineStr">
+        <is>
+          <t>3/13/2025</t>
+        </is>
+      </c>
+      <c r="R14" s="6" t="n">
+        <v>45638</v>
+      </c>
+      <c r="S14" s="5" t="inlineStr">
+        <is>
+          <t>BEFF2024-RVI-ILOILO-022-GAB-L1</t>
+        </is>
+      </c>
       <c r="T14" s="5" t="inlineStr">
         <is>
-          <t>R6-D18-GAB-B2-2020</t>
-        </is>
-      </c>
-      <c r="U14" s="5" t="inlineStr">
-        <is>
-          <t>March 27, 2020</t>
-        </is>
+          <t>BEFF2024-RVI-ILOILO-022-GAB-L1</t>
+        </is>
+      </c>
+      <c r="U14" s="6" t="n">
+        <v>45446</v>
       </c>
       <c r="V14" s="5" t="inlineStr">
         <is>
-          <t>May 7, 2020</t>
-        </is>
-      </c>
-      <c r="W14" s="5" t="inlineStr">
-        <is>
-          <t>May 19, 2020</t>
-        </is>
+          <t>3/21/2024</t>
+        </is>
+      </c>
+      <c r="W14" s="6" t="n">
+        <v>45326</v>
       </c>
       <c r="X14" s="5" t="inlineStr">
         <is>
-          <t>June 18, 2021</t>
+          <t>5/17/2024</t>
         </is>
       </c>
       <c r="Y14" s="5" t="inlineStr">
         <is>
-          <t>July 27, 2021</t>
+          <t>7/15/2024</t>
         </is>
       </c>
       <c r="Z14" s="5" t="inlineStr">
         <is>
-          <t>FOUR SG ENTERPRISES</t>
-        </is>
-      </c>
-      <c r="AA14" s="5" t="inlineStr">
-        <is>
-          <t>On-going Rectification of Punchlisted Items</t>
-        </is>
-      </c>
+          <t>EARLY RISER CONSTRUCTION</t>
+        </is>
+      </c>
+      <c r="AA14" s="5" t="inlineStr"/>
       <c r="AB14" s="7" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="inlineStr">
         <is>
-          <t>GABALDON 2021</t>
+          <t>GABALDON 2024</t>
         </is>
       </c>
       <c r="B15" s="5" t="inlineStr">
@@ -1926,47 +1992,49 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>Aklan</t>
+          <t>Iloilo</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>114738</v>
+        <v>116394</v>
       </c>
       <c r="E15" s="5" t="inlineStr">
         <is>
-          <t>Naisud CS</t>
+          <t>Janiuay Pilot ES</t>
         </is>
       </c>
       <c r="F15" s="5" t="inlineStr">
         <is>
-          <t>IBAJAY</t>
-        </is>
-      </c>
-      <c r="G15" s="5" t="n">
-        <v>2</v>
+          <t>JANIUAY</t>
+        </is>
+      </c>
+      <c r="G15" s="5" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
       </c>
       <c r="H15" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K15" s="5" t="inlineStr">
         <is>
-          <t>Rehabilitation of Gabaldon Building</t>
+          <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
       <c r="L15" s="5" t="n">
-        <v>6399403</v>
+        <v>8456526.869999999</v>
       </c>
       <c r="M15" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>6335000</v>
+        <v>8446849.01</v>
       </c>
       <c r="O15" s="5" t="inlineStr">
         <is>
@@ -1977,39 +2045,45 @@
         <v>1</v>
       </c>
       <c r="Q15" s="6" t="n">
-        <v>44637</v>
+        <v>45992</v>
       </c>
       <c r="R15" s="6" t="n">
-        <v>44624</v>
+        <v>45873</v>
       </c>
       <c r="S15" s="5" t="inlineStr">
         <is>
-          <t>CY 2021 GABALDON - 001</t>
+          <t>BEFF2024-RVI-ILOILO-022-GAB-L2</t>
         </is>
       </c>
       <c r="T15" s="5" t="inlineStr">
         <is>
-          <t>CY 2021 GABALDON - 001</t>
+          <t>BEFF2024-RVI-ILOILO-022-GAB-L2</t>
         </is>
       </c>
       <c r="U15" s="6" t="n">
-        <v>44347</v>
-      </c>
-      <c r="V15" s="6" t="n">
-        <v>44354</v>
+        <v>45446</v>
+      </c>
+      <c r="V15" s="5" t="inlineStr">
+        <is>
+          <t>3/21/2024</t>
+        </is>
       </c>
       <c r="W15" s="6" t="n">
-        <v>44368</v>
-      </c>
-      <c r="X15" s="6" t="n">
-        <v>44389</v>
-      </c>
-      <c r="Y15" s="6" t="n">
-        <v>44420</v>
+        <v>45326</v>
+      </c>
+      <c r="X15" s="5" t="inlineStr">
+        <is>
+          <t>5/17/2024</t>
+        </is>
+      </c>
+      <c r="Y15" s="5" t="inlineStr">
+        <is>
+          <t>7/15/2024</t>
+        </is>
       </c>
       <c r="Z15" s="5" t="inlineStr">
         <is>
-          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
+          <t>EARLY RISER CONSTRUCTION</t>
         </is>
       </c>
       <c r="AA15" s="5" t="inlineStr"/>
@@ -2018,7 +2092,7 @@
     <row r="16">
       <c r="A16" s="5" t="inlineStr">
         <is>
-          <t>GABALDON 2021</t>
+          <t>GABALDON 2024</t>
         </is>
       </c>
       <c r="B16" s="5" t="inlineStr">
@@ -2032,43 +2106,45 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>116012</v>
+        <v>116777</v>
       </c>
       <c r="E16" s="5" t="inlineStr">
         <is>
-          <t>Balasan CES</t>
+          <t>Hugo T. Apelo MES</t>
         </is>
       </c>
       <c r="F16" s="5" t="inlineStr">
         <is>
-          <t>BALASAN</t>
-        </is>
-      </c>
-      <c r="G16" s="5" t="n">
-        <v>5</v>
+          <t>SARA</t>
+        </is>
+      </c>
+      <c r="G16" s="5" t="inlineStr">
+        <is>
+          <t>5th</t>
+        </is>
       </c>
       <c r="H16" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K16" s="5" t="inlineStr">
         <is>
-          <t>Rehabilitation of Gabaldon Building</t>
+          <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9800503</v>
+        <v>3758099.02</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>6455847.57</v>
+        <v>3750285.99</v>
       </c>
       <c r="O16" s="5" t="inlineStr">
         <is>
@@ -2079,933 +2155,53 @@
         <v>1</v>
       </c>
       <c r="Q16" s="6" t="n">
-        <v>44522</v>
-      </c>
-      <c r="R16" s="6" t="n">
-        <v>44508</v>
+        <v>45547</v>
+      </c>
+      <c r="R16" s="5" t="inlineStr">
+        <is>
+          <t>10/29/2024</t>
+        </is>
       </c>
       <c r="S16" s="5" t="inlineStr">
         <is>
-          <t>R-06-BEFF Gabaldon-2020-B2-L1</t>
+          <t>BEFF2024-RVI-ILOILO-022-GAB-L3</t>
         </is>
       </c>
       <c r="T16" s="5" t="inlineStr">
         <is>
-          <t>R-06-BEFF Gabaldon-2020-B2-L1</t>
+          <t>BEFF2024-RVI-ILOILO-022-GAB-L3</t>
         </is>
       </c>
       <c r="U16" s="6" t="n">
-        <v>43882</v>
-      </c>
-      <c r="V16" s="5" t="inlineStr"/>
+        <v>45446</v>
+      </c>
+      <c r="V16" s="5" t="inlineStr">
+        <is>
+          <t>3/21/2024</t>
+        </is>
+      </c>
       <c r="W16" s="6" t="n">
-        <v>43900</v>
-      </c>
-      <c r="X16" s="6" t="n">
-        <v>44105</v>
+        <v>45326</v>
+      </c>
+      <c r="X16" s="5" t="inlineStr">
+        <is>
+          <t>5/17/2024</t>
+        </is>
       </c>
       <c r="Y16" s="6" t="n">
-        <v>44372</v>
+        <v>45603</v>
       </c>
       <c r="Z16" s="5" t="inlineStr">
         <is>
-          <t>Early Riser Construction</t>
+          <t>ANJUSH BUILDERS</t>
         </is>
       </c>
       <c r="AA16" s="5" t="inlineStr"/>
       <c r="AB16" s="7" t="n"/>
     </row>
-    <row r="17">
-      <c r="A17" s="5" t="inlineStr">
-        <is>
-          <t>GABALDON 2021</t>
-        </is>
-      </c>
-      <c r="B17" s="5" t="inlineStr">
-        <is>
-          <t>Region VI</t>
-        </is>
-      </c>
-      <c r="C17" s="5" t="inlineStr">
-        <is>
-          <t>San Carlos City</t>
-        </is>
-      </c>
-      <c r="D17" s="5" t="n">
-        <v>117772</v>
-      </c>
-      <c r="E17" s="5" t="inlineStr">
-        <is>
-          <t>Codcod ES</t>
-        </is>
-      </c>
-      <c r="F17" s="5" t="inlineStr">
-        <is>
-          <t>San Carlos City</t>
-        </is>
-      </c>
-      <c r="G17" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" s="5" t="inlineStr">
-        <is>
-          <t>Completion of Abandoned Gabaldon</t>
-        </is>
-      </c>
-      <c r="L17" s="5" t="n">
-        <v>396661</v>
-      </c>
-      <c r="M17" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" s="5" t="n">
-        <v>393994.87</v>
-      </c>
-      <c r="O17" s="5" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
-      <c r="P17" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="6" t="n">
-        <v>44556</v>
-      </c>
-      <c r="R17" s="6" t="n">
-        <v>44487</v>
-      </c>
-      <c r="S17" s="5" t="inlineStr">
-        <is>
-          <t>7774758-2021-GABALDON</t>
-        </is>
-      </c>
-      <c r="T17" s="5" t="inlineStr">
-        <is>
-          <t>7774758-2021-GABALDON</t>
-        </is>
-      </c>
-      <c r="U17" s="6" t="n">
-        <v>44364</v>
-      </c>
-      <c r="V17" s="6" t="n">
-        <v>44372</v>
-      </c>
-      <c r="W17" s="6" t="n">
-        <v>44384</v>
-      </c>
-      <c r="X17" s="6" t="n">
-        <v>44406</v>
-      </c>
-      <c r="Y17" s="6" t="n">
-        <v>44414</v>
-      </c>
-      <c r="Z17" s="5" t="inlineStr">
-        <is>
-          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
-        </is>
-      </c>
-      <c r="AA17" s="5" t="inlineStr">
-        <is>
-          <t>100% Completed</t>
-        </is>
-      </c>
-      <c r="AB17" s="7" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="5" t="inlineStr">
-        <is>
-          <t>GABALDON 2021</t>
-        </is>
-      </c>
-      <c r="B18" s="5" t="inlineStr">
-        <is>
-          <t>Region VI</t>
-        </is>
-      </c>
-      <c r="C18" s="5" t="inlineStr">
-        <is>
-          <t>San Carlos City</t>
-        </is>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>117788</v>
-      </c>
-      <c r="E18" s="5" t="inlineStr">
-        <is>
-          <t>Katingal-an ES</t>
-        </is>
-      </c>
-      <c r="F18" s="5" t="inlineStr">
-        <is>
-          <t>San Carlos City</t>
-        </is>
-      </c>
-      <c r="G18" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="J18" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" s="5" t="inlineStr">
-        <is>
-          <t>Completion of Abandoned Gabaldon</t>
-        </is>
-      </c>
-      <c r="L18" s="5" t="n">
-        <v>1511665</v>
-      </c>
-      <c r="M18" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" s="5" t="n">
-        <v>1501505.13</v>
-      </c>
-      <c r="O18" s="5" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
-      <c r="P18" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="6" t="n">
-        <v>44556</v>
-      </c>
-      <c r="R18" s="6" t="n">
-        <v>44550</v>
-      </c>
-      <c r="S18" s="5" t="inlineStr">
-        <is>
-          <t>7774758-2021-GABALDON</t>
-        </is>
-      </c>
-      <c r="T18" s="5" t="inlineStr">
-        <is>
-          <t>7774758-2021-GABALDON</t>
-        </is>
-      </c>
-      <c r="U18" s="6" t="n">
-        <v>44364</v>
-      </c>
-      <c r="V18" s="6" t="n">
-        <v>44372</v>
-      </c>
-      <c r="W18" s="6" t="n">
-        <v>44384</v>
-      </c>
-      <c r="X18" s="6" t="n">
-        <v>44406</v>
-      </c>
-      <c r="Y18" s="6" t="n">
-        <v>44414</v>
-      </c>
-      <c r="Z18" s="5" t="inlineStr">
-        <is>
-          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
-        </is>
-      </c>
-      <c r="AA18" s="5" t="inlineStr">
-        <is>
-          <t>100% Completed</t>
-        </is>
-      </c>
-      <c r="AB18" s="7" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="5" t="inlineStr">
-        <is>
-          <t>GABALDON 2024</t>
-        </is>
-      </c>
-      <c r="B19" s="5" t="inlineStr">
-        <is>
-          <t>Region VI</t>
-        </is>
-      </c>
-      <c r="C19" s="5" t="inlineStr">
-        <is>
-          <t>Aklan</t>
-        </is>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>114850</v>
-      </c>
-      <c r="E19" s="5" t="inlineStr">
-        <is>
-          <t>Malay Elementary School</t>
-        </is>
-      </c>
-      <c r="F19" s="5" t="inlineStr">
-        <is>
-          <t>MALAY</t>
-        </is>
-      </c>
-      <c r="G19" s="5" t="inlineStr">
-        <is>
-          <t>2nd</t>
-        </is>
-      </c>
-      <c r="H19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="5" t="inlineStr">
-        <is>
-          <t>Conservation and Restoration of Gabaldon School Building</t>
-        </is>
-      </c>
-      <c r="L19" s="5" t="n">
-        <v>8597231.289999999</v>
-      </c>
-      <c r="M19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" s="5" t="n">
-        <v>8562000</v>
-      </c>
-      <c r="O19" s="5" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
-      <c r="P19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="5" t="inlineStr">
-        <is>
-          <t>1/20/2025</t>
-        </is>
-      </c>
-      <c r="R19" s="5" t="inlineStr">
-        <is>
-          <t>1/20/2025</t>
-        </is>
-      </c>
-      <c r="S19" s="5" t="inlineStr">
-        <is>
-          <t>DepEd-RO6-D1-2024GABALDON-012-2024</t>
-        </is>
-      </c>
-      <c r="T19" s="5" t="inlineStr">
-        <is>
-          <t>DepEd-RO6-D1-2024GABALDON-012-2024</t>
-        </is>
-      </c>
-      <c r="U19" s="6" t="n">
-        <v>45509</v>
-      </c>
-      <c r="V19" s="5" t="inlineStr">
-        <is>
-          <t>5/15/2024</t>
-        </is>
-      </c>
-      <c r="W19" s="5" t="inlineStr">
-        <is>
-          <t>5/27/2024</t>
-        </is>
-      </c>
-      <c r="X19" s="5" t="inlineStr">
-        <is>
-          <t>6/19/2024</t>
-        </is>
-      </c>
-      <c r="Y19" s="5" t="inlineStr">
-        <is>
-          <t>7/17/2024</t>
-        </is>
-      </c>
-      <c r="Z19" s="5" t="inlineStr">
-        <is>
-          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
-        </is>
-      </c>
-      <c r="AA19" s="5" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
-      <c r="AB19" s="7" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="5" t="inlineStr">
-        <is>
-          <t>GABALDON 2024</t>
-        </is>
-      </c>
-      <c r="B20" s="5" t="inlineStr">
-        <is>
-          <t>Region VI</t>
-        </is>
-      </c>
-      <c r="C20" s="5" t="inlineStr">
-        <is>
-          <t>Guimaras</t>
-        </is>
-      </c>
-      <c r="D20" s="5" t="n">
-        <v>115895</v>
-      </c>
-      <c r="E20" s="5" t="inlineStr">
-        <is>
-          <t>Igang Elementary School</t>
-        </is>
-      </c>
-      <c r="F20" s="5" t="inlineStr">
-        <is>
-          <t>NUEVA VALENCIA</t>
-        </is>
-      </c>
-      <c r="G20" s="5" t="inlineStr">
-        <is>
-          <t>Lone</t>
-        </is>
-      </c>
-      <c r="H20" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J20" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" s="5" t="inlineStr">
-        <is>
-          <t>Conservation and Restoration of Gabaldon School Building</t>
-        </is>
-      </c>
-      <c r="L20" s="5" t="n">
-        <v>7762335.08</v>
-      </c>
-      <c r="M20" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" s="5" t="n">
-        <v>7707000</v>
-      </c>
-      <c r="O20" s="5" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
-      <c r="P20" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="6" t="n">
-        <v>45363</v>
-      </c>
-      <c r="R20" s="6" t="n">
-        <v>45575</v>
-      </c>
-      <c r="S20" s="5" t="inlineStr">
-        <is>
-          <t>Project 04-2024</t>
-        </is>
-      </c>
-      <c r="T20" s="5" t="inlineStr">
-        <is>
-          <t>Project 04-2024</t>
-        </is>
-      </c>
-      <c r="U20" s="6" t="n">
-        <v>45294</v>
-      </c>
-      <c r="V20" s="6" t="n">
-        <v>45629</v>
-      </c>
-      <c r="W20" s="5" t="inlineStr">
-        <is>
-          <t>3/26/2024</t>
-        </is>
-      </c>
-      <c r="X20" s="5" t="inlineStr">
-        <is>
-          <t>6/25/2024</t>
-        </is>
-      </c>
-      <c r="Y20" s="6" t="n">
-        <v>45298</v>
-      </c>
-      <c r="Z20" s="5" t="inlineStr">
-        <is>
-          <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
-        </is>
-      </c>
-      <c r="AA20" s="5" t="inlineStr">
-        <is>
-          <t>completed and turn-over</t>
-        </is>
-      </c>
-      <c r="AB20" s="7" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="5" t="inlineStr">
-        <is>
-          <t>GABALDON 2024</t>
-        </is>
-      </c>
-      <c r="B21" s="5" t="inlineStr">
-        <is>
-          <t>Region VI</t>
-        </is>
-      </c>
-      <c r="C21" s="5" t="inlineStr">
-        <is>
-          <t>Himamaylan City</t>
-        </is>
-      </c>
-      <c r="D21" s="5" t="n">
-        <v>117076</v>
-      </c>
-      <c r="E21" s="5" t="inlineStr">
-        <is>
-          <t>Himamaylan Central School</t>
-        </is>
-      </c>
-      <c r="F21" s="5" t="inlineStr">
-        <is>
-          <t>CITY OF HIMAMAYLAN</t>
-        </is>
-      </c>
-      <c r="G21" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5th </t>
-        </is>
-      </c>
-      <c r="H21" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="J21" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" s="5" t="inlineStr">
-        <is>
-          <t>Conservation and Restoration of Gabaldon School Building</t>
-        </is>
-      </c>
-      <c r="L21" s="5" t="n">
-        <v>13950000</v>
-      </c>
-      <c r="M21" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" s="5" t="n">
-        <v>13850000</v>
-      </c>
-      <c r="O21" s="5" t="inlineStr">
-        <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
-      <c r="P21" s="5" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="Q21" s="6" t="n">
-        <v>45663</v>
-      </c>
-      <c r="R21" s="5" t="inlineStr"/>
-      <c r="S21" s="5" t="inlineStr">
-        <is>
-          <t>IB-sdhc-082024-007</t>
-        </is>
-      </c>
-      <c r="T21" s="5" t="inlineStr">
-        <is>
-          <t>IB-sdhc-082024-007</t>
-        </is>
-      </c>
-      <c r="U21" s="5" t="inlineStr">
-        <is>
-          <t>8/14/2024</t>
-        </is>
-      </c>
-      <c r="V21" s="5" t="inlineStr">
-        <is>
-          <t>8/22/2024</t>
-        </is>
-      </c>
-      <c r="W21" s="6" t="n">
-        <v>45360</v>
-      </c>
-      <c r="X21" s="5" t="inlineStr">
-        <is>
-          <t>9/13/2024</t>
-        </is>
-      </c>
-      <c r="Y21" s="6" t="n">
-        <v>45931</v>
-      </c>
-      <c r="Z21" s="5" t="inlineStr">
-        <is>
-          <t>RISM BUILDERS AND CONSTRUCTION SERVICES</t>
-        </is>
-      </c>
-      <c r="AA21" s="5" t="inlineStr">
-        <is>
-          <t>for final inspection and punchlisting on June 7, 2025</t>
-        </is>
-      </c>
-      <c r="AB21" s="7" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="5" t="inlineStr">
-        <is>
-          <t>GABALDON 2024</t>
-        </is>
-      </c>
-      <c r="B22" s="5" t="inlineStr">
-        <is>
-          <t>Region VI</t>
-        </is>
-      </c>
-      <c r="C22" s="5" t="inlineStr">
-        <is>
-          <t>Iloilo</t>
-        </is>
-      </c>
-      <c r="D22" s="5" t="n">
-        <v>116839</v>
-      </c>
-      <c r="E22" s="5" t="inlineStr">
-        <is>
-          <t>Tigbauan CES</t>
-        </is>
-      </c>
-      <c r="F22" s="5" t="inlineStr">
-        <is>
-          <t>TIGBAUAN</t>
-        </is>
-      </c>
-      <c r="G22" s="5" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="J22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" s="5" t="inlineStr">
-        <is>
-          <t>Conservation and Restoration of Gabaldon School Building</t>
-        </is>
-      </c>
-      <c r="L22" s="5" t="n">
-        <v>13363220.1</v>
-      </c>
-      <c r="M22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" s="5" t="n">
-        <v>13324432.63</v>
-      </c>
-      <c r="O22" s="5" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
-      <c r="P22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="5" t="inlineStr">
-        <is>
-          <t>3/13/2025</t>
-        </is>
-      </c>
-      <c r="R22" s="6" t="n">
-        <v>45638</v>
-      </c>
-      <c r="S22" s="5" t="inlineStr">
-        <is>
-          <t>BEFF2024-RVI-ILOILO-022-GAB-L1</t>
-        </is>
-      </c>
-      <c r="T22" s="5" t="inlineStr">
-        <is>
-          <t>BEFF2024-RVI-ILOILO-022-GAB-L1</t>
-        </is>
-      </c>
-      <c r="U22" s="6" t="n">
-        <v>45446</v>
-      </c>
-      <c r="V22" s="5" t="inlineStr">
-        <is>
-          <t>3/21/2024</t>
-        </is>
-      </c>
-      <c r="W22" s="6" t="n">
-        <v>45326</v>
-      </c>
-      <c r="X22" s="5" t="inlineStr">
-        <is>
-          <t>5/17/2024</t>
-        </is>
-      </c>
-      <c r="Y22" s="5" t="inlineStr">
-        <is>
-          <t>7/15/2024</t>
-        </is>
-      </c>
-      <c r="Z22" s="5" t="inlineStr">
-        <is>
-          <t>EARLY RISER CONSTRUCTION</t>
-        </is>
-      </c>
-      <c r="AA22" s="5" t="inlineStr"/>
-      <c r="AB22" s="7" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="5" t="inlineStr">
-        <is>
-          <t>GABALDON 2024</t>
-        </is>
-      </c>
-      <c r="B23" s="5" t="inlineStr">
-        <is>
-          <t>Region VI</t>
-        </is>
-      </c>
-      <c r="C23" s="5" t="inlineStr">
-        <is>
-          <t>Iloilo</t>
-        </is>
-      </c>
-      <c r="D23" s="5" t="n">
-        <v>116394</v>
-      </c>
-      <c r="E23" s="5" t="inlineStr">
-        <is>
-          <t>Janiuay Pilot ES</t>
-        </is>
-      </c>
-      <c r="F23" s="5" t="inlineStr">
-        <is>
-          <t>JANIUAY</t>
-        </is>
-      </c>
-      <c r="G23" s="5" t="inlineStr">
-        <is>
-          <t>3rd</t>
-        </is>
-      </c>
-      <c r="H23" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="J23" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" s="5" t="inlineStr">
-        <is>
-          <t>Conservation and Restoration of Gabaldon School Building</t>
-        </is>
-      </c>
-      <c r="L23" s="5" t="n">
-        <v>8456526.869999999</v>
-      </c>
-      <c r="M23" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" s="5" t="n">
-        <v>8446849.01</v>
-      </c>
-      <c r="O23" s="5" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
-      <c r="P23" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="6" t="n">
-        <v>45992</v>
-      </c>
-      <c r="R23" s="6" t="n">
-        <v>45873</v>
-      </c>
-      <c r="S23" s="5" t="inlineStr">
-        <is>
-          <t>BEFF2024-RVI-ILOILO-022-GAB-L2</t>
-        </is>
-      </c>
-      <c r="T23" s="5" t="inlineStr">
-        <is>
-          <t>BEFF2024-RVI-ILOILO-022-GAB-L2</t>
-        </is>
-      </c>
-      <c r="U23" s="6" t="n">
-        <v>45446</v>
-      </c>
-      <c r="V23" s="5" t="inlineStr">
-        <is>
-          <t>3/21/2024</t>
-        </is>
-      </c>
-      <c r="W23" s="6" t="n">
-        <v>45326</v>
-      </c>
-      <c r="X23" s="5" t="inlineStr">
-        <is>
-          <t>5/17/2024</t>
-        </is>
-      </c>
-      <c r="Y23" s="5" t="inlineStr">
-        <is>
-          <t>7/15/2024</t>
-        </is>
-      </c>
-      <c r="Z23" s="5" t="inlineStr">
-        <is>
-          <t>EARLY RISER CONSTRUCTION</t>
-        </is>
-      </c>
-      <c r="AA23" s="5" t="inlineStr"/>
-      <c r="AB23" s="7" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="5" t="inlineStr">
-        <is>
-          <t>GABALDON 2024</t>
-        </is>
-      </c>
-      <c r="B24" s="5" t="inlineStr">
-        <is>
-          <t>Region VI</t>
-        </is>
-      </c>
-      <c r="C24" s="5" t="inlineStr">
-        <is>
-          <t>Iloilo</t>
-        </is>
-      </c>
-      <c r="D24" s="5" t="n">
-        <v>116777</v>
-      </c>
-      <c r="E24" s="5" t="inlineStr">
-        <is>
-          <t>Hugo T. Apelo MES</t>
-        </is>
-      </c>
-      <c r="F24" s="5" t="inlineStr">
-        <is>
-          <t>SARA</t>
-        </is>
-      </c>
-      <c r="G24" s="5" t="inlineStr">
-        <is>
-          <t>5th</t>
-        </is>
-      </c>
-      <c r="H24" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J24" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" s="5" t="inlineStr">
-        <is>
-          <t>Conservation and Restoration of Gabaldon School Building</t>
-        </is>
-      </c>
-      <c r="L24" s="5" t="n">
-        <v>3758099.02</v>
-      </c>
-      <c r="M24" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" s="5" t="n">
-        <v>3750285.99</v>
-      </c>
-      <c r="O24" s="5" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
-      <c r="P24" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="6" t="n">
-        <v>45547</v>
-      </c>
-      <c r="R24" s="5" t="inlineStr">
-        <is>
-          <t>10/29/2024</t>
-        </is>
-      </c>
-      <c r="S24" s="5" t="inlineStr">
-        <is>
-          <t>BEFF2024-RVI-ILOILO-022-GAB-L3</t>
-        </is>
-      </c>
-      <c r="T24" s="5" t="inlineStr">
-        <is>
-          <t>BEFF2024-RVI-ILOILO-022-GAB-L3</t>
-        </is>
-      </c>
-      <c r="U24" s="6" t="n">
-        <v>45446</v>
-      </c>
-      <c r="V24" s="5" t="inlineStr">
-        <is>
-          <t>3/21/2024</t>
-        </is>
-      </c>
-      <c r="W24" s="6" t="n">
-        <v>45326</v>
-      </c>
-      <c r="X24" s="5" t="inlineStr">
-        <is>
-          <t>5/17/2024</t>
-        </is>
-      </c>
-      <c r="Y24" s="6" t="n">
-        <v>45603</v>
-      </c>
-      <c r="Z24" s="5" t="inlineStr">
-        <is>
-          <t>ANJUSH BUILDERS</t>
-        </is>
-      </c>
-      <c r="AA24" s="5" t="inlineStr"/>
-      <c r="AB24" s="7" t="n"/>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AB2:AB24" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AB2:AB16" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Filtered_By_Region/Region VI/Region VI_GABALDON.xlsx
+++ b/Filtered_By_Region/Region VI/Region VI_GABALDON.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB16"/>
+  <dimension ref="A1:AC16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -453,862 +453,888 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="36" customWidth="1" min="5" max="5"/>
-    <col width="23" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="23" customWidth="1" min="9" max="9"/>
-    <col width="24" customWidth="1" min="10" max="10"/>
-    <col width="58" customWidth="1" min="11" max="11"/>
-    <col width="20" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="17" customWidth="1" min="14" max="14"/>
-    <col width="11" customWidth="1" min="15" max="15"/>
-    <col width="26" customWidth="1" min="16" max="16"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="36" customWidth="1" min="6" max="6"/>
+    <col width="23" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="23" customWidth="1" min="10" max="10"/>
+    <col width="24" customWidth="1" min="11" max="11"/>
+    <col width="58" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="17" customWidth="1" min="15" max="15"/>
+    <col width="11" customWidth="1" min="16" max="16"/>
     <col width="26" customWidth="1" min="17" max="17"/>
-    <col width="27" customWidth="1" min="18" max="18"/>
-    <col width="36" customWidth="1" min="19" max="19"/>
+    <col width="26" customWidth="1" min="18" max="18"/>
+    <col width="27" customWidth="1" min="19" max="19"/>
     <col width="36" customWidth="1" min="20" max="20"/>
-    <col width="31" customWidth="1" min="21" max="21"/>
-    <col width="27" customWidth="1" min="22" max="22"/>
-    <col width="21" customWidth="1" min="23" max="23"/>
-    <col width="33" customWidth="1" min="24" max="24"/>
-    <col width="31" customWidth="1" min="25" max="25"/>
-    <col width="47" customWidth="1" min="26" max="26"/>
-    <col width="133" customWidth="1" min="27" max="27"/>
-    <col width="28" customWidth="1" min="28" max="28"/>
+    <col width="36" customWidth="1" min="21" max="21"/>
+    <col width="31" customWidth="1" min="22" max="22"/>
+    <col width="27" customWidth="1" min="23" max="23"/>
+    <col width="21" customWidth="1" min="24" max="24"/>
+    <col width="33" customWidth="1" min="25" max="25"/>
+    <col width="31" customWidth="1" min="26" max="26"/>
+    <col width="47" customWidth="1" min="27" max="27"/>
+    <col width="133" customWidth="1" min="28" max="28"/>
+    <col width="28" customWidth="1" min="29" max="29"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
+          <t>INDEX (DO NOT MODIFY)</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Region</t>
-        </is>
-      </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
+          <t>REGION</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>TOTAL NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>TOTAL NO. OF BUILDINGS</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>BATCH</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="P1" s="3" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="Q1" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Target Completion Date </t>
-        </is>
-      </c>
       <c r="R1" s="3" t="inlineStr">
         <is>
-          <t>Actual Date of Completion</t>
+          <t xml:space="preserve"> TARGET COMPLETION DATE </t>
         </is>
       </c>
       <c r="S1" s="3" t="inlineStr">
         <is>
-          <t>Project ID</t>
+          <t>ACTUAL DATE OF COMPLETION</t>
         </is>
       </c>
       <c r="T1" s="3" t="inlineStr">
         <is>
-          <t>Contract ID</t>
+          <t>PROJECT ID</t>
         </is>
       </c>
       <c r="U1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Invitation to Bid</t>
+          <t>CONTRACT ID</t>
         </is>
       </c>
       <c r="V1" s="3" t="inlineStr">
         <is>
-          <t>Pre-Submission Conference</t>
+          <t>ISSUANCE OF INVITATION TO BID</t>
         </is>
       </c>
       <c r="W1" s="3" t="inlineStr">
         <is>
-          <t>Bid Opening</t>
+          <t>PRE-SUBMISSION CONFERENCE</t>
         </is>
       </c>
       <c r="X1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Resolution to Award</t>
+          <t>BID OPENING</t>
         </is>
       </c>
       <c r="Y1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Notice to Proceed</t>
+          <t>ISSUANCE OF RESOLUTION TO AWARD</t>
         </is>
       </c>
       <c r="Z1" s="3" t="inlineStr">
         <is>
-          <t>Name of Contractor</t>
+          <t>ISSUANCE OF NOTICE TO PROCEED</t>
         </is>
       </c>
       <c r="AA1" s="3" t="inlineStr">
         <is>
-          <t>Other Remarks</t>
-        </is>
-      </c>
-      <c r="AB1" s="4" t="inlineStr">
+          <t>NAME OF CONTRACTOR</t>
+        </is>
+      </c>
+      <c r="AB1" s="3" t="inlineStr">
+        <is>
+          <t>OTHER REMARKS</t>
+        </is>
+      </c>
+      <c r="AC1" s="4" t="inlineStr">
         <is>
           <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="A2" s="5" t="n">
+        <v>61</v>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>Aklan</t>
         </is>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="E2" s="5" t="n">
         <v>114719</v>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>Ibajay Central School</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>IBAJAY</t>
         </is>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="H2" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H2" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="5" t="inlineStr">
+      <c r="K2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L2" s="5" t="n">
+      <c r="M2" s="5" t="n">
         <v>6238558.58</v>
       </c>
-      <c r="M2" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="5" t="n">
         <v>6218000</v>
       </c>
-      <c r="O2" s="5" t="inlineStr">
+      <c r="P2" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="6" t="n">
+      <c r="Q2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" s="6" t="n">
         <v>44349</v>
       </c>
-      <c r="R2" s="6" t="n">
+      <c r="S2" s="6" t="n">
         <v>44329</v>
       </c>
-      <c r="S2" s="5" t="inlineStr">
+      <c r="T2" s="5" t="inlineStr">
         <is>
           <t>CY 2020 GABALDON - 001</t>
         </is>
       </c>
-      <c r="T2" s="5" t="inlineStr">
+      <c r="U2" s="5" t="inlineStr">
         <is>
           <t>CY 2020 GABALDON - 001</t>
         </is>
       </c>
-      <c r="U2" s="6" t="n">
+      <c r="V2" s="6" t="n">
         <v>44068</v>
       </c>
-      <c r="V2" s="6" t="n">
+      <c r="W2" s="6" t="n">
         <v>44075</v>
       </c>
-      <c r="W2" s="6" t="n">
+      <c r="X2" s="6" t="n">
         <v>44088</v>
       </c>
-      <c r="X2" s="6" t="n">
+      <c r="Y2" s="6" t="n">
         <v>44099</v>
       </c>
-      <c r="Y2" s="6" t="n">
+      <c r="Z2" s="6" t="n">
         <v>44162</v>
       </c>
-      <c r="Z2" s="5" t="inlineStr">
+      <c r="AA2" s="5" t="inlineStr">
         <is>
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="AA2" s="5" t="inlineStr"/>
-      <c r="AB2" s="7" t="n"/>
+      <c r="AB2" s="5" t="inlineStr"/>
+      <c r="AC2" s="7" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="5" t="n">
+        <v>63</v>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="E3" s="5" t="n">
         <v>116375</v>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>Igbaras CES</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>IGBARAS</t>
         </is>
       </c>
-      <c r="G3" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="5" t="inlineStr">
+      <c r="K3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L3" s="5" t="n">
+      <c r="M3" s="5" t="n">
         <v>7538808.48</v>
       </c>
-      <c r="M3" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5" t="n">
         <v>5490282.08</v>
       </c>
-      <c r="O3" s="5" t="inlineStr">
+      <c r="P3" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="6" t="n">
+      <c r="Q3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="6" t="n">
         <v>44834</v>
       </c>
-      <c r="R3" s="6" t="n">
+      <c r="S3" s="6" t="n">
         <v>44840</v>
       </c>
-      <c r="S3" s="5" t="inlineStr">
+      <c r="T3" s="5" t="inlineStr">
         <is>
           <t>Gab2020-RVI-022-ILOILO-B1-L1</t>
         </is>
       </c>
-      <c r="T3" s="5" t="inlineStr">
+      <c r="U3" s="5" t="inlineStr">
         <is>
           <t>Gab2020-RVI-022-ILOILO-B1-L1</t>
         </is>
       </c>
-      <c r="U3" s="6" t="n">
+      <c r="V3" s="6" t="n">
         <v>43882</v>
       </c>
-      <c r="V3" s="6" t="n">
+      <c r="W3" s="6" t="n">
         <v>43888</v>
       </c>
-      <c r="W3" s="6" t="n">
+      <c r="X3" s="6" t="n">
         <v>43900</v>
       </c>
-      <c r="X3" s="6" t="n">
+      <c r="Y3" s="6" t="n">
         <v>44152</v>
       </c>
-      <c r="Y3" s="6" t="n">
+      <c r="Z3" s="6" t="n">
         <v>44172</v>
       </c>
-      <c r="Z3" s="5" t="inlineStr">
+      <c r="AA3" s="5" t="inlineStr">
         <is>
           <t>Four SG Enterprises</t>
         </is>
       </c>
-      <c r="AA3" s="5" t="inlineStr">
+      <c r="AB3" s="5" t="inlineStr">
         <is>
           <t>On-going Rectification of Punchlisted Items</t>
         </is>
       </c>
-      <c r="AB3" s="7" t="n"/>
+      <c r="AC3" s="7" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="inlineStr">
+      <c r="A4" s="5" t="n">
+        <v>64</v>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="E4" s="5" t="n">
         <v>116616</v>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>New Lucena CES</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>NEW LUCENA</t>
         </is>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="H4" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="5" t="inlineStr">
+      <c r="K4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L4" s="5" t="n">
+      <c r="M4" s="5" t="n">
         <v>5645882.941165853</v>
       </c>
-      <c r="M4" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="5" t="n">
         <v>3604983.51</v>
       </c>
-      <c r="O4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="6" t="n">
+      <c r="Q4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="6" t="n">
         <v>44329</v>
       </c>
-      <c r="R4" s="6" t="n">
+      <c r="S4" s="6" t="n">
         <v>44550</v>
       </c>
-      <c r="S4" s="5" t="inlineStr">
+      <c r="T4" s="5" t="inlineStr">
         <is>
           <t>Gab2020-RVI-022-ILOILO-B1-L2</t>
         </is>
       </c>
-      <c r="T4" s="5" t="inlineStr">
+      <c r="U4" s="5" t="inlineStr">
         <is>
           <t>Gab2020-RVI-022-ILOILO-B1-L2</t>
         </is>
       </c>
-      <c r="U4" s="6" t="n">
+      <c r="V4" s="6" t="n">
         <v>43882</v>
       </c>
-      <c r="V4" s="6" t="n">
+      <c r="W4" s="6" t="n">
         <v>43888</v>
       </c>
-      <c r="W4" s="6" t="n">
+      <c r="X4" s="6" t="n">
         <v>43900</v>
       </c>
-      <c r="X4" s="6" t="n">
+      <c r="Y4" s="6" t="n">
         <v>44152</v>
       </c>
-      <c r="Y4" s="6" t="n">
+      <c r="Z4" s="6" t="n">
         <v>44172</v>
       </c>
-      <c r="Z4" s="5" t="inlineStr">
+      <c r="AA4" s="5" t="inlineStr">
         <is>
           <t>Four SG Enterprises</t>
         </is>
       </c>
-      <c r="AA4" s="5" t="inlineStr"/>
-      <c r="AB4" s="7" t="n"/>
+      <c r="AB4" s="5" t="inlineStr"/>
+      <c r="AC4" s="7" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="A5" s="5" t="n">
+        <v>65</v>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="E5" s="5" t="n">
         <v>116119</v>
       </c>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>Cabatuan CES</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
+      <c r="G5" s="5" t="inlineStr">
         <is>
           <t>CABATUAN</t>
         </is>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="H5" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="5" t="inlineStr">
+      <c r="K5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L5" s="5" t="n">
+      <c r="M5" s="5" t="n">
         <v>6311025.38</v>
       </c>
-      <c r="M5" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="5" t="n">
         <v>4526000</v>
       </c>
-      <c r="O5" s="5" t="inlineStr">
+      <c r="P5" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="6" t="n">
+      <c r="Q5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="6" t="n">
         <v>44331</v>
       </c>
-      <c r="R5" s="6" t="n">
+      <c r="S5" s="6" t="n">
         <v>44459</v>
       </c>
-      <c r="S5" s="5" t="inlineStr">
+      <c r="T5" s="5" t="inlineStr">
         <is>
           <t>Gab2020-RVI-022-ILOILO-B1-L3</t>
         </is>
       </c>
-      <c r="T5" s="5" t="inlineStr">
+      <c r="U5" s="5" t="inlineStr">
         <is>
           <t>Gab2020-RVI-022-ILOILO-B1-L</t>
         </is>
       </c>
-      <c r="U5" s="6" t="n">
+      <c r="V5" s="6" t="n">
         <v>43882</v>
       </c>
-      <c r="V5" s="6" t="n">
+      <c r="W5" s="6" t="n">
         <v>43888</v>
       </c>
-      <c r="W5" s="6" t="n">
+      <c r="X5" s="6" t="n">
         <v>43900</v>
       </c>
-      <c r="X5" s="6" t="n">
+      <c r="Y5" s="6" t="n">
         <v>44152</v>
       </c>
-      <c r="Y5" s="6" t="n">
+      <c r="Z5" s="6" t="n">
         <v>44174</v>
       </c>
-      <c r="Z5" s="5" t="inlineStr">
+      <c r="AA5" s="5" t="inlineStr">
         <is>
           <t>RISM BUILDERS &amp; CONST. SERVICES INC.</t>
         </is>
       </c>
-      <c r="AA5" s="5" t="inlineStr"/>
-      <c r="AB5" s="7" t="n"/>
+      <c r="AB5" s="5" t="inlineStr"/>
+      <c r="AC5" s="7" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="inlineStr">
+      <c r="A6" s="5" t="n">
+        <v>66</v>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="E6" s="5" t="n">
         <v>116043</v>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>Barotac Nuevo CES</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>BAROTAC NUEVO</t>
         </is>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="H6" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H6" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="J6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="5" t="inlineStr">
+      <c r="K6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L6" s="5" t="n">
+      <c r="M6" s="5" t="n">
         <v>19897556.76641838</v>
       </c>
-      <c r="M6" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="5" t="n">
         <v>12905885.78</v>
       </c>
-      <c r="O6" s="5" t="inlineStr">
+      <c r="P6" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="5" t="inlineStr">
+      <c r="Q6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
         <is>
           <t>Ocober 30, 2022</t>
         </is>
       </c>
-      <c r="R6" s="6" t="n">
+      <c r="S6" s="6" t="n">
         <v>44831</v>
       </c>
-      <c r="S6" s="5" t="inlineStr">
+      <c r="T6" s="5" t="inlineStr">
         <is>
           <t>Gab2020-RVI-022-ILOILO-B1-L4</t>
         </is>
       </c>
-      <c r="T6" s="5" t="inlineStr">
+      <c r="U6" s="5" t="inlineStr">
         <is>
           <t>Gab2020-RVI-022-ILOILO-B1-L4</t>
         </is>
       </c>
-      <c r="U6" s="6" t="n">
+      <c r="V6" s="6" t="n">
         <v>43882</v>
       </c>
-      <c r="V6" s="6" t="n">
+      <c r="W6" s="6" t="n">
         <v>43888</v>
       </c>
-      <c r="W6" s="6" t="n">
+      <c r="X6" s="6" t="n">
         <v>43900</v>
       </c>
-      <c r="X6" s="6" t="n">
+      <c r="Y6" s="6" t="n">
         <v>44152</v>
       </c>
-      <c r="Y6" s="6" t="n">
+      <c r="Z6" s="6" t="n">
         <v>44172</v>
       </c>
-      <c r="Z6" s="5" t="inlineStr">
+      <c r="AA6" s="5" t="inlineStr">
         <is>
           <t>Four SG Enterprises</t>
         </is>
       </c>
-      <c r="AA6" s="5" t="inlineStr">
+      <c r="AB6" s="5" t="inlineStr">
         <is>
           <t>On-going but with slow workmanship</t>
         </is>
       </c>
-      <c r="AB6" s="7" t="n"/>
+      <c r="AC6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="inlineStr">
+      <c r="A7" s="5" t="n">
+        <v>67</v>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="E7" s="5" t="n">
         <v>116349</v>
       </c>
-      <c r="E7" s="5" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Estancia Central Elementary School</t>
         </is>
       </c>
-      <c r="F7" s="5" t="inlineStr">
+      <c r="G7" s="5" t="inlineStr">
         <is>
           <t>ESTANCIA</t>
         </is>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="H7" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H7" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="J7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="5" t="inlineStr">
+      <c r="K7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L7" s="5" t="n">
+      <c r="M7" s="5" t="n">
         <v>5863706.88</v>
       </c>
-      <c r="M7" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="5" t="n">
         <v>4204000</v>
       </c>
-      <c r="O7" s="5" t="inlineStr">
+      <c r="P7" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="6" t="n">
+      <c r="Q7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="6" t="n">
         <v>44522</v>
       </c>
-      <c r="R7" s="6" t="n">
+      <c r="S7" s="6" t="n">
         <v>44481</v>
       </c>
-      <c r="S7" s="5" t="inlineStr">
+      <c r="T7" s="5" t="inlineStr">
         <is>
           <t>Gab2020-RVI-022-ILOILO-B1-L4</t>
         </is>
       </c>
-      <c r="T7" s="5" t="inlineStr">
+      <c r="U7" s="5" t="inlineStr">
         <is>
           <t>Gab2020-RVI-022-ILOILO-B1-L4</t>
         </is>
       </c>
-      <c r="U7" s="6" t="n">
+      <c r="V7" s="6" t="n">
         <v>43882</v>
       </c>
-      <c r="V7" s="6" t="n">
+      <c r="W7" s="6" t="n">
         <v>43888</v>
       </c>
-      <c r="W7" s="6" t="n">
+      <c r="X7" s="6" t="n">
         <v>43900</v>
       </c>
-      <c r="X7" s="6" t="n">
+      <c r="Y7" s="6" t="n">
         <v>44105</v>
       </c>
-      <c r="Y7" s="6" t="n">
+      <c r="Z7" s="6" t="n">
         <v>44369</v>
       </c>
-      <c r="Z7" s="5" t="inlineStr">
+      <c r="AA7" s="5" t="inlineStr">
         <is>
           <t>RISM Builders and Merchandising</t>
         </is>
       </c>
-      <c r="AA7" s="5" t="inlineStr"/>
-      <c r="AB7" s="7" t="n"/>
+      <c r="AB7" s="5" t="inlineStr"/>
+      <c r="AC7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="5" t="n">
+        <v>68</v>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
         <is>
           <t>Iloilo City</t>
         </is>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="E8" s="5" t="n">
         <v>117626</v>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>A. Montes ES I</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="G8" s="5" t="inlineStr">
         <is>
           <t>ILOILO CITY (Capital)</t>
         </is>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="H8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H8" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="J8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="5" t="inlineStr">
+      <c r="K8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L8" s="5" t="n">
+      <c r="M8" s="5" t="n">
         <v>16198458.88</v>
       </c>
-      <c r="M8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" s="5" t="inlineStr"/>
-      <c r="O8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="5" t="inlineStr"/>
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="5" t="inlineStr"/>
+      <c r="Q8" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="R8" s="5" t="inlineStr"/>
       <c r="S8" s="5" t="inlineStr"/>
       <c r="T8" s="5" t="inlineStr"/>
@@ -1318,890 +1344,915 @@
       <c r="X8" s="5" t="inlineStr"/>
       <c r="Y8" s="5" t="inlineStr"/>
       <c r="Z8" s="5" t="inlineStr"/>
-      <c r="AA8" s="5" t="inlineStr">
+      <c r="AA8" s="5" t="inlineStr"/>
+      <c r="AB8" s="5" t="inlineStr">
         <is>
           <t>REQUEST FOR REALIGNMENT (Realignment of A. MONTES ES1 TO AREVALO ES 100%, RIZAL ES 100%, and ESTEBAN JUNTADOR SR. MEMORIAL ES 100%)</t>
         </is>
       </c>
-      <c r="AB8" s="7" t="n"/>
+      <c r="AC8" s="7" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="5" t="n">
+        <v>69</v>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="D9" s="5" t="inlineStr">
         <is>
           <t>Iloilo City</t>
         </is>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="E9" s="5" t="n">
         <v>117629</v>
       </c>
-      <c r="E9" s="5" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>Jalandoni MS</t>
         </is>
       </c>
-      <c r="F9" s="5" t="inlineStr">
+      <c r="G9" s="5" t="inlineStr">
         <is>
           <t>ILOILO CITY (Capital)</t>
         </is>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="H9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="J9" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="5" t="inlineStr">
+      <c r="K9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L9" s="5" t="n">
+      <c r="M9" s="5" t="n">
         <v>18915275.98</v>
       </c>
-      <c r="M9" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="5" t="n">
         <v>13229998.95</v>
       </c>
-      <c r="O9" s="5" t="inlineStr">
+      <c r="P9" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P9" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="6" t="n">
+      <c r="Q9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="6" t="n">
         <v>44396</v>
       </c>
-      <c r="R9" s="5" t="inlineStr">
+      <c r="S9" s="5" t="inlineStr">
         <is>
           <t>06:43:12</t>
         </is>
       </c>
-      <c r="S9" s="5" t="inlineStr">
+      <c r="T9" s="5" t="inlineStr">
         <is>
           <t>20-12-006</t>
         </is>
       </c>
-      <c r="T9" s="5" t="inlineStr">
+      <c r="U9" s="5" t="inlineStr">
         <is>
           <t>20-12-006</t>
         </is>
       </c>
-      <c r="U9" s="6" t="n">
+      <c r="V9" s="6" t="n">
         <v>44141</v>
       </c>
-      <c r="V9" s="6" t="n">
+      <c r="W9" s="6" t="n">
         <v>44148</v>
       </c>
-      <c r="W9" s="6" t="n">
+      <c r="X9" s="6" t="n">
         <v>44162</v>
       </c>
-      <c r="X9" s="6" t="n">
+      <c r="Y9" s="6" t="n">
         <v>44169</v>
       </c>
-      <c r="Y9" s="6" t="n">
+      <c r="Z9" s="6" t="n">
         <v>44209</v>
       </c>
-      <c r="Z9" s="5" t="inlineStr">
+      <c r="AA9" s="5" t="inlineStr">
         <is>
           <t>4SG Enterprises</t>
         </is>
       </c>
-      <c r="AA9" s="5" t="inlineStr">
+      <c r="AB9" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="AB9" s="7" t="n"/>
+      <c r="AC9" s="7" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="5" t="n">
+        <v>153</v>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="D10" s="5" t="inlineStr">
         <is>
           <t>Aklan</t>
         </is>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="E10" s="5" t="n">
         <v>114738</v>
       </c>
-      <c r="E10" s="5" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>Naisud CS</t>
         </is>
       </c>
-      <c r="F10" s="5" t="inlineStr">
+      <c r="G10" s="5" t="inlineStr">
         <is>
           <t>IBAJAY</t>
         </is>
       </c>
-      <c r="G10" s="5" t="n">
+      <c r="H10" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H10" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="5" t="inlineStr">
+      <c r="K10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L10" s="5" t="n">
+      <c r="M10" s="5" t="n">
         <v>6399403</v>
       </c>
-      <c r="M10" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="5" t="n">
         <v>6335000</v>
       </c>
-      <c r="O10" s="5" t="inlineStr">
+      <c r="P10" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="6" t="n">
+      <c r="Q10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="6" t="n">
         <v>44637</v>
       </c>
-      <c r="R10" s="6" t="n">
+      <c r="S10" s="6" t="n">
         <v>44624</v>
       </c>
-      <c r="S10" s="5" t="inlineStr">
+      <c r="T10" s="5" t="inlineStr">
         <is>
           <t>CY 2021 GABALDON - 001</t>
         </is>
       </c>
-      <c r="T10" s="5" t="inlineStr">
+      <c r="U10" s="5" t="inlineStr">
         <is>
           <t>CY 2021 GABALDON - 001</t>
         </is>
       </c>
-      <c r="U10" s="6" t="n">
+      <c r="V10" s="6" t="n">
         <v>44347</v>
       </c>
-      <c r="V10" s="6" t="n">
+      <c r="W10" s="6" t="n">
         <v>44354</v>
       </c>
-      <c r="W10" s="6" t="n">
+      <c r="X10" s="6" t="n">
         <v>44368</v>
       </c>
-      <c r="X10" s="6" t="n">
+      <c r="Y10" s="6" t="n">
         <v>44389</v>
       </c>
-      <c r="Y10" s="6" t="n">
+      <c r="Z10" s="6" t="n">
         <v>44420</v>
       </c>
-      <c r="Z10" s="5" t="inlineStr">
+      <c r="AA10" s="5" t="inlineStr">
         <is>
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="AA10" s="5" t="inlineStr"/>
-      <c r="AB10" s="7" t="n"/>
+      <c r="AB10" s="5" t="inlineStr"/>
+      <c r="AC10" s="7" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr">
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="E11" s="5" t="n">
         <v>116012</v>
       </c>
-      <c r="E11" s="5" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>Balasan CES</t>
         </is>
       </c>
-      <c r="F11" s="5" t="inlineStr">
+      <c r="G11" s="5" t="inlineStr">
         <is>
           <t>BALASAN</t>
         </is>
       </c>
-      <c r="G11" s="5" t="n">
+      <c r="H11" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H11" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="J11" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="5" t="inlineStr">
+      <c r="K11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L11" s="5" t="n">
+      <c r="M11" s="5" t="n">
         <v>9800503</v>
       </c>
-      <c r="M11" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="5" t="n">
         <v>6455847.57</v>
       </c>
-      <c r="O11" s="5" t="inlineStr">
+      <c r="P11" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P11" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="6" t="n">
+      <c r="Q11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="6" t="n">
         <v>44522</v>
       </c>
-      <c r="R11" s="6" t="n">
+      <c r="S11" s="6" t="n">
         <v>44508</v>
       </c>
-      <c r="S11" s="5" t="inlineStr">
+      <c r="T11" s="5" t="inlineStr">
         <is>
           <t>R-06-BEFF Gabaldon-2020-B2-L1</t>
         </is>
       </c>
-      <c r="T11" s="5" t="inlineStr">
+      <c r="U11" s="5" t="inlineStr">
         <is>
           <t>R-06-BEFF Gabaldon-2020-B2-L1</t>
         </is>
       </c>
-      <c r="U11" s="6" t="n">
+      <c r="V11" s="6" t="n">
         <v>43882</v>
       </c>
-      <c r="V11" s="5" t="inlineStr"/>
-      <c r="W11" s="6" t="n">
+      <c r="W11" s="5" t="inlineStr"/>
+      <c r="X11" s="6" t="n">
         <v>43900</v>
       </c>
-      <c r="X11" s="6" t="n">
+      <c r="Y11" s="6" t="n">
         <v>44105</v>
       </c>
-      <c r="Y11" s="6" t="n">
+      <c r="Z11" s="6" t="n">
         <v>44372</v>
       </c>
-      <c r="Z11" s="5" t="inlineStr">
+      <c r="AA11" s="5" t="inlineStr">
         <is>
           <t>Early Riser Construction</t>
         </is>
       </c>
-      <c r="AA11" s="5" t="inlineStr"/>
-      <c r="AB11" s="7" t="n"/>
+      <c r="AB11" s="5" t="inlineStr"/>
+      <c r="AC11" s="7" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="inlineStr">
+      <c r="A12" s="5" t="n">
+        <v>253</v>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B12" s="5" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr">
+      <c r="D12" s="5" t="inlineStr">
         <is>
           <t>Aklan</t>
         </is>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="E12" s="5" t="n">
         <v>114850</v>
       </c>
-      <c r="E12" s="5" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>Malay Elementary School</t>
         </is>
       </c>
-      <c r="F12" s="5" t="inlineStr">
+      <c r="G12" s="5" t="inlineStr">
         <is>
           <t>MALAY</t>
         </is>
       </c>
-      <c r="G12" s="5" t="inlineStr">
+      <c r="H12" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H12" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J12" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="5" t="inlineStr">
+      <c r="K12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L12" s="5" t="n">
+      <c r="M12" s="5" t="n">
         <v>8597231.289999999</v>
       </c>
-      <c r="M12" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="5" t="n">
         <v>8562000</v>
       </c>
-      <c r="O12" s="5" t="inlineStr">
+      <c r="P12" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="P12" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="5" t="inlineStr">
+      <c r="Q12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="5" t="inlineStr">
         <is>
           <t>1/20/2025</t>
         </is>
       </c>
-      <c r="R12" s="5" t="inlineStr">
+      <c r="S12" s="5" t="inlineStr">
         <is>
           <t>1/20/2025</t>
         </is>
       </c>
-      <c r="S12" s="5" t="inlineStr">
+      <c r="T12" s="5" t="inlineStr">
         <is>
           <t>DepEd-RO6-D1-2024GABALDON-012-2024</t>
         </is>
       </c>
-      <c r="T12" s="5" t="inlineStr">
+      <c r="U12" s="5" t="inlineStr">
         <is>
           <t>DepEd-RO6-D1-2024GABALDON-012-2024</t>
         </is>
       </c>
-      <c r="U12" s="6" t="n">
+      <c r="V12" s="6" t="n">
         <v>45509</v>
       </c>
-      <c r="V12" s="5" t="inlineStr">
+      <c r="W12" s="5" t="inlineStr">
         <is>
           <t>5/15/2024</t>
         </is>
       </c>
-      <c r="W12" s="5" t="inlineStr">
+      <c r="X12" s="5" t="inlineStr">
         <is>
           <t>5/27/2024</t>
         </is>
       </c>
-      <c r="X12" s="5" t="inlineStr">
+      <c r="Y12" s="5" t="inlineStr">
         <is>
           <t>6/19/2024</t>
         </is>
       </c>
-      <c r="Y12" s="5" t="inlineStr">
+      <c r="Z12" s="5" t="inlineStr">
         <is>
           <t>7/17/2024</t>
         </is>
       </c>
-      <c r="Z12" s="5" t="inlineStr">
+      <c r="AA12" s="5" t="inlineStr">
         <is>
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="AA12" s="5" t="inlineStr">
+      <c r="AB12" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="AB12" s="7" t="n"/>
+      <c r="AC12" s="7" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="inlineStr">
+      <c r="A13" s="5" t="n">
+        <v>254</v>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B13" s="5" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr">
+      <c r="D13" s="5" t="inlineStr">
         <is>
           <t>Guimaras</t>
         </is>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="E13" s="5" t="n">
         <v>115895</v>
       </c>
-      <c r="E13" s="5" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>Igang Elementary School</t>
         </is>
       </c>
-      <c r="F13" s="5" t="inlineStr">
+      <c r="G13" s="5" t="inlineStr">
         <is>
           <t>NUEVA VALENCIA</t>
         </is>
       </c>
-      <c r="G13" s="5" t="inlineStr">
+      <c r="H13" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H13" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="5" t="inlineStr">
+      <c r="K13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L13" s="5" t="n">
+      <c r="M13" s="5" t="n">
         <v>7762335.08</v>
       </c>
-      <c r="M13" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" s="5" t="n">
         <v>7707000</v>
       </c>
-      <c r="O13" s="5" t="inlineStr">
+      <c r="P13" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="6" t="n">
+      <c r="Q13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="6" t="n">
         <v>45363</v>
       </c>
-      <c r="R13" s="6" t="n">
+      <c r="S13" s="6" t="n">
         <v>45575</v>
       </c>
-      <c r="S13" s="5" t="inlineStr">
+      <c r="T13" s="5" t="inlineStr">
         <is>
           <t>Project 04-2024</t>
         </is>
       </c>
-      <c r="T13" s="5" t="inlineStr">
+      <c r="U13" s="5" t="inlineStr">
         <is>
           <t>Project 04-2024</t>
         </is>
       </c>
-      <c r="U13" s="6" t="n">
+      <c r="V13" s="6" t="n">
         <v>45294</v>
       </c>
-      <c r="V13" s="6" t="n">
+      <c r="W13" s="6" t="n">
         <v>45629</v>
       </c>
-      <c r="W13" s="5" t="inlineStr">
+      <c r="X13" s="5" t="inlineStr">
         <is>
           <t>3/26/2024</t>
         </is>
       </c>
-      <c r="X13" s="5" t="inlineStr">
+      <c r="Y13" s="5" t="inlineStr">
         <is>
           <t>6/25/2024</t>
         </is>
       </c>
-      <c r="Y13" s="6" t="n">
+      <c r="Z13" s="6" t="n">
         <v>45298</v>
       </c>
-      <c r="Z13" s="5" t="inlineStr">
+      <c r="AA13" s="5" t="inlineStr">
         <is>
           <t>RISM BUILDERS AND CONSTRUCTION SERVICES, INC.</t>
         </is>
       </c>
-      <c r="AA13" s="5" t="inlineStr">
+      <c r="AB13" s="5" t="inlineStr">
         <is>
           <t>completed and turn-over</t>
         </is>
       </c>
-      <c r="AB13" s="7" t="n"/>
+      <c r="AC13" s="7" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="inlineStr">
+      <c r="A14" s="5" t="n">
+        <v>256</v>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B14" s="5" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr">
+      <c r="D14" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="E14" s="5" t="n">
         <v>116839</v>
       </c>
-      <c r="E14" s="5" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>Tigbauan CES</t>
         </is>
       </c>
-      <c r="F14" s="5" t="inlineStr">
+      <c r="G14" s="5" t="inlineStr">
         <is>
           <t>TIGBAUAN</t>
         </is>
       </c>
-      <c r="G14" s="5" t="inlineStr">
+      <c r="H14" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H14" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="J14" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="5" t="inlineStr">
+      <c r="K14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L14" s="5" t="n">
+      <c r="M14" s="5" t="n">
         <v>13363220.1</v>
       </c>
-      <c r="M14" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" s="5" t="n">
         <v>13324432.63</v>
       </c>
-      <c r="O14" s="5" t="inlineStr">
+      <c r="P14" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P14" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="5" t="inlineStr">
+      <c r="Q14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="5" t="inlineStr">
         <is>
           <t>3/13/2025</t>
         </is>
       </c>
-      <c r="R14" s="6" t="n">
+      <c r="S14" s="6" t="n">
         <v>45638</v>
       </c>
-      <c r="S14" s="5" t="inlineStr">
+      <c r="T14" s="5" t="inlineStr">
         <is>
           <t>BEFF2024-RVI-ILOILO-022-GAB-L1</t>
         </is>
       </c>
-      <c r="T14" s="5" t="inlineStr">
+      <c r="U14" s="5" t="inlineStr">
         <is>
           <t>BEFF2024-RVI-ILOILO-022-GAB-L1</t>
         </is>
       </c>
-      <c r="U14" s="6" t="n">
+      <c r="V14" s="6" t="n">
         <v>45446</v>
       </c>
-      <c r="V14" s="5" t="inlineStr">
+      <c r="W14" s="5" t="inlineStr">
         <is>
           <t>3/21/2024</t>
         </is>
       </c>
-      <c r="W14" s="6" t="n">
+      <c r="X14" s="6" t="n">
         <v>45326</v>
       </c>
-      <c r="X14" s="5" t="inlineStr">
+      <c r="Y14" s="5" t="inlineStr">
         <is>
           <t>5/17/2024</t>
         </is>
       </c>
-      <c r="Y14" s="5" t="inlineStr">
+      <c r="Z14" s="5" t="inlineStr">
         <is>
           <t>7/15/2024</t>
         </is>
       </c>
-      <c r="Z14" s="5" t="inlineStr">
+      <c r="AA14" s="5" t="inlineStr">
         <is>
           <t>EARLY RISER CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA14" s="5" t="inlineStr"/>
-      <c r="AB14" s="7" t="n"/>
+      <c r="AB14" s="5" t="inlineStr"/>
+      <c r="AC14" s="7" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="inlineStr">
+      <c r="A15" s="5" t="n">
+        <v>257</v>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B15" s="5" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr">
+      <c r="D15" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="E15" s="5" t="n">
         <v>116394</v>
       </c>
-      <c r="E15" s="5" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>Janiuay Pilot ES</t>
         </is>
       </c>
-      <c r="F15" s="5" t="inlineStr">
+      <c r="G15" s="5" t="inlineStr">
         <is>
           <t>JANIUAY</t>
         </is>
       </c>
-      <c r="G15" s="5" t="inlineStr">
+      <c r="H15" s="5" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="H15" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="J15" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="5" t="inlineStr">
+      <c r="K15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L15" s="5" t="n">
+      <c r="M15" s="5" t="n">
         <v>8456526.869999999</v>
       </c>
-      <c r="M15" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" s="5" t="n">
         <v>8446849.01</v>
       </c>
-      <c r="O15" s="5" t="inlineStr">
+      <c r="P15" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P15" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="6" t="n">
+      <c r="Q15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="6" t="n">
         <v>45992</v>
       </c>
-      <c r="R15" s="6" t="n">
+      <c r="S15" s="6" t="n">
         <v>45873</v>
       </c>
-      <c r="S15" s="5" t="inlineStr">
+      <c r="T15" s="5" t="inlineStr">
         <is>
           <t>BEFF2024-RVI-ILOILO-022-GAB-L2</t>
         </is>
       </c>
-      <c r="T15" s="5" t="inlineStr">
+      <c r="U15" s="5" t="inlineStr">
         <is>
           <t>BEFF2024-RVI-ILOILO-022-GAB-L2</t>
         </is>
       </c>
-      <c r="U15" s="6" t="n">
+      <c r="V15" s="6" t="n">
         <v>45446</v>
       </c>
-      <c r="V15" s="5" t="inlineStr">
+      <c r="W15" s="5" t="inlineStr">
         <is>
           <t>3/21/2024</t>
         </is>
       </c>
-      <c r="W15" s="6" t="n">
+      <c r="X15" s="6" t="n">
         <v>45326</v>
       </c>
-      <c r="X15" s="5" t="inlineStr">
+      <c r="Y15" s="5" t="inlineStr">
         <is>
           <t>5/17/2024</t>
         </is>
       </c>
-      <c r="Y15" s="5" t="inlineStr">
+      <c r="Z15" s="5" t="inlineStr">
         <is>
           <t>7/15/2024</t>
         </is>
       </c>
-      <c r="Z15" s="5" t="inlineStr">
+      <c r="AA15" s="5" t="inlineStr">
         <is>
           <t>EARLY RISER CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA15" s="5" t="inlineStr"/>
-      <c r="AB15" s="7" t="n"/>
+      <c r="AB15" s="5" t="inlineStr"/>
+      <c r="AC15" s="7" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="inlineStr">
+      <c r="A16" s="5" t="n">
+        <v>258</v>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B16" s="5" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>Region VI</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr">
+      <c r="D16" s="5" t="inlineStr">
         <is>
           <t>Iloilo</t>
         </is>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="E16" s="5" t="n">
         <v>116777</v>
       </c>
-      <c r="E16" s="5" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>Hugo T. Apelo MES</t>
         </is>
       </c>
-      <c r="F16" s="5" t="inlineStr">
+      <c r="G16" s="5" t="inlineStr">
         <is>
           <t>SARA</t>
         </is>
       </c>
-      <c r="G16" s="5" t="inlineStr">
+      <c r="H16" s="5" t="inlineStr">
         <is>
           <t>5th</t>
         </is>
       </c>
-      <c r="H16" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="5" t="inlineStr">
+      <c r="K16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L16" s="5" t="n">
+      <c r="M16" s="5" t="n">
         <v>3758099.02</v>
       </c>
-      <c r="M16" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" s="5" t="n">
         <v>3750285.99</v>
       </c>
-      <c r="O16" s="5" t="inlineStr">
+      <c r="P16" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="6" t="n">
+      <c r="Q16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="6" t="n">
         <v>45547</v>
       </c>
-      <c r="R16" s="5" t="inlineStr">
+      <c r="S16" s="5" t="inlineStr">
         <is>
           <t>10/29/2024</t>
         </is>
       </c>
-      <c r="S16" s="5" t="inlineStr">
+      <c r="T16" s="5" t="inlineStr">
         <is>
           <t>BEFF2024-RVI-ILOILO-022-GAB-L3</t>
         </is>
       </c>
-      <c r="T16" s="5" t="inlineStr">
+      <c r="U16" s="5" t="inlineStr">
         <is>
           <t>BEFF2024-RVI-ILOILO-022-GAB-L3</t>
         </is>
       </c>
-      <c r="U16" s="6" t="n">
+      <c r="V16" s="6" t="n">
         <v>45446</v>
       </c>
-      <c r="V16" s="5" t="inlineStr">
+      <c r="W16" s="5" t="inlineStr">
         <is>
           <t>3/21/2024</t>
         </is>
       </c>
-      <c r="W16" s="6" t="n">
+      <c r="X16" s="6" t="n">
         <v>45326</v>
       </c>
-      <c r="X16" s="5" t="inlineStr">
+      <c r="Y16" s="5" t="inlineStr">
         <is>
           <t>5/17/2024</t>
         </is>
       </c>
-      <c r="Y16" s="6" t="n">
+      <c r="Z16" s="6" t="n">
         <v>45603</v>
       </c>
-      <c r="Z16" s="5" t="inlineStr">
+      <c r="AA16" s="5" t="inlineStr">
         <is>
           <t>ANJUSH BUILDERS</t>
         </is>
       </c>
-      <c r="AA16" s="5" t="inlineStr"/>
-      <c r="AB16" s="7" t="n"/>
+      <c r="AB16" s="5" t="inlineStr"/>
+      <c r="AC16" s="7" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AB2:AB16" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AC2:AC16" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
